--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D32D91-1BA0-4740-A41B-52E0C99B1E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78261981-2FF3-46AD-B481-EDC8688F74BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>4DM4 Assignment 2(a), DAXPY Loop, No Unrolling, No Scheduling</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -138,14 +138,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t xml:space="preserve">         No-op (how many  no-ops?)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         </t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>PERFORMANCE:</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -179,13 +171,31 @@
   </si>
   <si>
     <t>*ID</t>
+  </si>
+  <si>
+    <t>forward F2 (from M2* to *FM1) in cc6</t>
+  </si>
+  <si>
+    <t>forward F4 (FM6** to **A1) in cc12</t>
+  </si>
+  <si>
+    <t>forward F6 (A3* to *M1) in cc15</t>
+  </si>
+  <si>
+    <t>no need to forward R1 as WB and ID both on cc17</t>
+  </si>
+  <si>
+    <t>forward R3 (EX* to *ID) in cc18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         NO-OP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +277,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +385,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +752,7 @@
     </row>
     <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -892,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>16</v>
@@ -914,7 +933,9 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -930,14 +951,14 @@
       <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>19</v>
@@ -952,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>16</v>
@@ -968,7 +989,9 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -982,23 +1005,27 @@
       <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
       <c r="P16" s="11"/>
@@ -1024,38 +1051,38 @@
       <c r="F17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R17" s="18" t="s">
         <v>16</v>
@@ -1068,7 +1095,9 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -1078,41 +1107,41 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="J18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="N18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="P18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="22" t="s">
         <v>18</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>15</v>
@@ -1137,28 +1166,38 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="N19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="P19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="Q19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
@@ -1166,7 +1205,9 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -1178,38 +1219,26 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="P20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="Q20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="S20" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>16</v>
@@ -1233,34 +1262,38 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="Q21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="S21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="18" t="s">
+      <c r="T21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -1274,25 +1307,25 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
+      <c r="R22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -1302,7 +1335,7 @@
     </row>
     <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1313,20 +1346,22 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
+      <c r="S23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -1336,7 +1371,7 @@
     </row>
     <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1348,20 +1383,22 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="T24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -1381,12 +1418,8 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -1472,12 +1505,12 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">

--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78261981-2FF3-46AD-B481-EDC8688F74BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30D947-5474-4867-B268-D5386FE7E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2a" sheetId="1" r:id="rId1"/>
+    <sheet name="2b" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="51">
   <si>
     <t>4DM4 Assignment 2(a), DAXPY Loop, No Unrolling, No Scheduling</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -189,6 +190,15 @@
   </si>
   <si>
     <t xml:space="preserve">         NO-OP</t>
+  </si>
+  <si>
+    <t>4DM4 Assignment 2(b), DAXPY Loop, No Unrolling, Scheduling</t>
+  </si>
+  <si>
+    <t>Memory is dual-port (allows 2 reads, 2 writes, or a read and write per cc)</t>
+  </si>
+  <si>
+    <t>*EX</t>
   </si>
 </sst>
 </file>
@@ -293,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -355,11 +365,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,11 +408,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -669,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,4 +1563,877 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02356681-9A30-45C3-BE25-535E5C1A58D7}">
+  <dimension ref="B2:AA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="26" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" ref="D13:Z13" si="0">C13+1</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="9"/>
+    </row>
+    <row r="25" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C19:Z26 C18:E18 G18:Z18 C14:Z17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"stall"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30D947-5474-4867-B268-D5386FE7E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2F125F-D6F4-4FCB-A420-D8E1C51168E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2a" sheetId="1" r:id="rId1"/>
     <sheet name="2b" sheetId="3" r:id="rId2"/>
+    <sheet name="2c" sheetId="5" r:id="rId3"/>
+    <sheet name="2c compressed" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="114">
   <si>
     <t>4DM4 Assignment 2(a), DAXPY Loop, No Unrolling, No Scheduling</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -186,9 +188,6 @@
     <t>no need to forward R1 as WB and ID both on cc17</t>
   </si>
   <si>
-    <t>forward R3 (EX* to *ID) in cc18</t>
-  </si>
-  <si>
     <t xml:space="preserve">         NO-OP</t>
   </si>
   <si>
@@ -199,13 +198,226 @@
   </si>
   <si>
     <t>*EX</t>
+  </si>
+  <si>
+    <t>Instruction Slot #1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IF (F1,F2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EX (Int, FP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM (M1,M2) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Comment/Hazard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PERFORMANCE:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOTES:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4DM4 Assignment #2(c), Compressed Timing Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         L.D            F2, 0(R1)</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>5,6*</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>11,13</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>*7,8,9,10,11,12**</t>
+  </si>
+  <si>
+    <t>**13,14,15*</t>
+  </si>
+  <si>
+    <t>*16,17</t>
+  </si>
+  <si>
+    <t>14,16</t>
+  </si>
+  <si>
+    <t>19,20*</t>
+  </si>
+  <si>
+    <t>*21,22,23,24,25,26**</t>
+  </si>
+  <si>
+    <t>forward F2 (from M2* to *FM1) in cc20</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>18,21</t>
+  </si>
+  <si>
+    <t>**27,28,29*</t>
+  </si>
+  <si>
+    <t>*35,36,37,38,39,40**</t>
+  </si>
+  <si>
+    <t>**41,42,43*</t>
+  </si>
+  <si>
+    <t>*49,50,51,52,53,54**</t>
+  </si>
+  <si>
+    <t>**55,56,57*</t>
+  </si>
+  <si>
+    <t>*30,31</t>
+  </si>
+  <si>
+    <t>33,34*</t>
+  </si>
+  <si>
+    <t>37,38</t>
+  </si>
+  <si>
+    <t>*44,45</t>
+  </si>
+  <si>
+    <t>47,48*</t>
+  </si>
+  <si>
+    <t>51,52</t>
+  </si>
+  <si>
+    <t>*58,59</t>
+  </si>
+  <si>
+    <t>forward F2 (from M2* to *FM1) in cc34</t>
+  </si>
+  <si>
+    <t>forward F2 (from M2* to *FM1) in cc48</t>
+  </si>
+  <si>
+    <t>56,58</t>
+  </si>
+  <si>
+    <t>58,59</t>
+  </si>
+  <si>
+    <t>60*</t>
+  </si>
+  <si>
+    <t>*61</t>
+  </si>
+  <si>
+    <t>59,61</t>
+  </si>
+  <si>
+    <t>61,62</t>
+  </si>
+  <si>
+    <t>branch-delay slot</t>
+  </si>
+  <si>
+    <t>forward R3 (EX* to *ID) in cc60</t>
+  </si>
+  <si>
+    <t>forward F4 (FM6** to **A1) in cc12
+stall on FM1 waiting for F2</t>
+  </si>
+  <si>
+    <t>forward F6 (A3* to *M1) in cc15
+stall on ID waiting for F6
+stall on A1 waiting for F4</t>
+  </si>
+  <si>
+    <t>stall on M1 waiting for F6</t>
+  </si>
+  <si>
+    <t>forward F4 (FM6** to **A1) in cc26
+stall on FM1 waiting for F2</t>
+  </si>
+  <si>
+    <t>forward F4 (FM6** to **A1) in cc40
+stall on FM1 waiting for F2</t>
+  </si>
+  <si>
+    <t>forward F4 (FM6** to **A1) in cc54
+stall on FM1 waiting for F2</t>
+  </si>
+  <si>
+    <t>forward F6 (A3* to *M1) in cc29
+stall on ID waiting for F6
+stall on A1 waiting for F4</t>
+  </si>
+  <si>
+    <t>forward F6 (A3* to *M1) in cc43
+stall on ID waiting for F6
+stall on A1 waiting for F4</t>
+  </si>
+  <si>
+    <t>forward F6 (A3* to *M1) in cc57
+stall on ID waiting for F6
+stall on A1 waiting for F4</t>
+  </si>
+  <si>
+    <t>stall on ID waiting for R3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +506,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -376,11 +613,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,6 +659,44 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +986,7 @@
   <dimension ref="B2:AA40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,10 +1596,10 @@
       <c r="S21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="18" t="s">
+      <c r="T21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="V21" s="11"/>
@@ -1319,9 +1607,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA21" s="9"/>
     </row>
     <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -1348,11 +1634,11 @@
       <c r="S22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>41</v>
+      <c r="T22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
@@ -1363,7 +1649,7 @@
     </row>
     <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1399,7 +1685,7 @@
     </row>
     <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1569,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02356681-9A30-45C3-BE25-535E5C1A58D7}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1869,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1623,7 +1909,7 @@
     </row>
     <row r="9" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1995,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>16</v>
@@ -2338,8 +2624,8 @@
     <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2362,52 +2648,43 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D33" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D34" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D35" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D36" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="40" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
@@ -2436,4 +2713,5868 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2947B3F-865E-4E46-9A91-E9BDDBBE8BD5}">
+  <dimension ref="A2:DB66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42:XFD42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="27" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:106" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:Y13" si="0">B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" ref="D13" si="1">C13+1</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13" si="2">D13+1</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13" si="3">E13+1</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" ref="G13" si="4">F13+1</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13" si="5">G13+1</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" ref="I13" si="6">H13+1</f>
+        <v>8</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13" si="7">I13+1</f>
+        <v>9</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" ref="K13" si="8">J13+1</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13" si="9">K13+1</f>
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" ref="M13" si="10">L13+1</f>
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" ref="N13" si="11">M13+1</f>
+        <v>13</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" ref="O13" si="12">N13+1</f>
+        <v>14</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" ref="P13" si="13">O13+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" ref="Q13" si="14">P13+1</f>
+        <v>16</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" ref="R13" si="15">Q13+1</f>
+        <v>17</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" ref="S13" si="16">R13+1</f>
+        <v>18</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" ref="T13" si="17">S13+1</f>
+        <v>19</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" ref="U13" si="18">T13+1</f>
+        <v>20</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" ref="V13" si="19">U13+1</f>
+        <v>21</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" ref="W13" si="20">V13+1</f>
+        <v>22</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" ref="X13" si="21">W13+1</f>
+        <v>23</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" ref="Y13" si="22">X13+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" ref="Z13" si="23">Y13+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" ref="AA13" si="24">Z13+1</f>
+        <v>26</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" ref="AB13" si="25">AA13+1</f>
+        <v>27</v>
+      </c>
+      <c r="AC13" s="7">
+        <f t="shared" ref="AC13" si="26">AB13+1</f>
+        <v>28</v>
+      </c>
+      <c r="AD13" s="7">
+        <f t="shared" ref="AD13" si="27">AC13+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE13" s="7">
+        <f t="shared" ref="AE13" si="28">AD13+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" ref="AF13" si="29">AE13+1</f>
+        <v>31</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" ref="AG13" si="30">AF13+1</f>
+        <v>32</v>
+      </c>
+      <c r="AH13" s="7">
+        <f t="shared" ref="AH13" si="31">AG13+1</f>
+        <v>33</v>
+      </c>
+      <c r="AI13" s="7">
+        <f t="shared" ref="AI13" si="32">AH13+1</f>
+        <v>34</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f t="shared" ref="AJ13" si="33">AI13+1</f>
+        <v>35</v>
+      </c>
+      <c r="AK13" s="7">
+        <f t="shared" ref="AK13" si="34">AJ13+1</f>
+        <v>36</v>
+      </c>
+      <c r="AL13" s="7">
+        <f t="shared" ref="AL13" si="35">AK13+1</f>
+        <v>37</v>
+      </c>
+      <c r="AM13" s="7">
+        <f t="shared" ref="AM13" si="36">AL13+1</f>
+        <v>38</v>
+      </c>
+      <c r="AN13" s="7">
+        <f t="shared" ref="AN13" si="37">AM13+1</f>
+        <v>39</v>
+      </c>
+      <c r="AO13" s="7">
+        <f t="shared" ref="AO13" si="38">AN13+1</f>
+        <v>40</v>
+      </c>
+      <c r="AP13" s="7">
+        <f t="shared" ref="AP13" si="39">AO13+1</f>
+        <v>41</v>
+      </c>
+      <c r="AQ13" s="7">
+        <f t="shared" ref="AQ13" si="40">AP13+1</f>
+        <v>42</v>
+      </c>
+      <c r="AR13" s="7">
+        <f t="shared" ref="AR13" si="41">AQ13+1</f>
+        <v>43</v>
+      </c>
+      <c r="AS13" s="7">
+        <f t="shared" ref="AS13" si="42">AR13+1</f>
+        <v>44</v>
+      </c>
+      <c r="AT13" s="7">
+        <f t="shared" ref="AT13" si="43">AS13+1</f>
+        <v>45</v>
+      </c>
+      <c r="AU13" s="7">
+        <f t="shared" ref="AU13" si="44">AT13+1</f>
+        <v>46</v>
+      </c>
+      <c r="AV13" s="7">
+        <f t="shared" ref="AV13" si="45">AU13+1</f>
+        <v>47</v>
+      </c>
+      <c r="AW13" s="7">
+        <f t="shared" ref="AW13" si="46">AV13+1</f>
+        <v>48</v>
+      </c>
+      <c r="AX13" s="7">
+        <f t="shared" ref="AX13" si="47">AW13+1</f>
+        <v>49</v>
+      </c>
+      <c r="AY13" s="7">
+        <f t="shared" ref="AY13" si="48">AX13+1</f>
+        <v>50</v>
+      </c>
+      <c r="AZ13" s="7">
+        <f t="shared" ref="AZ13" si="49">AY13+1</f>
+        <v>51</v>
+      </c>
+      <c r="BA13" s="7">
+        <f t="shared" ref="BA13" si="50">AZ13+1</f>
+        <v>52</v>
+      </c>
+      <c r="BB13" s="7">
+        <f t="shared" ref="BB13" si="51">BA13+1</f>
+        <v>53</v>
+      </c>
+      <c r="BC13" s="7">
+        <f t="shared" ref="BC13" si="52">BB13+1</f>
+        <v>54</v>
+      </c>
+      <c r="BD13" s="7">
+        <f t="shared" ref="BD13" si="53">BC13+1</f>
+        <v>55</v>
+      </c>
+      <c r="BE13" s="7">
+        <f t="shared" ref="BE13" si="54">BD13+1</f>
+        <v>56</v>
+      </c>
+      <c r="BF13" s="7">
+        <f t="shared" ref="BF13" si="55">BE13+1</f>
+        <v>57</v>
+      </c>
+      <c r="BG13" s="7">
+        <f t="shared" ref="BG13" si="56">BF13+1</f>
+        <v>58</v>
+      </c>
+      <c r="BH13" s="7">
+        <f t="shared" ref="BH13" si="57">BG13+1</f>
+        <v>59</v>
+      </c>
+      <c r="BI13" s="7">
+        <f t="shared" ref="BI13" si="58">BH13+1</f>
+        <v>60</v>
+      </c>
+      <c r="BJ13" s="7">
+        <f t="shared" ref="BJ13" si="59">BI13+1</f>
+        <v>61</v>
+      </c>
+      <c r="BK13" s="7">
+        <f t="shared" ref="BK13" si="60">BJ13+1</f>
+        <v>62</v>
+      </c>
+      <c r="BL13" s="7">
+        <f t="shared" ref="BL13" si="61">BK13+1</f>
+        <v>63</v>
+      </c>
+      <c r="BM13" s="7">
+        <f t="shared" ref="BM13" si="62">BL13+1</f>
+        <v>64</v>
+      </c>
+      <c r="BN13" s="7">
+        <f t="shared" ref="BN13" si="63">BM13+1</f>
+        <v>65</v>
+      </c>
+      <c r="BO13" s="7">
+        <f t="shared" ref="BO13" si="64">BN13+1</f>
+        <v>66</v>
+      </c>
+      <c r="BP13" s="7">
+        <f t="shared" ref="BP13" si="65">BO13+1</f>
+        <v>67</v>
+      </c>
+      <c r="BQ13" s="7">
+        <f t="shared" ref="BQ13" si="66">BP13+1</f>
+        <v>68</v>
+      </c>
+      <c r="BR13" s="7">
+        <f t="shared" ref="BR13" si="67">BQ13+1</f>
+        <v>69</v>
+      </c>
+      <c r="BS13" s="7">
+        <f t="shared" ref="BS13" si="68">BR13+1</f>
+        <v>70</v>
+      </c>
+      <c r="BT13" s="7">
+        <f t="shared" ref="BT13" si="69">BS13+1</f>
+        <v>71</v>
+      </c>
+      <c r="BU13" s="7">
+        <f t="shared" ref="BU13" si="70">BT13+1</f>
+        <v>72</v>
+      </c>
+      <c r="BV13" s="7">
+        <f t="shared" ref="BV13" si="71">BU13+1</f>
+        <v>73</v>
+      </c>
+      <c r="BW13" s="7">
+        <f t="shared" ref="BW13" si="72">BV13+1</f>
+        <v>74</v>
+      </c>
+      <c r="BX13" s="7">
+        <f t="shared" ref="BX13" si="73">BW13+1</f>
+        <v>75</v>
+      </c>
+      <c r="BY13" s="7">
+        <f t="shared" ref="BY13" si="74">BX13+1</f>
+        <v>76</v>
+      </c>
+      <c r="BZ13" s="7">
+        <f t="shared" ref="BZ13" si="75">BY13+1</f>
+        <v>77</v>
+      </c>
+      <c r="CA13" s="7">
+        <f t="shared" ref="CA13" si="76">BZ13+1</f>
+        <v>78</v>
+      </c>
+      <c r="CB13" s="7">
+        <f t="shared" ref="CB13" si="77">CA13+1</f>
+        <v>79</v>
+      </c>
+      <c r="CC13" s="7">
+        <f t="shared" ref="CC13" si="78">CB13+1</f>
+        <v>80</v>
+      </c>
+      <c r="CD13" s="7">
+        <f t="shared" ref="CD13" si="79">CC13+1</f>
+        <v>81</v>
+      </c>
+      <c r="CE13" s="7">
+        <f t="shared" ref="CE13" si="80">CD13+1</f>
+        <v>82</v>
+      </c>
+      <c r="CF13" s="7">
+        <f t="shared" ref="CF13" si="81">CE13+1</f>
+        <v>83</v>
+      </c>
+      <c r="CG13" s="7">
+        <f t="shared" ref="CG13" si="82">CF13+1</f>
+        <v>84</v>
+      </c>
+      <c r="CH13" s="7">
+        <f t="shared" ref="CH13" si="83">CG13+1</f>
+        <v>85</v>
+      </c>
+      <c r="CI13" s="7">
+        <f t="shared" ref="CI13" si="84">CH13+1</f>
+        <v>86</v>
+      </c>
+      <c r="CJ13" s="7">
+        <f t="shared" ref="CJ13" si="85">CI13+1</f>
+        <v>87</v>
+      </c>
+      <c r="CK13" s="7">
+        <f t="shared" ref="CK13" si="86">CJ13+1</f>
+        <v>88</v>
+      </c>
+      <c r="CL13" s="7">
+        <f t="shared" ref="CL13" si="87">CK13+1</f>
+        <v>89</v>
+      </c>
+      <c r="CM13" s="7">
+        <f t="shared" ref="CM13" si="88">CL13+1</f>
+        <v>90</v>
+      </c>
+      <c r="CN13" s="7">
+        <f t="shared" ref="CN13" si="89">CM13+1</f>
+        <v>91</v>
+      </c>
+      <c r="CO13" s="7">
+        <f t="shared" ref="CO13" si="90">CN13+1</f>
+        <v>92</v>
+      </c>
+      <c r="CP13" s="7">
+        <f t="shared" ref="CP13" si="91">CO13+1</f>
+        <v>93</v>
+      </c>
+      <c r="CQ13" s="7">
+        <f t="shared" ref="CQ13" si="92">CP13+1</f>
+        <v>94</v>
+      </c>
+      <c r="CR13" s="7">
+        <f t="shared" ref="CR13" si="93">CQ13+1</f>
+        <v>95</v>
+      </c>
+      <c r="CS13" s="7">
+        <f t="shared" ref="CS13" si="94">CR13+1</f>
+        <v>96</v>
+      </c>
+      <c r="CT13" s="7">
+        <f t="shared" ref="CT13" si="95">CS13+1</f>
+        <v>97</v>
+      </c>
+      <c r="CU13" s="7">
+        <f t="shared" ref="CU13" si="96">CT13+1</f>
+        <v>98</v>
+      </c>
+      <c r="CV13" s="7">
+        <f t="shared" ref="CV13" si="97">CU13+1</f>
+        <v>99</v>
+      </c>
+      <c r="CW13" s="7">
+        <f t="shared" ref="CW13" si="98">CV13+1</f>
+        <v>100</v>
+      </c>
+      <c r="CX13" s="7">
+        <f t="shared" ref="CX13" si="99">CW13+1</f>
+        <v>101</v>
+      </c>
+      <c r="CY13" s="7">
+        <f t="shared" ref="CY13" si="100">CX13+1</f>
+        <v>102</v>
+      </c>
+      <c r="CZ13" s="7">
+        <f t="shared" ref="CZ13" si="101">CY13+1</f>
+        <v>103</v>
+      </c>
+      <c r="DA13" s="7">
+        <f t="shared" ref="DA13" si="102">CZ13+1</f>
+        <v>104</v>
+      </c>
+      <c r="DB13" s="7">
+        <f t="shared" ref="DB13" si="103">DA13+1</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="8"/>
+      <c r="BQ14" s="8"/>
+      <c r="BR14" s="8"/>
+      <c r="BS14" s="8"/>
+      <c r="BT14" s="8"/>
+      <c r="BU14" s="8"/>
+      <c r="BV14" s="8"/>
+      <c r="BW14" s="8"/>
+      <c r="BX14" s="8"/>
+      <c r="BY14" s="8"/>
+      <c r="BZ14" s="8"/>
+      <c r="CA14" s="8"/>
+      <c r="CB14" s="8"/>
+      <c r="CC14" s="8"/>
+      <c r="CD14" s="8"/>
+      <c r="CE14" s="8"/>
+      <c r="CF14" s="8"/>
+      <c r="CG14" s="8"/>
+      <c r="CH14" s="8"/>
+      <c r="CI14" s="8"/>
+      <c r="CJ14" s="8"/>
+      <c r="CK14" s="8"/>
+      <c r="CL14" s="8"/>
+      <c r="CM14" s="8"/>
+      <c r="CN14" s="8"/>
+      <c r="CO14" s="8"/>
+      <c r="CP14" s="8"/>
+      <c r="CQ14" s="8"/>
+      <c r="CR14" s="8"/>
+      <c r="CS14" s="8"/>
+      <c r="CT14" s="8"/>
+      <c r="CU14" s="8"/>
+      <c r="CV14" s="8"/>
+      <c r="CW14" s="8"/>
+      <c r="CX14" s="8"/>
+      <c r="CY14" s="8"/>
+      <c r="CZ14" s="8"/>
+      <c r="DA14" s="8"/>
+      <c r="DB14" s="8"/>
+    </row>
+    <row r="15" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+      <c r="BK15" s="8"/>
+      <c r="BL15" s="8"/>
+      <c r="BM15" s="8"/>
+      <c r="BN15" s="8"/>
+      <c r="BO15" s="8"/>
+      <c r="BP15" s="8"/>
+      <c r="BQ15" s="8"/>
+      <c r="BR15" s="8"/>
+      <c r="BS15" s="8"/>
+      <c r="BT15" s="8"/>
+      <c r="BU15" s="8"/>
+      <c r="BV15" s="8"/>
+      <c r="BW15" s="8"/>
+      <c r="BX15" s="8"/>
+      <c r="BY15" s="8"/>
+      <c r="BZ15" s="8"/>
+      <c r="CA15" s="8"/>
+      <c r="CB15" s="8"/>
+      <c r="CC15" s="8"/>
+      <c r="CD15" s="8"/>
+      <c r="CE15" s="8"/>
+      <c r="CF15" s="8"/>
+      <c r="CG15" s="8"/>
+      <c r="CH15" s="8"/>
+      <c r="CI15" s="8"/>
+      <c r="CJ15" s="8"/>
+      <c r="CK15" s="8"/>
+      <c r="CL15" s="8"/>
+      <c r="CM15" s="8"/>
+      <c r="CN15" s="8"/>
+      <c r="CO15" s="8"/>
+      <c r="CP15" s="8"/>
+      <c r="CQ15" s="8"/>
+      <c r="CR15" s="8"/>
+      <c r="CS15" s="8"/>
+      <c r="CT15" s="8"/>
+      <c r="CU15" s="8"/>
+      <c r="CV15" s="8"/>
+      <c r="CW15" s="8"/>
+      <c r="CX15" s="8"/>
+      <c r="CY15" s="8"/>
+      <c r="CZ15" s="8"/>
+      <c r="DA15" s="8"/>
+      <c r="DB15" s="8"/>
+    </row>
+    <row r="16" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8"/>
+      <c r="BK16" s="8"/>
+      <c r="BL16" s="8"/>
+      <c r="BM16" s="8"/>
+      <c r="BN16" s="8"/>
+      <c r="BO16" s="8"/>
+      <c r="BP16" s="8"/>
+      <c r="BQ16" s="8"/>
+      <c r="BR16" s="8"/>
+      <c r="BS16" s="8"/>
+      <c r="BT16" s="8"/>
+      <c r="BU16" s="8"/>
+      <c r="BV16" s="8"/>
+      <c r="BW16" s="8"/>
+      <c r="BX16" s="8"/>
+      <c r="BY16" s="8"/>
+      <c r="BZ16" s="8"/>
+      <c r="CA16" s="8"/>
+      <c r="CB16" s="8"/>
+      <c r="CC16" s="8"/>
+      <c r="CD16" s="8"/>
+      <c r="CE16" s="8"/>
+      <c r="CF16" s="8"/>
+      <c r="CG16" s="8"/>
+      <c r="CH16" s="8"/>
+      <c r="CI16" s="8"/>
+      <c r="CJ16" s="8"/>
+      <c r="CK16" s="8"/>
+      <c r="CL16" s="8"/>
+      <c r="CM16" s="8"/>
+      <c r="CN16" s="8"/>
+      <c r="CO16" s="8"/>
+      <c r="CP16" s="8"/>
+      <c r="CQ16" s="8"/>
+      <c r="CR16" s="8"/>
+      <c r="CS16" s="8"/>
+      <c r="CT16" s="8"/>
+      <c r="CU16" s="8"/>
+      <c r="CV16" s="8"/>
+      <c r="CW16" s="8"/>
+      <c r="CX16" s="8"/>
+      <c r="CY16" s="8"/>
+      <c r="CZ16" s="8"/>
+      <c r="DA16" s="8"/>
+      <c r="DB16" s="8"/>
+    </row>
+    <row r="17" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
+      <c r="BK17" s="8"/>
+      <c r="BL17" s="8"/>
+      <c r="BM17" s="8"/>
+      <c r="BN17" s="8"/>
+      <c r="BO17" s="8"/>
+      <c r="BP17" s="8"/>
+      <c r="BQ17" s="8"/>
+      <c r="BR17" s="8"/>
+      <c r="BS17" s="8"/>
+      <c r="BT17" s="8"/>
+      <c r="BU17" s="8"/>
+      <c r="BV17" s="8"/>
+      <c r="BW17" s="8"/>
+      <c r="BX17" s="8"/>
+      <c r="BY17" s="8"/>
+      <c r="BZ17" s="8"/>
+      <c r="CA17" s="8"/>
+      <c r="CB17" s="8"/>
+      <c r="CC17" s="8"/>
+      <c r="CD17" s="8"/>
+      <c r="CE17" s="8"/>
+      <c r="CF17" s="8"/>
+      <c r="CG17" s="8"/>
+      <c r="CH17" s="8"/>
+      <c r="CI17" s="8"/>
+      <c r="CJ17" s="8"/>
+      <c r="CK17" s="8"/>
+      <c r="CL17" s="8"/>
+      <c r="CM17" s="8"/>
+      <c r="CN17" s="8"/>
+      <c r="CO17" s="8"/>
+      <c r="CP17" s="8"/>
+      <c r="CQ17" s="8"/>
+      <c r="CR17" s="8"/>
+      <c r="CS17" s="8"/>
+      <c r="CT17" s="8"/>
+      <c r="CU17" s="8"/>
+      <c r="CV17" s="8"/>
+      <c r="CW17" s="8"/>
+      <c r="CX17" s="8"/>
+      <c r="CY17" s="8"/>
+      <c r="CZ17" s="8"/>
+      <c r="DA17" s="8"/>
+      <c r="DB17" s="8"/>
+    </row>
+    <row r="18" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="8"/>
+      <c r="BK18" s="8"/>
+      <c r="BL18" s="8"/>
+      <c r="BM18" s="8"/>
+      <c r="BN18" s="8"/>
+      <c r="BO18" s="8"/>
+      <c r="BP18" s="8"/>
+      <c r="BQ18" s="8"/>
+      <c r="BR18" s="8"/>
+      <c r="BS18" s="8"/>
+      <c r="BT18" s="8"/>
+      <c r="BU18" s="8"/>
+      <c r="BV18" s="8"/>
+      <c r="BW18" s="8"/>
+      <c r="BX18" s="8"/>
+      <c r="BY18" s="8"/>
+      <c r="BZ18" s="8"/>
+      <c r="CA18" s="8"/>
+      <c r="CB18" s="8"/>
+      <c r="CC18" s="8"/>
+      <c r="CD18" s="8"/>
+      <c r="CE18" s="8"/>
+      <c r="CF18" s="8"/>
+      <c r="CG18" s="8"/>
+      <c r="CH18" s="8"/>
+      <c r="CI18" s="8"/>
+      <c r="CJ18" s="8"/>
+      <c r="CK18" s="8"/>
+      <c r="CL18" s="8"/>
+      <c r="CM18" s="8"/>
+      <c r="CN18" s="8"/>
+      <c r="CO18" s="8"/>
+      <c r="CP18" s="8"/>
+      <c r="CQ18" s="8"/>
+      <c r="CR18" s="8"/>
+      <c r="CS18" s="8"/>
+      <c r="CT18" s="8"/>
+      <c r="CU18" s="8"/>
+      <c r="CV18" s="8"/>
+      <c r="CW18" s="8"/>
+      <c r="CX18" s="8"/>
+      <c r="CY18" s="8"/>
+      <c r="CZ18" s="8"/>
+      <c r="DA18" s="8"/>
+      <c r="DB18" s="8"/>
+    </row>
+    <row r="19" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="8"/>
+      <c r="BK19" s="8"/>
+      <c r="BL19" s="8"/>
+      <c r="BM19" s="8"/>
+      <c r="BN19" s="8"/>
+      <c r="BO19" s="8"/>
+      <c r="BP19" s="8"/>
+      <c r="BQ19" s="8"/>
+      <c r="BR19" s="8"/>
+      <c r="BS19" s="8"/>
+      <c r="BT19" s="8"/>
+      <c r="BU19" s="8"/>
+      <c r="BV19" s="8"/>
+      <c r="BW19" s="8"/>
+      <c r="BX19" s="8"/>
+      <c r="BY19" s="8"/>
+      <c r="BZ19" s="8"/>
+      <c r="CA19" s="8"/>
+      <c r="CB19" s="8"/>
+      <c r="CC19" s="8"/>
+      <c r="CD19" s="8"/>
+      <c r="CE19" s="8"/>
+      <c r="CF19" s="8"/>
+      <c r="CG19" s="8"/>
+      <c r="CH19" s="8"/>
+      <c r="CI19" s="8"/>
+      <c r="CJ19" s="8"/>
+      <c r="CK19" s="8"/>
+      <c r="CL19" s="8"/>
+      <c r="CM19" s="8"/>
+      <c r="CN19" s="8"/>
+      <c r="CO19" s="8"/>
+      <c r="CP19" s="8"/>
+      <c r="CQ19" s="8"/>
+      <c r="CR19" s="8"/>
+      <c r="CS19" s="8"/>
+      <c r="CT19" s="8"/>
+      <c r="CU19" s="8"/>
+      <c r="CV19" s="8"/>
+      <c r="CW19" s="8"/>
+      <c r="CX19" s="8"/>
+      <c r="CY19" s="8"/>
+      <c r="CZ19" s="8"/>
+      <c r="DA19" s="8"/>
+      <c r="DB19" s="8"/>
+    </row>
+    <row r="20" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+      <c r="BE20" s="8"/>
+      <c r="BF20" s="8"/>
+      <c r="BG20" s="8"/>
+      <c r="BH20" s="8"/>
+      <c r="BI20" s="8"/>
+      <c r="BJ20" s="8"/>
+      <c r="BK20" s="8"/>
+      <c r="BL20" s="8"/>
+      <c r="BM20" s="8"/>
+      <c r="BN20" s="8"/>
+      <c r="BO20" s="8"/>
+      <c r="BP20" s="8"/>
+      <c r="BQ20" s="8"/>
+      <c r="BR20" s="8"/>
+      <c r="BS20" s="8"/>
+      <c r="BT20" s="8"/>
+      <c r="BU20" s="8"/>
+      <c r="BV20" s="8"/>
+      <c r="BW20" s="8"/>
+      <c r="BX20" s="8"/>
+      <c r="BY20" s="8"/>
+      <c r="BZ20" s="8"/>
+      <c r="CA20" s="8"/>
+      <c r="CB20" s="8"/>
+      <c r="CC20" s="8"/>
+      <c r="CD20" s="8"/>
+      <c r="CE20" s="8"/>
+      <c r="CF20" s="8"/>
+      <c r="CG20" s="8"/>
+      <c r="CH20" s="8"/>
+      <c r="CI20" s="8"/>
+      <c r="CJ20" s="8"/>
+      <c r="CK20" s="8"/>
+      <c r="CL20" s="8"/>
+      <c r="CM20" s="8"/>
+      <c r="CN20" s="8"/>
+      <c r="CO20" s="8"/>
+      <c r="CP20" s="8"/>
+      <c r="CQ20" s="8"/>
+      <c r="CR20" s="8"/>
+      <c r="CS20" s="8"/>
+      <c r="CT20" s="8"/>
+      <c r="CU20" s="8"/>
+      <c r="CV20" s="8"/>
+      <c r="CW20" s="8"/>
+      <c r="CX20" s="8"/>
+      <c r="CY20" s="8"/>
+      <c r="CZ20" s="8"/>
+      <c r="DA20" s="8"/>
+      <c r="DB20" s="8"/>
+    </row>
+    <row r="21" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8"/>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
+      <c r="BN21" s="8"/>
+      <c r="BO21" s="8"/>
+      <c r="BP21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BS21" s="8"/>
+      <c r="BT21" s="8"/>
+      <c r="BU21" s="8"/>
+      <c r="BV21" s="8"/>
+      <c r="BW21" s="8"/>
+      <c r="BX21" s="8"/>
+      <c r="BY21" s="8"/>
+      <c r="BZ21" s="8"/>
+      <c r="CA21" s="8"/>
+      <c r="CB21" s="8"/>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="8"/>
+      <c r="CE21" s="8"/>
+      <c r="CF21" s="8"/>
+      <c r="CG21" s="8"/>
+      <c r="CH21" s="8"/>
+      <c r="CI21" s="8"/>
+      <c r="CJ21" s="8"/>
+      <c r="CK21" s="8"/>
+      <c r="CL21" s="8"/>
+      <c r="CM21" s="8"/>
+      <c r="CN21" s="8"/>
+      <c r="CO21" s="8"/>
+      <c r="CP21" s="8"/>
+      <c r="CQ21" s="8"/>
+      <c r="CR21" s="8"/>
+      <c r="CS21" s="8"/>
+      <c r="CT21" s="8"/>
+      <c r="CU21" s="8"/>
+      <c r="CV21" s="8"/>
+      <c r="CW21" s="8"/>
+      <c r="CX21" s="8"/>
+      <c r="CY21" s="8"/>
+      <c r="CZ21" s="8"/>
+      <c r="DA21" s="8"/>
+      <c r="DB21" s="8"/>
+    </row>
+    <row r="22" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
+      <c r="BL22" s="8"/>
+      <c r="BM22" s="8"/>
+      <c r="BN22" s="8"/>
+      <c r="BO22" s="8"/>
+      <c r="BP22" s="8"/>
+      <c r="BQ22" s="8"/>
+      <c r="BR22" s="8"/>
+      <c r="BS22" s="8"/>
+      <c r="BT22" s="8"/>
+      <c r="BU22" s="8"/>
+      <c r="BV22" s="8"/>
+      <c r="BW22" s="8"/>
+      <c r="BX22" s="8"/>
+      <c r="BY22" s="8"/>
+      <c r="BZ22" s="8"/>
+      <c r="CA22" s="8"/>
+      <c r="CB22" s="8"/>
+      <c r="CC22" s="8"/>
+      <c r="CD22" s="8"/>
+      <c r="CE22" s="8"/>
+      <c r="CF22" s="8"/>
+      <c r="CG22" s="8"/>
+      <c r="CH22" s="8"/>
+      <c r="CI22" s="8"/>
+      <c r="CJ22" s="8"/>
+      <c r="CK22" s="8"/>
+      <c r="CL22" s="8"/>
+      <c r="CM22" s="8"/>
+      <c r="CN22" s="8"/>
+      <c r="CO22" s="8"/>
+      <c r="CP22" s="8"/>
+      <c r="CQ22" s="8"/>
+      <c r="CR22" s="8"/>
+      <c r="CS22" s="8"/>
+      <c r="CT22" s="8"/>
+      <c r="CU22" s="8"/>
+      <c r="CV22" s="8"/>
+      <c r="CW22" s="8"/>
+      <c r="CX22" s="8"/>
+      <c r="CY22" s="8"/>
+      <c r="CZ22" s="8"/>
+      <c r="DA22" s="8"/>
+      <c r="DB22" s="8"/>
+    </row>
+    <row r="23" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="8"/>
+      <c r="BL23" s="8"/>
+      <c r="BM23" s="8"/>
+      <c r="BN23" s="8"/>
+      <c r="BO23" s="8"/>
+      <c r="BP23" s="8"/>
+      <c r="BQ23" s="8"/>
+      <c r="BR23" s="8"/>
+      <c r="BS23" s="8"/>
+      <c r="BT23" s="8"/>
+      <c r="BU23" s="8"/>
+      <c r="BV23" s="8"/>
+      <c r="BW23" s="8"/>
+      <c r="BX23" s="8"/>
+      <c r="BY23" s="8"/>
+      <c r="BZ23" s="8"/>
+      <c r="CA23" s="8"/>
+      <c r="CB23" s="8"/>
+      <c r="CC23" s="8"/>
+      <c r="CD23" s="8"/>
+      <c r="CE23" s="8"/>
+      <c r="CF23" s="8"/>
+      <c r="CG23" s="8"/>
+      <c r="CH23" s="8"/>
+      <c r="CI23" s="8"/>
+      <c r="CJ23" s="8"/>
+      <c r="CK23" s="8"/>
+      <c r="CL23" s="8"/>
+      <c r="CM23" s="8"/>
+      <c r="CN23" s="8"/>
+      <c r="CO23" s="8"/>
+      <c r="CP23" s="8"/>
+      <c r="CQ23" s="8"/>
+      <c r="CR23" s="8"/>
+      <c r="CS23" s="8"/>
+      <c r="CT23" s="8"/>
+      <c r="CU23" s="8"/>
+      <c r="CV23" s="8"/>
+      <c r="CW23" s="8"/>
+      <c r="CX23" s="8"/>
+      <c r="CY23" s="8"/>
+      <c r="CZ23" s="8"/>
+      <c r="DA23" s="8"/>
+      <c r="DB23" s="8"/>
+    </row>
+    <row r="24" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+      <c r="BQ24" s="8"/>
+      <c r="BR24" s="8"/>
+      <c r="BS24" s="8"/>
+      <c r="BT24" s="8"/>
+      <c r="BU24" s="8"/>
+      <c r="BV24" s="8"/>
+      <c r="BW24" s="8"/>
+      <c r="BX24" s="8"/>
+      <c r="BY24" s="8"/>
+      <c r="BZ24" s="8"/>
+      <c r="CA24" s="8"/>
+      <c r="CB24" s="8"/>
+      <c r="CC24" s="8"/>
+      <c r="CD24" s="8"/>
+      <c r="CE24" s="8"/>
+      <c r="CF24" s="8"/>
+      <c r="CG24" s="8"/>
+      <c r="CH24" s="8"/>
+      <c r="CI24" s="8"/>
+      <c r="CJ24" s="8"/>
+      <c r="CK24" s="8"/>
+      <c r="CL24" s="8"/>
+      <c r="CM24" s="8"/>
+      <c r="CN24" s="8"/>
+      <c r="CO24" s="8"/>
+      <c r="CP24" s="8"/>
+      <c r="CQ24" s="8"/>
+      <c r="CR24" s="8"/>
+      <c r="CS24" s="8"/>
+      <c r="CT24" s="8"/>
+      <c r="CU24" s="8"/>
+      <c r="CV24" s="8"/>
+      <c r="CW24" s="8"/>
+      <c r="CX24" s="8"/>
+      <c r="CY24" s="8"/>
+      <c r="CZ24" s="8"/>
+      <c r="DA24" s="8"/>
+      <c r="DB24" s="8"/>
+    </row>
+    <row r="25" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
+      <c r="BW25" s="8"/>
+      <c r="BX25" s="8"/>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
+    </row>
+    <row r="26" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="8"/>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="8"/>
+      <c r="BM26" s="8"/>
+      <c r="BN26" s="8"/>
+      <c r="BO26" s="8"/>
+      <c r="BP26" s="8"/>
+      <c r="BQ26" s="8"/>
+      <c r="BR26" s="8"/>
+      <c r="BS26" s="8"/>
+      <c r="BT26" s="8"/>
+      <c r="BU26" s="8"/>
+      <c r="BV26" s="8"/>
+      <c r="BW26" s="8"/>
+      <c r="BX26" s="8"/>
+      <c r="BY26" s="8"/>
+      <c r="BZ26" s="8"/>
+      <c r="CA26" s="8"/>
+      <c r="CB26" s="8"/>
+      <c r="CC26" s="8"/>
+      <c r="CD26" s="8"/>
+      <c r="CE26" s="8"/>
+      <c r="CF26" s="8"/>
+      <c r="CG26" s="8"/>
+      <c r="CH26" s="8"/>
+      <c r="CI26" s="8"/>
+      <c r="CJ26" s="8"/>
+      <c r="CK26" s="8"/>
+      <c r="CL26" s="8"/>
+      <c r="CM26" s="8"/>
+      <c r="CN26" s="8"/>
+      <c r="CO26" s="8"/>
+      <c r="CP26" s="8"/>
+      <c r="CQ26" s="8"/>
+      <c r="CR26" s="8"/>
+      <c r="CS26" s="8"/>
+      <c r="CT26" s="8"/>
+      <c r="CU26" s="8"/>
+      <c r="CV26" s="8"/>
+      <c r="CW26" s="8"/>
+      <c r="CX26" s="8"/>
+      <c r="CY26" s="8"/>
+      <c r="CZ26" s="8"/>
+      <c r="DA26" s="8"/>
+      <c r="DB26" s="8"/>
+    </row>
+    <row r="27" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="8"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+      <c r="BM27" s="8"/>
+      <c r="BN27" s="8"/>
+      <c r="BO27" s="8"/>
+      <c r="BP27" s="8"/>
+      <c r="BQ27" s="8"/>
+      <c r="BR27" s="8"/>
+      <c r="BS27" s="8"/>
+      <c r="BT27" s="8"/>
+      <c r="BU27" s="8"/>
+      <c r="BV27" s="8"/>
+      <c r="BW27" s="8"/>
+      <c r="BX27" s="8"/>
+      <c r="BY27" s="8"/>
+      <c r="BZ27" s="8"/>
+      <c r="CA27" s="8"/>
+      <c r="CB27" s="8"/>
+      <c r="CC27" s="8"/>
+      <c r="CD27" s="8"/>
+      <c r="CE27" s="8"/>
+      <c r="CF27" s="8"/>
+      <c r="CG27" s="8"/>
+      <c r="CH27" s="8"/>
+      <c r="CI27" s="8"/>
+      <c r="CJ27" s="8"/>
+      <c r="CK27" s="8"/>
+      <c r="CL27" s="8"/>
+      <c r="CM27" s="8"/>
+      <c r="CN27" s="8"/>
+      <c r="CO27" s="8"/>
+      <c r="CP27" s="8"/>
+      <c r="CQ27" s="8"/>
+      <c r="CR27" s="8"/>
+      <c r="CS27" s="8"/>
+      <c r="CT27" s="8"/>
+      <c r="CU27" s="8"/>
+      <c r="CV27" s="8"/>
+      <c r="CW27" s="8"/>
+      <c r="CX27" s="8"/>
+      <c r="CY27" s="8"/>
+      <c r="CZ27" s="8"/>
+      <c r="DA27" s="8"/>
+      <c r="DB27" s="8"/>
+    </row>
+    <row r="28" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+      <c r="BI28" s="8"/>
+      <c r="BJ28" s="8"/>
+      <c r="BK28" s="8"/>
+      <c r="BL28" s="8"/>
+      <c r="BM28" s="8"/>
+      <c r="BN28" s="8"/>
+      <c r="BO28" s="8"/>
+      <c r="BP28" s="8"/>
+      <c r="BQ28" s="8"/>
+      <c r="BR28" s="8"/>
+      <c r="BS28" s="8"/>
+      <c r="BT28" s="8"/>
+      <c r="BU28" s="8"/>
+      <c r="BV28" s="8"/>
+      <c r="BW28" s="8"/>
+      <c r="BX28" s="8"/>
+      <c r="BY28" s="8"/>
+      <c r="BZ28" s="8"/>
+      <c r="CA28" s="8"/>
+      <c r="CB28" s="8"/>
+      <c r="CC28" s="8"/>
+      <c r="CD28" s="8"/>
+      <c r="CE28" s="8"/>
+      <c r="CF28" s="8"/>
+      <c r="CG28" s="8"/>
+      <c r="CH28" s="8"/>
+      <c r="CI28" s="8"/>
+      <c r="CJ28" s="8"/>
+      <c r="CK28" s="8"/>
+      <c r="CL28" s="8"/>
+      <c r="CM28" s="8"/>
+      <c r="CN28" s="8"/>
+      <c r="CO28" s="8"/>
+      <c r="CP28" s="8"/>
+      <c r="CQ28" s="8"/>
+      <c r="CR28" s="8"/>
+      <c r="CS28" s="8"/>
+      <c r="CT28" s="8"/>
+      <c r="CU28" s="8"/>
+      <c r="CV28" s="8"/>
+      <c r="CW28" s="8"/>
+      <c r="CX28" s="8"/>
+      <c r="CY28" s="8"/>
+      <c r="CZ28" s="8"/>
+      <c r="DA28" s="8"/>
+      <c r="DB28" s="8"/>
+    </row>
+    <row r="29" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="8"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="8"/>
+      <c r="BM29" s="8"/>
+      <c r="BN29" s="8"/>
+      <c r="BO29" s="8"/>
+      <c r="BP29" s="8"/>
+      <c r="BQ29" s="8"/>
+      <c r="BR29" s="8"/>
+      <c r="BS29" s="8"/>
+      <c r="BT29" s="8"/>
+      <c r="BU29" s="8"/>
+      <c r="BV29" s="8"/>
+      <c r="BW29" s="8"/>
+      <c r="BX29" s="8"/>
+      <c r="BY29" s="8"/>
+      <c r="BZ29" s="8"/>
+      <c r="CA29" s="8"/>
+      <c r="CB29" s="8"/>
+      <c r="CC29" s="8"/>
+      <c r="CD29" s="8"/>
+      <c r="CE29" s="8"/>
+      <c r="CF29" s="8"/>
+      <c r="CG29" s="8"/>
+      <c r="CH29" s="8"/>
+      <c r="CI29" s="8"/>
+      <c r="CJ29" s="8"/>
+      <c r="CK29" s="8"/>
+      <c r="CL29" s="8"/>
+      <c r="CM29" s="8"/>
+      <c r="CN29" s="8"/>
+      <c r="CO29" s="8"/>
+      <c r="CP29" s="8"/>
+      <c r="CQ29" s="8"/>
+      <c r="CR29" s="8"/>
+      <c r="CS29" s="8"/>
+      <c r="CT29" s="8"/>
+      <c r="CU29" s="8"/>
+      <c r="CV29" s="8"/>
+      <c r="CW29" s="8"/>
+      <c r="CX29" s="8"/>
+      <c r="CY29" s="8"/>
+      <c r="CZ29" s="8"/>
+      <c r="DA29" s="8"/>
+      <c r="DB29" s="8"/>
+    </row>
+    <row r="30" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
+      <c r="BU30" s="8"/>
+      <c r="BV30" s="8"/>
+      <c r="BW30" s="8"/>
+      <c r="BX30" s="8"/>
+      <c r="BY30" s="8"/>
+      <c r="BZ30" s="8"/>
+      <c r="CA30" s="8"/>
+      <c r="CB30" s="8"/>
+      <c r="CC30" s="8"/>
+      <c r="CD30" s="8"/>
+      <c r="CE30" s="8"/>
+      <c r="CF30" s="8"/>
+      <c r="CG30" s="8"/>
+      <c r="CH30" s="8"/>
+      <c r="CI30" s="8"/>
+      <c r="CJ30" s="8"/>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="8"/>
+      <c r="CM30" s="8"/>
+      <c r="CN30" s="8"/>
+      <c r="CO30" s="8"/>
+      <c r="CP30" s="8"/>
+      <c r="CQ30" s="8"/>
+      <c r="CR30" s="8"/>
+      <c r="CS30" s="8"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="8"/>
+      <c r="CV30" s="8"/>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="8"/>
+      <c r="CY30" s="8"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="8"/>
+      <c r="DB30" s="8"/>
+    </row>
+    <row r="31" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8"/>
+      <c r="BU31" s="8"/>
+      <c r="BV31" s="8"/>
+      <c r="BW31" s="8"/>
+      <c r="BX31" s="8"/>
+      <c r="BY31" s="8"/>
+      <c r="BZ31" s="8"/>
+      <c r="CA31" s="8"/>
+      <c r="CB31" s="8"/>
+      <c r="CC31" s="8"/>
+      <c r="CD31" s="8"/>
+      <c r="CE31" s="8"/>
+      <c r="CF31" s="8"/>
+      <c r="CG31" s="8"/>
+      <c r="CH31" s="8"/>
+      <c r="CI31" s="8"/>
+      <c r="CJ31" s="8"/>
+      <c r="CK31" s="8"/>
+      <c r="CL31" s="8"/>
+      <c r="CM31" s="8"/>
+      <c r="CN31" s="8"/>
+      <c r="CO31" s="8"/>
+      <c r="CP31" s="8"/>
+      <c r="CQ31" s="8"/>
+      <c r="CR31" s="8"/>
+      <c r="CS31" s="8"/>
+      <c r="CT31" s="8"/>
+      <c r="CU31" s="8"/>
+      <c r="CV31" s="8"/>
+      <c r="CW31" s="8"/>
+      <c r="CX31" s="8"/>
+      <c r="CY31" s="8"/>
+      <c r="CZ31" s="8"/>
+      <c r="DA31" s="8"/>
+      <c r="DB31" s="8"/>
+    </row>
+    <row r="32" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="8"/>
+      <c r="BK32" s="8"/>
+      <c r="BL32" s="8"/>
+      <c r="BM32" s="8"/>
+      <c r="BN32" s="8"/>
+      <c r="BO32" s="8"/>
+      <c r="BP32" s="8"/>
+      <c r="BQ32" s="8"/>
+      <c r="BR32" s="8"/>
+      <c r="BS32" s="8"/>
+      <c r="BT32" s="8"/>
+      <c r="BU32" s="8"/>
+      <c r="BV32" s="8"/>
+      <c r="BW32" s="8"/>
+      <c r="BX32" s="8"/>
+      <c r="BY32" s="8"/>
+      <c r="BZ32" s="8"/>
+      <c r="CA32" s="8"/>
+      <c r="CB32" s="8"/>
+      <c r="CC32" s="8"/>
+      <c r="CD32" s="8"/>
+      <c r="CE32" s="8"/>
+      <c r="CF32" s="8"/>
+      <c r="CG32" s="8"/>
+      <c r="CH32" s="8"/>
+      <c r="CI32" s="8"/>
+      <c r="CJ32" s="8"/>
+      <c r="CK32" s="8"/>
+      <c r="CL32" s="8"/>
+      <c r="CM32" s="8"/>
+      <c r="CN32" s="8"/>
+      <c r="CO32" s="8"/>
+      <c r="CP32" s="8"/>
+      <c r="CQ32" s="8"/>
+      <c r="CR32" s="8"/>
+      <c r="CS32" s="8"/>
+      <c r="CT32" s="8"/>
+      <c r="CU32" s="8"/>
+      <c r="CV32" s="8"/>
+      <c r="CW32" s="8"/>
+      <c r="CX32" s="8"/>
+      <c r="CY32" s="8"/>
+      <c r="CZ32" s="8"/>
+      <c r="DA32" s="8"/>
+      <c r="DB32" s="8"/>
+    </row>
+    <row r="33" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="8"/>
+      <c r="BK33" s="8"/>
+      <c r="BL33" s="8"/>
+      <c r="BM33" s="8"/>
+      <c r="BN33" s="8"/>
+      <c r="BO33" s="8"/>
+      <c r="BP33" s="8"/>
+      <c r="BQ33" s="8"/>
+      <c r="BR33" s="8"/>
+      <c r="BS33" s="8"/>
+      <c r="BT33" s="8"/>
+      <c r="BU33" s="8"/>
+      <c r="BV33" s="8"/>
+      <c r="BW33" s="8"/>
+      <c r="BX33" s="8"/>
+      <c r="BY33" s="8"/>
+      <c r="BZ33" s="8"/>
+      <c r="CA33" s="8"/>
+      <c r="CB33" s="8"/>
+      <c r="CC33" s="8"/>
+      <c r="CD33" s="8"/>
+      <c r="CE33" s="8"/>
+      <c r="CF33" s="8"/>
+      <c r="CG33" s="8"/>
+      <c r="CH33" s="8"/>
+      <c r="CI33" s="8"/>
+      <c r="CJ33" s="8"/>
+      <c r="CK33" s="8"/>
+      <c r="CL33" s="8"/>
+      <c r="CM33" s="8"/>
+      <c r="CN33" s="8"/>
+      <c r="CO33" s="8"/>
+      <c r="CP33" s="8"/>
+      <c r="CQ33" s="8"/>
+      <c r="CR33" s="8"/>
+      <c r="CS33" s="8"/>
+      <c r="CT33" s="8"/>
+      <c r="CU33" s="8"/>
+      <c r="CV33" s="8"/>
+      <c r="CW33" s="8"/>
+      <c r="CX33" s="8"/>
+      <c r="CY33" s="8"/>
+      <c r="CZ33" s="8"/>
+      <c r="DA33" s="8"/>
+      <c r="DB33" s="8"/>
+    </row>
+    <row r="34" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="8"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="8"/>
+      <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+      <c r="BI34" s="8"/>
+      <c r="BJ34" s="8"/>
+      <c r="BK34" s="8"/>
+      <c r="BL34" s="8"/>
+      <c r="BM34" s="8"/>
+      <c r="BN34" s="8"/>
+      <c r="BO34" s="8"/>
+      <c r="BP34" s="8"/>
+      <c r="BQ34" s="8"/>
+      <c r="BR34" s="8"/>
+      <c r="BS34" s="8"/>
+      <c r="BT34" s="8"/>
+      <c r="BU34" s="8"/>
+      <c r="BV34" s="8"/>
+      <c r="BW34" s="8"/>
+      <c r="BX34" s="8"/>
+      <c r="BY34" s="8"/>
+      <c r="BZ34" s="8"/>
+      <c r="CA34" s="8"/>
+      <c r="CB34" s="8"/>
+      <c r="CC34" s="8"/>
+      <c r="CD34" s="8"/>
+      <c r="CE34" s="8"/>
+      <c r="CF34" s="8"/>
+      <c r="CG34" s="8"/>
+      <c r="CH34" s="8"/>
+      <c r="CI34" s="8"/>
+      <c r="CJ34" s="8"/>
+      <c r="CK34" s="8"/>
+      <c r="CL34" s="8"/>
+      <c r="CM34" s="8"/>
+      <c r="CN34" s="8"/>
+      <c r="CO34" s="8"/>
+      <c r="CP34" s="8"/>
+      <c r="CQ34" s="8"/>
+      <c r="CR34" s="8"/>
+      <c r="CS34" s="8"/>
+      <c r="CT34" s="8"/>
+      <c r="CU34" s="8"/>
+      <c r="CV34" s="8"/>
+      <c r="CW34" s="8"/>
+      <c r="CX34" s="8"/>
+      <c r="CY34" s="8"/>
+      <c r="CZ34" s="8"/>
+      <c r="DA34" s="8"/>
+      <c r="DB34" s="8"/>
+    </row>
+    <row r="35" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX35" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="8"/>
+      <c r="BJ35" s="8"/>
+      <c r="BK35" s="8"/>
+      <c r="BL35" s="8"/>
+      <c r="BM35" s="8"/>
+      <c r="BN35" s="8"/>
+      <c r="BO35" s="8"/>
+      <c r="BP35" s="8"/>
+      <c r="BQ35" s="8"/>
+      <c r="BR35" s="8"/>
+      <c r="BS35" s="8"/>
+      <c r="BT35" s="8"/>
+      <c r="BU35" s="8"/>
+      <c r="BV35" s="8"/>
+      <c r="BW35" s="8"/>
+      <c r="BX35" s="8"/>
+      <c r="BY35" s="8"/>
+      <c r="BZ35" s="8"/>
+      <c r="CA35" s="8"/>
+      <c r="CB35" s="8"/>
+      <c r="CC35" s="8"/>
+      <c r="CD35" s="8"/>
+      <c r="CE35" s="8"/>
+      <c r="CF35" s="8"/>
+      <c r="CG35" s="8"/>
+      <c r="CH35" s="8"/>
+      <c r="CI35" s="8"/>
+      <c r="CJ35" s="8"/>
+      <c r="CK35" s="8"/>
+      <c r="CL35" s="8"/>
+      <c r="CM35" s="8"/>
+      <c r="CN35" s="8"/>
+      <c r="CO35" s="8"/>
+      <c r="CP35" s="8"/>
+      <c r="CQ35" s="8"/>
+      <c r="CR35" s="8"/>
+      <c r="CS35" s="8"/>
+      <c r="CT35" s="8"/>
+      <c r="CU35" s="8"/>
+      <c r="CV35" s="8"/>
+      <c r="CW35" s="8"/>
+      <c r="CX35" s="8"/>
+      <c r="CY35" s="8"/>
+      <c r="CZ35" s="8"/>
+      <c r="DA35" s="8"/>
+      <c r="DB35" s="8"/>
+    </row>
+    <row r="36" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW36" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC36" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD36" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="8"/>
+      <c r="BK36" s="8"/>
+      <c r="BL36" s="8"/>
+      <c r="BM36" s="8"/>
+      <c r="BN36" s="8"/>
+      <c r="BO36" s="8"/>
+      <c r="BP36" s="8"/>
+      <c r="BQ36" s="8"/>
+      <c r="BR36" s="8"/>
+      <c r="BS36" s="8"/>
+      <c r="BT36" s="8"/>
+      <c r="BU36" s="8"/>
+      <c r="BV36" s="8"/>
+      <c r="BW36" s="8"/>
+      <c r="BX36" s="8"/>
+      <c r="BY36" s="8"/>
+      <c r="BZ36" s="8"/>
+      <c r="CA36" s="8"/>
+      <c r="CB36" s="8"/>
+      <c r="CC36" s="8"/>
+      <c r="CD36" s="8"/>
+      <c r="CE36" s="8"/>
+      <c r="CF36" s="8"/>
+      <c r="CG36" s="8"/>
+      <c r="CH36" s="8"/>
+      <c r="CI36" s="8"/>
+      <c r="CJ36" s="8"/>
+      <c r="CK36" s="8"/>
+      <c r="CL36" s="8"/>
+      <c r="CM36" s="8"/>
+      <c r="CN36" s="8"/>
+      <c r="CO36" s="8"/>
+      <c r="CP36" s="8"/>
+      <c r="CQ36" s="8"/>
+      <c r="CR36" s="8"/>
+      <c r="CS36" s="8"/>
+      <c r="CT36" s="8"/>
+      <c r="CU36" s="8"/>
+      <c r="CV36" s="8"/>
+      <c r="CW36" s="8"/>
+      <c r="CX36" s="8"/>
+      <c r="CY36" s="8"/>
+      <c r="CZ36" s="8"/>
+      <c r="DA36" s="8"/>
+      <c r="DB36" s="8"/>
+    </row>
+    <row r="37" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="11"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="11"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="8"/>
+      <c r="BK37" s="8"/>
+      <c r="BL37" s="8"/>
+      <c r="BM37" s="8"/>
+      <c r="BN37" s="8"/>
+      <c r="BO37" s="8"/>
+      <c r="BP37" s="8"/>
+      <c r="BQ37" s="8"/>
+      <c r="BR37" s="8"/>
+      <c r="BS37" s="8"/>
+      <c r="BT37" s="8"/>
+      <c r="BU37" s="8"/>
+      <c r="BV37" s="8"/>
+      <c r="BW37" s="8"/>
+      <c r="BX37" s="8"/>
+      <c r="BY37" s="8"/>
+      <c r="BZ37" s="8"/>
+      <c r="CA37" s="8"/>
+      <c r="CB37" s="8"/>
+      <c r="CC37" s="8"/>
+      <c r="CD37" s="8"/>
+      <c r="CE37" s="8"/>
+      <c r="CF37" s="8"/>
+      <c r="CG37" s="8"/>
+      <c r="CH37" s="8"/>
+      <c r="CI37" s="8"/>
+      <c r="CJ37" s="8"/>
+      <c r="CK37" s="8"/>
+      <c r="CL37" s="8"/>
+      <c r="CM37" s="8"/>
+      <c r="CN37" s="8"/>
+      <c r="CO37" s="8"/>
+      <c r="CP37" s="8"/>
+      <c r="CQ37" s="8"/>
+      <c r="CR37" s="8"/>
+      <c r="CS37" s="8"/>
+      <c r="CT37" s="8"/>
+      <c r="CU37" s="8"/>
+      <c r="CV37" s="8"/>
+      <c r="CW37" s="8"/>
+      <c r="CX37" s="8"/>
+      <c r="CY37" s="8"/>
+      <c r="CZ37" s="8"/>
+      <c r="DA37" s="8"/>
+      <c r="DB37" s="8"/>
+    </row>
+    <row r="38" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="8"/>
+      <c r="BK38" s="8"/>
+      <c r="BL38" s="8"/>
+      <c r="BM38" s="8"/>
+      <c r="BN38" s="8"/>
+      <c r="BO38" s="8"/>
+      <c r="BP38" s="8"/>
+      <c r="BQ38" s="8"/>
+      <c r="BR38" s="8"/>
+      <c r="BS38" s="8"/>
+      <c r="BT38" s="8"/>
+      <c r="BU38" s="8"/>
+      <c r="BV38" s="8"/>
+      <c r="BW38" s="8"/>
+      <c r="BX38" s="8"/>
+      <c r="BY38" s="8"/>
+      <c r="BZ38" s="8"/>
+      <c r="CA38" s="8"/>
+      <c r="CB38" s="8"/>
+      <c r="CC38" s="8"/>
+      <c r="CD38" s="8"/>
+      <c r="CE38" s="8"/>
+      <c r="CF38" s="8"/>
+      <c r="CG38" s="8"/>
+      <c r="CH38" s="8"/>
+      <c r="CI38" s="8"/>
+      <c r="CJ38" s="8"/>
+      <c r="CK38" s="8"/>
+      <c r="CL38" s="8"/>
+      <c r="CM38" s="8"/>
+      <c r="CN38" s="8"/>
+      <c r="CO38" s="8"/>
+      <c r="CP38" s="8"/>
+      <c r="CQ38" s="8"/>
+      <c r="CR38" s="8"/>
+      <c r="CS38" s="8"/>
+      <c r="CT38" s="8"/>
+      <c r="CU38" s="8"/>
+      <c r="CV38" s="8"/>
+      <c r="CW38" s="8"/>
+      <c r="CX38" s="8"/>
+      <c r="CY38" s="8"/>
+      <c r="CZ38" s="8"/>
+      <c r="DA38" s="8"/>
+      <c r="DB38" s="8"/>
+    </row>
+    <row r="39" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="8"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ39" s="8"/>
+      <c r="BK39" s="8"/>
+      <c r="BL39" s="8"/>
+      <c r="BM39" s="8"/>
+      <c r="BN39" s="8"/>
+      <c r="BO39" s="8"/>
+      <c r="BP39" s="8"/>
+      <c r="BQ39" s="8"/>
+      <c r="BR39" s="8"/>
+      <c r="BS39" s="8"/>
+      <c r="BT39" s="8"/>
+      <c r="BU39" s="8"/>
+      <c r="BV39" s="8"/>
+      <c r="BW39" s="8"/>
+      <c r="BX39" s="8"/>
+      <c r="BY39" s="8"/>
+      <c r="BZ39" s="8"/>
+      <c r="CA39" s="8"/>
+      <c r="CB39" s="8"/>
+      <c r="CC39" s="8"/>
+      <c r="CD39" s="8"/>
+      <c r="CE39" s="8"/>
+      <c r="CF39" s="8"/>
+      <c r="CG39" s="8"/>
+      <c r="CH39" s="8"/>
+      <c r="CI39" s="8"/>
+      <c r="CJ39" s="8"/>
+      <c r="CK39" s="8"/>
+      <c r="CL39" s="8"/>
+      <c r="CM39" s="8"/>
+      <c r="CN39" s="8"/>
+      <c r="CO39" s="8"/>
+      <c r="CP39" s="8"/>
+      <c r="CQ39" s="8"/>
+      <c r="CR39" s="8"/>
+      <c r="CS39" s="8"/>
+      <c r="CT39" s="8"/>
+      <c r="CU39" s="8"/>
+      <c r="CV39" s="8"/>
+      <c r="CW39" s="8"/>
+      <c r="CX39" s="8"/>
+      <c r="CY39" s="8"/>
+      <c r="CZ39" s="8"/>
+      <c r="DA39" s="8"/>
+      <c r="DB39" s="8"/>
+    </row>
+    <row r="40" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI40" s="11"/>
+      <c r="BJ40" s="8"/>
+      <c r="BK40" s="8"/>
+      <c r="BL40" s="8"/>
+      <c r="BM40" s="8"/>
+      <c r="BN40" s="8"/>
+      <c r="BO40" s="8"/>
+      <c r="BP40" s="8"/>
+      <c r="BQ40" s="8"/>
+      <c r="BR40" s="8"/>
+      <c r="BS40" s="8"/>
+      <c r="BT40" s="8"/>
+      <c r="BU40" s="8"/>
+      <c r="BV40" s="8"/>
+      <c r="BW40" s="8"/>
+      <c r="BX40" s="8"/>
+      <c r="BY40" s="8"/>
+      <c r="BZ40" s="8"/>
+      <c r="CA40" s="8"/>
+      <c r="CB40" s="8"/>
+      <c r="CC40" s="8"/>
+      <c r="CD40" s="8"/>
+      <c r="CE40" s="8"/>
+      <c r="CF40" s="8"/>
+      <c r="CG40" s="8"/>
+      <c r="CH40" s="8"/>
+      <c r="CI40" s="8"/>
+      <c r="CJ40" s="8"/>
+      <c r="CK40" s="8"/>
+      <c r="CL40" s="8"/>
+      <c r="CM40" s="8"/>
+      <c r="CN40" s="8"/>
+      <c r="CO40" s="8"/>
+      <c r="CP40" s="8"/>
+      <c r="CQ40" s="8"/>
+      <c r="CR40" s="8"/>
+      <c r="CS40" s="8"/>
+      <c r="CT40" s="8"/>
+      <c r="CU40" s="8"/>
+      <c r="CV40" s="8"/>
+      <c r="CW40" s="8"/>
+      <c r="CX40" s="8"/>
+      <c r="CY40" s="8"/>
+      <c r="CZ40" s="8"/>
+      <c r="DA40" s="8"/>
+      <c r="DB40" s="8"/>
+    </row>
+    <row r="41" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="11"/>
+      <c r="BD41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF41" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ41" s="8"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="8"/>
+      <c r="BP41" s="8"/>
+      <c r="BQ41" s="8"/>
+      <c r="BR41" s="8"/>
+      <c r="BS41" s="8"/>
+      <c r="BT41" s="8"/>
+      <c r="BU41" s="8"/>
+      <c r="BV41" s="8"/>
+      <c r="BW41" s="8"/>
+      <c r="BX41" s="8"/>
+      <c r="BY41" s="8"/>
+      <c r="BZ41" s="8"/>
+      <c r="CA41" s="8"/>
+      <c r="CB41" s="8"/>
+      <c r="CC41" s="8"/>
+      <c r="CD41" s="8"/>
+      <c r="CE41" s="8"/>
+      <c r="CF41" s="8"/>
+      <c r="CG41" s="8"/>
+      <c r="CH41" s="8"/>
+      <c r="CI41" s="8"/>
+      <c r="CJ41" s="8"/>
+      <c r="CK41" s="8"/>
+      <c r="CL41" s="8"/>
+      <c r="CM41" s="8"/>
+      <c r="CN41" s="8"/>
+      <c r="CO41" s="8"/>
+      <c r="CP41" s="8"/>
+      <c r="CQ41" s="8"/>
+      <c r="CR41" s="8"/>
+      <c r="CS41" s="8"/>
+      <c r="CT41" s="8"/>
+      <c r="CU41" s="8"/>
+      <c r="CV41" s="8"/>
+      <c r="CW41" s="8"/>
+      <c r="CX41" s="8"/>
+      <c r="CY41" s="8"/>
+      <c r="CZ41" s="8"/>
+      <c r="DA41" s="8"/>
+      <c r="DB41" s="8"/>
+    </row>
+    <row r="42" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="8"/>
+      <c r="AZ42" s="8"/>
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="8"/>
+      <c r="BC42" s="8"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF42" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH42" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI42" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ42" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK42" s="38"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="38"/>
+      <c r="BW42" s="38"/>
+      <c r="BX42" s="38"/>
+      <c r="BY42" s="38"/>
+      <c r="BZ42" s="38"/>
+      <c r="CA42" s="38"/>
+      <c r="CB42" s="38"/>
+      <c r="CC42" s="38"/>
+      <c r="CD42" s="38"/>
+      <c r="CE42" s="8"/>
+      <c r="CF42" s="8"/>
+      <c r="CG42" s="8"/>
+      <c r="CH42" s="8"/>
+      <c r="CI42" s="8"/>
+      <c r="CJ42" s="8"/>
+      <c r="CK42" s="8"/>
+      <c r="CL42" s="8"/>
+      <c r="CM42" s="8"/>
+      <c r="CN42" s="8"/>
+      <c r="CO42" s="8"/>
+      <c r="CP42" s="8"/>
+      <c r="CQ42" s="8"/>
+      <c r="CR42" s="8"/>
+      <c r="CS42" s="8"/>
+      <c r="CT42" s="8"/>
+      <c r="CU42" s="8"/>
+      <c r="CV42" s="8"/>
+      <c r="CW42" s="8"/>
+      <c r="CX42" s="8"/>
+      <c r="CY42" s="8"/>
+      <c r="CZ42" s="8"/>
+      <c r="DA42" s="8"/>
+      <c r="DB42" s="8"/>
+    </row>
+    <row r="43" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH43" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI43" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ43" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK43" s="38"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="38"/>
+      <c r="BP43" s="38"/>
+      <c r="BQ43" s="38"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="38"/>
+      <c r="BT43" s="38"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="38"/>
+      <c r="BW43" s="38"/>
+      <c r="BX43" s="38"/>
+      <c r="BY43" s="38"/>
+      <c r="BZ43" s="38"/>
+      <c r="CA43" s="38"/>
+      <c r="CB43" s="38"/>
+      <c r="CC43" s="38"/>
+      <c r="CD43" s="38"/>
+      <c r="CE43" s="8"/>
+      <c r="CF43" s="8"/>
+      <c r="CG43" s="8"/>
+      <c r="CH43" s="8"/>
+      <c r="CI43" s="8"/>
+      <c r="CJ43" s="8"/>
+      <c r="CK43" s="8"/>
+      <c r="CL43" s="8"/>
+      <c r="CM43" s="8"/>
+      <c r="CN43" s="8"/>
+      <c r="CO43" s="8"/>
+      <c r="CP43" s="8"/>
+      <c r="CQ43" s="8"/>
+      <c r="CR43" s="8"/>
+      <c r="CS43" s="8"/>
+      <c r="CT43" s="8"/>
+      <c r="CU43" s="8"/>
+      <c r="CV43" s="8"/>
+      <c r="CW43" s="8"/>
+      <c r="CX43" s="8"/>
+      <c r="CY43" s="8"/>
+      <c r="CZ43" s="8"/>
+      <c r="DA43" s="8"/>
+      <c r="DB43" s="8"/>
+    </row>
+    <row r="44" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+      <c r="AP44" s="8"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="8"/>
+      <c r="AS44" s="8"/>
+      <c r="AT44" s="8"/>
+      <c r="AU44" s="8"/>
+      <c r="AV44" s="8"/>
+      <c r="AW44" s="8"/>
+      <c r="AX44" s="8"/>
+      <c r="AY44" s="8"/>
+      <c r="AZ44" s="8"/>
+      <c r="BA44" s="8"/>
+      <c r="BB44" s="8"/>
+      <c r="BC44" s="8"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="38"/>
+      <c r="BH44" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI44" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ44" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK44" s="38"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="38"/>
+      <c r="BP44" s="38"/>
+      <c r="BQ44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="38"/>
+      <c r="BW44" s="38"/>
+      <c r="BX44" s="38"/>
+      <c r="BY44" s="38"/>
+      <c r="BZ44" s="38"/>
+      <c r="CA44" s="38"/>
+      <c r="CB44" s="38"/>
+      <c r="CC44" s="38"/>
+      <c r="CD44" s="38"/>
+      <c r="CE44" s="8"/>
+      <c r="CF44" s="8"/>
+      <c r="CG44" s="8"/>
+      <c r="CH44" s="8"/>
+      <c r="CI44" s="8"/>
+      <c r="CJ44" s="8"/>
+      <c r="CK44" s="8"/>
+      <c r="CL44" s="8"/>
+      <c r="CM44" s="8"/>
+      <c r="CN44" s="8"/>
+      <c r="CO44" s="8"/>
+      <c r="CP44" s="8"/>
+      <c r="CQ44" s="8"/>
+      <c r="CR44" s="8"/>
+      <c r="CS44" s="8"/>
+      <c r="CT44" s="8"/>
+      <c r="CU44" s="8"/>
+      <c r="CV44" s="8"/>
+      <c r="CW44" s="8"/>
+      <c r="CX44" s="8"/>
+      <c r="CY44" s="8"/>
+      <c r="CZ44" s="8"/>
+      <c r="DA44" s="8"/>
+      <c r="DB44" s="8"/>
+    </row>
+    <row r="45" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="8"/>
+      <c r="AW45" s="8"/>
+      <c r="AX45" s="8"/>
+      <c r="AY45" s="8"/>
+      <c r="AZ45" s="8"/>
+      <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
+      <c r="BC45" s="8"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="38"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="38"/>
+      <c r="BJ45" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK45" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
+      <c r="BO45" s="38"/>
+      <c r="BP45" s="38"/>
+      <c r="BQ45" s="38"/>
+      <c r="BR45" s="38"/>
+      <c r="BS45" s="38"/>
+      <c r="BT45" s="38"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="38"/>
+      <c r="BW45" s="38"/>
+      <c r="BX45" s="38"/>
+      <c r="BY45" s="38"/>
+      <c r="BZ45" s="38"/>
+      <c r="CA45" s="38"/>
+      <c r="CB45" s="38"/>
+      <c r="CC45" s="38"/>
+      <c r="CD45" s="38"/>
+      <c r="CE45" s="8"/>
+      <c r="CF45" s="8"/>
+      <c r="CG45" s="8"/>
+      <c r="CH45" s="8"/>
+      <c r="CI45" s="8"/>
+      <c r="CJ45" s="8"/>
+      <c r="CK45" s="8"/>
+      <c r="CL45" s="8"/>
+      <c r="CM45" s="8"/>
+      <c r="CN45" s="8"/>
+      <c r="CO45" s="8"/>
+      <c r="CP45" s="8"/>
+      <c r="CQ45" s="8"/>
+      <c r="CR45" s="8"/>
+      <c r="CS45" s="8"/>
+      <c r="CT45" s="8"/>
+      <c r="CU45" s="8"/>
+      <c r="CV45" s="8"/>
+      <c r="CW45" s="8"/>
+      <c r="CX45" s="8"/>
+      <c r="CY45" s="8"/>
+      <c r="CZ45" s="8"/>
+      <c r="DA45" s="8"/>
+      <c r="DB45" s="8"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CC242-34F4-4FF7-A40F-1653B5D3686C}">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="36" customWidth="1"/>
+    <col min="9" max="257" width="12.5703125" customWidth="1"/>
+    <col min="258" max="258" width="28.85546875" customWidth="1"/>
+    <col min="259" max="261" width="11.5703125" customWidth="1"/>
+    <col min="262" max="262" width="12.28515625" customWidth="1"/>
+    <col min="263" max="263" width="11.5703125" customWidth="1"/>
+    <col min="264" max="264" width="25.5703125" customWidth="1"/>
+    <col min="265" max="513" width="12.5703125" customWidth="1"/>
+    <col min="514" max="514" width="28.85546875" customWidth="1"/>
+    <col min="515" max="517" width="11.5703125" customWidth="1"/>
+    <col min="518" max="518" width="12.28515625" customWidth="1"/>
+    <col min="519" max="519" width="11.5703125" customWidth="1"/>
+    <col min="520" max="520" width="25.5703125" customWidth="1"/>
+    <col min="521" max="769" width="12.5703125" customWidth="1"/>
+    <col min="770" max="770" width="28.85546875" customWidth="1"/>
+    <col min="771" max="773" width="11.5703125" customWidth="1"/>
+    <col min="774" max="774" width="12.28515625" customWidth="1"/>
+    <col min="775" max="775" width="11.5703125" customWidth="1"/>
+    <col min="776" max="776" width="25.5703125" customWidth="1"/>
+    <col min="777" max="1025" width="12.5703125" customWidth="1"/>
+    <col min="1026" max="1026" width="28.85546875" customWidth="1"/>
+    <col min="1027" max="1029" width="11.5703125" customWidth="1"/>
+    <col min="1030" max="1030" width="12.28515625" customWidth="1"/>
+    <col min="1031" max="1031" width="11.5703125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.5703125" customWidth="1"/>
+    <col min="1033" max="1281" width="12.5703125" customWidth="1"/>
+    <col min="1282" max="1282" width="28.85546875" customWidth="1"/>
+    <col min="1283" max="1285" width="11.5703125" customWidth="1"/>
+    <col min="1286" max="1286" width="12.28515625" customWidth="1"/>
+    <col min="1287" max="1287" width="11.5703125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.5703125" customWidth="1"/>
+    <col min="1289" max="1537" width="12.5703125" customWidth="1"/>
+    <col min="1538" max="1538" width="28.85546875" customWidth="1"/>
+    <col min="1539" max="1541" width="11.5703125" customWidth="1"/>
+    <col min="1542" max="1542" width="12.28515625" customWidth="1"/>
+    <col min="1543" max="1543" width="11.5703125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.5703125" customWidth="1"/>
+    <col min="1545" max="1793" width="12.5703125" customWidth="1"/>
+    <col min="1794" max="1794" width="28.85546875" customWidth="1"/>
+    <col min="1795" max="1797" width="11.5703125" customWidth="1"/>
+    <col min="1798" max="1798" width="12.28515625" customWidth="1"/>
+    <col min="1799" max="1799" width="11.5703125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.5703125" customWidth="1"/>
+    <col min="1801" max="2049" width="12.5703125" customWidth="1"/>
+    <col min="2050" max="2050" width="28.85546875" customWidth="1"/>
+    <col min="2051" max="2053" width="11.5703125" customWidth="1"/>
+    <col min="2054" max="2054" width="12.28515625" customWidth="1"/>
+    <col min="2055" max="2055" width="11.5703125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.5703125" customWidth="1"/>
+    <col min="2057" max="2305" width="12.5703125" customWidth="1"/>
+    <col min="2306" max="2306" width="28.85546875" customWidth="1"/>
+    <col min="2307" max="2309" width="11.5703125" customWidth="1"/>
+    <col min="2310" max="2310" width="12.28515625" customWidth="1"/>
+    <col min="2311" max="2311" width="11.5703125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.5703125" customWidth="1"/>
+    <col min="2313" max="2561" width="12.5703125" customWidth="1"/>
+    <col min="2562" max="2562" width="28.85546875" customWidth="1"/>
+    <col min="2563" max="2565" width="11.5703125" customWidth="1"/>
+    <col min="2566" max="2566" width="12.28515625" customWidth="1"/>
+    <col min="2567" max="2567" width="11.5703125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.5703125" customWidth="1"/>
+    <col min="2569" max="2817" width="12.5703125" customWidth="1"/>
+    <col min="2818" max="2818" width="28.85546875" customWidth="1"/>
+    <col min="2819" max="2821" width="11.5703125" customWidth="1"/>
+    <col min="2822" max="2822" width="12.28515625" customWidth="1"/>
+    <col min="2823" max="2823" width="11.5703125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.5703125" customWidth="1"/>
+    <col min="2825" max="3073" width="12.5703125" customWidth="1"/>
+    <col min="3074" max="3074" width="28.85546875" customWidth="1"/>
+    <col min="3075" max="3077" width="11.5703125" customWidth="1"/>
+    <col min="3078" max="3078" width="12.28515625" customWidth="1"/>
+    <col min="3079" max="3079" width="11.5703125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.5703125" customWidth="1"/>
+    <col min="3081" max="3329" width="12.5703125" customWidth="1"/>
+    <col min="3330" max="3330" width="28.85546875" customWidth="1"/>
+    <col min="3331" max="3333" width="11.5703125" customWidth="1"/>
+    <col min="3334" max="3334" width="12.28515625" customWidth="1"/>
+    <col min="3335" max="3335" width="11.5703125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.5703125" customWidth="1"/>
+    <col min="3337" max="3585" width="12.5703125" customWidth="1"/>
+    <col min="3586" max="3586" width="28.85546875" customWidth="1"/>
+    <col min="3587" max="3589" width="11.5703125" customWidth="1"/>
+    <col min="3590" max="3590" width="12.28515625" customWidth="1"/>
+    <col min="3591" max="3591" width="11.5703125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.5703125" customWidth="1"/>
+    <col min="3593" max="3841" width="12.5703125" customWidth="1"/>
+    <col min="3842" max="3842" width="28.85546875" customWidth="1"/>
+    <col min="3843" max="3845" width="11.5703125" customWidth="1"/>
+    <col min="3846" max="3846" width="12.28515625" customWidth="1"/>
+    <col min="3847" max="3847" width="11.5703125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.5703125" customWidth="1"/>
+    <col min="3849" max="4097" width="12.5703125" customWidth="1"/>
+    <col min="4098" max="4098" width="28.85546875" customWidth="1"/>
+    <col min="4099" max="4101" width="11.5703125" customWidth="1"/>
+    <col min="4102" max="4102" width="12.28515625" customWidth="1"/>
+    <col min="4103" max="4103" width="11.5703125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.5703125" customWidth="1"/>
+    <col min="4105" max="4353" width="12.5703125" customWidth="1"/>
+    <col min="4354" max="4354" width="28.85546875" customWidth="1"/>
+    <col min="4355" max="4357" width="11.5703125" customWidth="1"/>
+    <col min="4358" max="4358" width="12.28515625" customWidth="1"/>
+    <col min="4359" max="4359" width="11.5703125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.5703125" customWidth="1"/>
+    <col min="4361" max="4609" width="12.5703125" customWidth="1"/>
+    <col min="4610" max="4610" width="28.85546875" customWidth="1"/>
+    <col min="4611" max="4613" width="11.5703125" customWidth="1"/>
+    <col min="4614" max="4614" width="12.28515625" customWidth="1"/>
+    <col min="4615" max="4615" width="11.5703125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.5703125" customWidth="1"/>
+    <col min="4617" max="4865" width="12.5703125" customWidth="1"/>
+    <col min="4866" max="4866" width="28.85546875" customWidth="1"/>
+    <col min="4867" max="4869" width="11.5703125" customWidth="1"/>
+    <col min="4870" max="4870" width="12.28515625" customWidth="1"/>
+    <col min="4871" max="4871" width="11.5703125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.5703125" customWidth="1"/>
+    <col min="4873" max="5121" width="12.5703125" customWidth="1"/>
+    <col min="5122" max="5122" width="28.85546875" customWidth="1"/>
+    <col min="5123" max="5125" width="11.5703125" customWidth="1"/>
+    <col min="5126" max="5126" width="12.28515625" customWidth="1"/>
+    <col min="5127" max="5127" width="11.5703125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.5703125" customWidth="1"/>
+    <col min="5129" max="5377" width="12.5703125" customWidth="1"/>
+    <col min="5378" max="5378" width="28.85546875" customWidth="1"/>
+    <col min="5379" max="5381" width="11.5703125" customWidth="1"/>
+    <col min="5382" max="5382" width="12.28515625" customWidth="1"/>
+    <col min="5383" max="5383" width="11.5703125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.5703125" customWidth="1"/>
+    <col min="5385" max="5633" width="12.5703125" customWidth="1"/>
+    <col min="5634" max="5634" width="28.85546875" customWidth="1"/>
+    <col min="5635" max="5637" width="11.5703125" customWidth="1"/>
+    <col min="5638" max="5638" width="12.28515625" customWidth="1"/>
+    <col min="5639" max="5639" width="11.5703125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.5703125" customWidth="1"/>
+    <col min="5641" max="5889" width="12.5703125" customWidth="1"/>
+    <col min="5890" max="5890" width="28.85546875" customWidth="1"/>
+    <col min="5891" max="5893" width="11.5703125" customWidth="1"/>
+    <col min="5894" max="5894" width="12.28515625" customWidth="1"/>
+    <col min="5895" max="5895" width="11.5703125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.5703125" customWidth="1"/>
+    <col min="5897" max="6145" width="12.5703125" customWidth="1"/>
+    <col min="6146" max="6146" width="28.85546875" customWidth="1"/>
+    <col min="6147" max="6149" width="11.5703125" customWidth="1"/>
+    <col min="6150" max="6150" width="12.28515625" customWidth="1"/>
+    <col min="6151" max="6151" width="11.5703125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.5703125" customWidth="1"/>
+    <col min="6153" max="6401" width="12.5703125" customWidth="1"/>
+    <col min="6402" max="6402" width="28.85546875" customWidth="1"/>
+    <col min="6403" max="6405" width="11.5703125" customWidth="1"/>
+    <col min="6406" max="6406" width="12.28515625" customWidth="1"/>
+    <col min="6407" max="6407" width="11.5703125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.5703125" customWidth="1"/>
+    <col min="6409" max="6657" width="12.5703125" customWidth="1"/>
+    <col min="6658" max="6658" width="28.85546875" customWidth="1"/>
+    <col min="6659" max="6661" width="11.5703125" customWidth="1"/>
+    <col min="6662" max="6662" width="12.28515625" customWidth="1"/>
+    <col min="6663" max="6663" width="11.5703125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.5703125" customWidth="1"/>
+    <col min="6665" max="6913" width="12.5703125" customWidth="1"/>
+    <col min="6914" max="6914" width="28.85546875" customWidth="1"/>
+    <col min="6915" max="6917" width="11.5703125" customWidth="1"/>
+    <col min="6918" max="6918" width="12.28515625" customWidth="1"/>
+    <col min="6919" max="6919" width="11.5703125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.5703125" customWidth="1"/>
+    <col min="6921" max="7169" width="12.5703125" customWidth="1"/>
+    <col min="7170" max="7170" width="28.85546875" customWidth="1"/>
+    <col min="7171" max="7173" width="11.5703125" customWidth="1"/>
+    <col min="7174" max="7174" width="12.28515625" customWidth="1"/>
+    <col min="7175" max="7175" width="11.5703125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.5703125" customWidth="1"/>
+    <col min="7177" max="7425" width="12.5703125" customWidth="1"/>
+    <col min="7426" max="7426" width="28.85546875" customWidth="1"/>
+    <col min="7427" max="7429" width="11.5703125" customWidth="1"/>
+    <col min="7430" max="7430" width="12.28515625" customWidth="1"/>
+    <col min="7431" max="7431" width="11.5703125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.5703125" customWidth="1"/>
+    <col min="7433" max="7681" width="12.5703125" customWidth="1"/>
+    <col min="7682" max="7682" width="28.85546875" customWidth="1"/>
+    <col min="7683" max="7685" width="11.5703125" customWidth="1"/>
+    <col min="7686" max="7686" width="12.28515625" customWidth="1"/>
+    <col min="7687" max="7687" width="11.5703125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.5703125" customWidth="1"/>
+    <col min="7689" max="7937" width="12.5703125" customWidth="1"/>
+    <col min="7938" max="7938" width="28.85546875" customWidth="1"/>
+    <col min="7939" max="7941" width="11.5703125" customWidth="1"/>
+    <col min="7942" max="7942" width="12.28515625" customWidth="1"/>
+    <col min="7943" max="7943" width="11.5703125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.5703125" customWidth="1"/>
+    <col min="7945" max="8193" width="12.5703125" customWidth="1"/>
+    <col min="8194" max="8194" width="28.85546875" customWidth="1"/>
+    <col min="8195" max="8197" width="11.5703125" customWidth="1"/>
+    <col min="8198" max="8198" width="12.28515625" customWidth="1"/>
+    <col min="8199" max="8199" width="11.5703125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.5703125" customWidth="1"/>
+    <col min="8201" max="8449" width="12.5703125" customWidth="1"/>
+    <col min="8450" max="8450" width="28.85546875" customWidth="1"/>
+    <col min="8451" max="8453" width="11.5703125" customWidth="1"/>
+    <col min="8454" max="8454" width="12.28515625" customWidth="1"/>
+    <col min="8455" max="8455" width="11.5703125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.5703125" customWidth="1"/>
+    <col min="8457" max="8705" width="12.5703125" customWidth="1"/>
+    <col min="8706" max="8706" width="28.85546875" customWidth="1"/>
+    <col min="8707" max="8709" width="11.5703125" customWidth="1"/>
+    <col min="8710" max="8710" width="12.28515625" customWidth="1"/>
+    <col min="8711" max="8711" width="11.5703125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.5703125" customWidth="1"/>
+    <col min="8713" max="8961" width="12.5703125" customWidth="1"/>
+    <col min="8962" max="8962" width="28.85546875" customWidth="1"/>
+    <col min="8963" max="8965" width="11.5703125" customWidth="1"/>
+    <col min="8966" max="8966" width="12.28515625" customWidth="1"/>
+    <col min="8967" max="8967" width="11.5703125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.5703125" customWidth="1"/>
+    <col min="8969" max="9217" width="12.5703125" customWidth="1"/>
+    <col min="9218" max="9218" width="28.85546875" customWidth="1"/>
+    <col min="9219" max="9221" width="11.5703125" customWidth="1"/>
+    <col min="9222" max="9222" width="12.28515625" customWidth="1"/>
+    <col min="9223" max="9223" width="11.5703125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.5703125" customWidth="1"/>
+    <col min="9225" max="9473" width="12.5703125" customWidth="1"/>
+    <col min="9474" max="9474" width="28.85546875" customWidth="1"/>
+    <col min="9475" max="9477" width="11.5703125" customWidth="1"/>
+    <col min="9478" max="9478" width="12.28515625" customWidth="1"/>
+    <col min="9479" max="9479" width="11.5703125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.5703125" customWidth="1"/>
+    <col min="9481" max="9729" width="12.5703125" customWidth="1"/>
+    <col min="9730" max="9730" width="28.85546875" customWidth="1"/>
+    <col min="9731" max="9733" width="11.5703125" customWidth="1"/>
+    <col min="9734" max="9734" width="12.28515625" customWidth="1"/>
+    <col min="9735" max="9735" width="11.5703125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.5703125" customWidth="1"/>
+    <col min="9737" max="9985" width="12.5703125" customWidth="1"/>
+    <col min="9986" max="9986" width="28.85546875" customWidth="1"/>
+    <col min="9987" max="9989" width="11.5703125" customWidth="1"/>
+    <col min="9990" max="9990" width="12.28515625" customWidth="1"/>
+    <col min="9991" max="9991" width="11.5703125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.5703125" customWidth="1"/>
+    <col min="9993" max="10241" width="12.5703125" customWidth="1"/>
+    <col min="10242" max="10242" width="28.85546875" customWidth="1"/>
+    <col min="10243" max="10245" width="11.5703125" customWidth="1"/>
+    <col min="10246" max="10246" width="12.28515625" customWidth="1"/>
+    <col min="10247" max="10247" width="11.5703125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.5703125" customWidth="1"/>
+    <col min="10249" max="10497" width="12.5703125" customWidth="1"/>
+    <col min="10498" max="10498" width="28.85546875" customWidth="1"/>
+    <col min="10499" max="10501" width="11.5703125" customWidth="1"/>
+    <col min="10502" max="10502" width="12.28515625" customWidth="1"/>
+    <col min="10503" max="10503" width="11.5703125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.5703125" customWidth="1"/>
+    <col min="10505" max="10753" width="12.5703125" customWidth="1"/>
+    <col min="10754" max="10754" width="28.85546875" customWidth="1"/>
+    <col min="10755" max="10757" width="11.5703125" customWidth="1"/>
+    <col min="10758" max="10758" width="12.28515625" customWidth="1"/>
+    <col min="10759" max="10759" width="11.5703125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.5703125" customWidth="1"/>
+    <col min="10761" max="11009" width="12.5703125" customWidth="1"/>
+    <col min="11010" max="11010" width="28.85546875" customWidth="1"/>
+    <col min="11011" max="11013" width="11.5703125" customWidth="1"/>
+    <col min="11014" max="11014" width="12.28515625" customWidth="1"/>
+    <col min="11015" max="11015" width="11.5703125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.5703125" customWidth="1"/>
+    <col min="11017" max="11265" width="12.5703125" customWidth="1"/>
+    <col min="11266" max="11266" width="28.85546875" customWidth="1"/>
+    <col min="11267" max="11269" width="11.5703125" customWidth="1"/>
+    <col min="11270" max="11270" width="12.28515625" customWidth="1"/>
+    <col min="11271" max="11271" width="11.5703125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.5703125" customWidth="1"/>
+    <col min="11273" max="11521" width="12.5703125" customWidth="1"/>
+    <col min="11522" max="11522" width="28.85546875" customWidth="1"/>
+    <col min="11523" max="11525" width="11.5703125" customWidth="1"/>
+    <col min="11526" max="11526" width="12.28515625" customWidth="1"/>
+    <col min="11527" max="11527" width="11.5703125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.5703125" customWidth="1"/>
+    <col min="11529" max="11777" width="12.5703125" customWidth="1"/>
+    <col min="11778" max="11778" width="28.85546875" customWidth="1"/>
+    <col min="11779" max="11781" width="11.5703125" customWidth="1"/>
+    <col min="11782" max="11782" width="12.28515625" customWidth="1"/>
+    <col min="11783" max="11783" width="11.5703125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.5703125" customWidth="1"/>
+    <col min="11785" max="12033" width="12.5703125" customWidth="1"/>
+    <col min="12034" max="12034" width="28.85546875" customWidth="1"/>
+    <col min="12035" max="12037" width="11.5703125" customWidth="1"/>
+    <col min="12038" max="12038" width="12.28515625" customWidth="1"/>
+    <col min="12039" max="12039" width="11.5703125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.5703125" customWidth="1"/>
+    <col min="12041" max="12289" width="12.5703125" customWidth="1"/>
+    <col min="12290" max="12290" width="28.85546875" customWidth="1"/>
+    <col min="12291" max="12293" width="11.5703125" customWidth="1"/>
+    <col min="12294" max="12294" width="12.28515625" customWidth="1"/>
+    <col min="12295" max="12295" width="11.5703125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.5703125" customWidth="1"/>
+    <col min="12297" max="12545" width="12.5703125" customWidth="1"/>
+    <col min="12546" max="12546" width="28.85546875" customWidth="1"/>
+    <col min="12547" max="12549" width="11.5703125" customWidth="1"/>
+    <col min="12550" max="12550" width="12.28515625" customWidth="1"/>
+    <col min="12551" max="12551" width="11.5703125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.5703125" customWidth="1"/>
+    <col min="12553" max="12801" width="12.5703125" customWidth="1"/>
+    <col min="12802" max="12802" width="28.85546875" customWidth="1"/>
+    <col min="12803" max="12805" width="11.5703125" customWidth="1"/>
+    <col min="12806" max="12806" width="12.28515625" customWidth="1"/>
+    <col min="12807" max="12807" width="11.5703125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.5703125" customWidth="1"/>
+    <col min="12809" max="13057" width="12.5703125" customWidth="1"/>
+    <col min="13058" max="13058" width="28.85546875" customWidth="1"/>
+    <col min="13059" max="13061" width="11.5703125" customWidth="1"/>
+    <col min="13062" max="13062" width="12.28515625" customWidth="1"/>
+    <col min="13063" max="13063" width="11.5703125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.5703125" customWidth="1"/>
+    <col min="13065" max="13313" width="12.5703125" customWidth="1"/>
+    <col min="13314" max="13314" width="28.85546875" customWidth="1"/>
+    <col min="13315" max="13317" width="11.5703125" customWidth="1"/>
+    <col min="13318" max="13318" width="12.28515625" customWidth="1"/>
+    <col min="13319" max="13319" width="11.5703125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.5703125" customWidth="1"/>
+    <col min="13321" max="13569" width="12.5703125" customWidth="1"/>
+    <col min="13570" max="13570" width="28.85546875" customWidth="1"/>
+    <col min="13571" max="13573" width="11.5703125" customWidth="1"/>
+    <col min="13574" max="13574" width="12.28515625" customWidth="1"/>
+    <col min="13575" max="13575" width="11.5703125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.5703125" customWidth="1"/>
+    <col min="13577" max="13825" width="12.5703125" customWidth="1"/>
+    <col min="13826" max="13826" width="28.85546875" customWidth="1"/>
+    <col min="13827" max="13829" width="11.5703125" customWidth="1"/>
+    <col min="13830" max="13830" width="12.28515625" customWidth="1"/>
+    <col min="13831" max="13831" width="11.5703125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.5703125" customWidth="1"/>
+    <col min="13833" max="14081" width="12.5703125" customWidth="1"/>
+    <col min="14082" max="14082" width="28.85546875" customWidth="1"/>
+    <col min="14083" max="14085" width="11.5703125" customWidth="1"/>
+    <col min="14086" max="14086" width="12.28515625" customWidth="1"/>
+    <col min="14087" max="14087" width="11.5703125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.5703125" customWidth="1"/>
+    <col min="14089" max="14337" width="12.5703125" customWidth="1"/>
+    <col min="14338" max="14338" width="28.85546875" customWidth="1"/>
+    <col min="14339" max="14341" width="11.5703125" customWidth="1"/>
+    <col min="14342" max="14342" width="12.28515625" customWidth="1"/>
+    <col min="14343" max="14343" width="11.5703125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.5703125" customWidth="1"/>
+    <col min="14345" max="14593" width="12.5703125" customWidth="1"/>
+    <col min="14594" max="14594" width="28.85546875" customWidth="1"/>
+    <col min="14595" max="14597" width="11.5703125" customWidth="1"/>
+    <col min="14598" max="14598" width="12.28515625" customWidth="1"/>
+    <col min="14599" max="14599" width="11.5703125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.5703125" customWidth="1"/>
+    <col min="14601" max="14849" width="12.5703125" customWidth="1"/>
+    <col min="14850" max="14850" width="28.85546875" customWidth="1"/>
+    <col min="14851" max="14853" width="11.5703125" customWidth="1"/>
+    <col min="14854" max="14854" width="12.28515625" customWidth="1"/>
+    <col min="14855" max="14855" width="11.5703125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.5703125" customWidth="1"/>
+    <col min="14857" max="15105" width="12.5703125" customWidth="1"/>
+    <col min="15106" max="15106" width="28.85546875" customWidth="1"/>
+    <col min="15107" max="15109" width="11.5703125" customWidth="1"/>
+    <col min="15110" max="15110" width="12.28515625" customWidth="1"/>
+    <col min="15111" max="15111" width="11.5703125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.5703125" customWidth="1"/>
+    <col min="15113" max="15361" width="12.5703125" customWidth="1"/>
+    <col min="15362" max="15362" width="28.85546875" customWidth="1"/>
+    <col min="15363" max="15365" width="11.5703125" customWidth="1"/>
+    <col min="15366" max="15366" width="12.28515625" customWidth="1"/>
+    <col min="15367" max="15367" width="11.5703125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.5703125" customWidth="1"/>
+    <col min="15369" max="15617" width="12.5703125" customWidth="1"/>
+    <col min="15618" max="15618" width="28.85546875" customWidth="1"/>
+    <col min="15619" max="15621" width="11.5703125" customWidth="1"/>
+    <col min="15622" max="15622" width="12.28515625" customWidth="1"/>
+    <col min="15623" max="15623" width="11.5703125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.5703125" customWidth="1"/>
+    <col min="15625" max="15873" width="12.5703125" customWidth="1"/>
+    <col min="15874" max="15874" width="28.85546875" customWidth="1"/>
+    <col min="15875" max="15877" width="11.5703125" customWidth="1"/>
+    <col min="15878" max="15878" width="12.28515625" customWidth="1"/>
+    <col min="15879" max="15879" width="11.5703125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.5703125" customWidth="1"/>
+    <col min="15881" max="16129" width="12.5703125" customWidth="1"/>
+    <col min="16130" max="16130" width="28.85546875" customWidth="1"/>
+    <col min="16131" max="16133" width="11.5703125" customWidth="1"/>
+    <col min="16134" max="16134" width="12.28515625" customWidth="1"/>
+    <col min="16135" max="16135" width="11.5703125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.5703125" customWidth="1"/>
+    <col min="16137" max="16384" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35">
+        <v>4</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="35">
+        <v>7</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35">
+        <v>13</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="35">
+        <v>7</v>
+      </c>
+      <c r="E8" s="35">
+        <v>8</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="35">
+        <v>11</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="35">
+        <v>11</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35">
+        <v>16</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="35">
+        <v>13</v>
+      </c>
+      <c r="E10" s="35">
+        <v>14</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="35">
+        <v>18</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="35">
+        <v>14</v>
+      </c>
+      <c r="E11" s="35">
+        <v>16</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35">
+        <v>17</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="35">
+        <v>16</v>
+      </c>
+      <c r="E12" s="35">
+        <v>17</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35">
+        <v>18</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="35">
+        <f>D6+14</f>
+        <v>17</v>
+      </c>
+      <c r="E13" s="35">
+        <f>E6+14</f>
+        <v>18</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="35">
+        <f>G6+14</f>
+        <v>21</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" ref="D14:E33" si="0">D7+14</f>
+        <v>18</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35">
+        <f t="shared" ref="G14:G33" si="1">G7+14</f>
+        <v>27</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="35">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E22" s="35">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="35">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="2:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="35">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E26" s="35">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E27" s="35">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="35">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="2:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="35">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E32" s="35">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="35">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="42">
+        <v>59</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42">
+        <v>61</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="37"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83044A35-6CDF-494A-8A00-663B238A5DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7ED91D-4461-4F75-A009-FDCEDB740441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2a" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="2c compressed" sheetId="6" r:id="rId4"/>
     <sheet name="2d" sheetId="7" r:id="rId5"/>
     <sheet name="2d compressed" sheetId="8" r:id="rId6"/>
+    <sheet name="2e" sheetId="11" r:id="rId7"/>
+    <sheet name="2e compressed" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="243">
   <si>
     <t>4DM4 Assignment 2(a), DAXPY Loop, No Unrolling, No Scheduling</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -173,9 +175,6 @@
   </si>
   <si>
     <t>EX*</t>
-  </si>
-  <si>
-    <t>*ID</t>
   </si>
   <si>
     <t>forward F2 (from M2* to *FM1) in cc6</t>
@@ -648,17 +647,179 @@
     <t>forward R1 (from EX* to *EX) in cc16</t>
   </si>
   <si>
-    <t>stall on WB waiting for R2</t>
-  </si>
-  <si>
     <t>4DM4 Assignment #2(d), Compressed Timing Table</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4DM4 Assignment #2(e), Compressed Timing Table, Dual Issue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>slot #1</t>
+  </si>
+  <si>
+    <t>slot #2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Instruction Slot #2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EX1 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WB1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EX2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MEM2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WB2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>loop:  L.D            F1, 0(R1)</t>
+  </si>
+  <si>
+    <t>We can perform 2 write-backs per clock cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         S.D            -32(R2), F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         S.D            -24(R2), F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         S.D            -16(R2), F9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         S.D            -8(R2), F12</t>
+  </si>
+  <si>
+    <t>WB*</t>
+  </si>
+  <si>
+    <t>6,7*</t>
+  </si>
+  <si>
+    <t>7,8*</t>
+  </si>
+  <si>
+    <t>8,9*</t>
+  </si>
+  <si>
+    <t>*7-12**</t>
+  </si>
+  <si>
+    <t>*8-13**</t>
+  </si>
+  <si>
+    <t>*9-14**</t>
+  </si>
+  <si>
+    <t>*10-15**</t>
+  </si>
+  <si>
+    <t>*17,18</t>
+  </si>
+  <si>
+    <t>*19,20</t>
+  </si>
+  <si>
+    <t>*20,21</t>
+  </si>
+  <si>
+    <t>11*</t>
+  </si>
+  <si>
+    <t>*12</t>
+  </si>
+  <si>
+    <t>18*</t>
+  </si>
+  <si>
+    <t>19*</t>
+  </si>
+  <si>
+    <t>**13-15*</t>
+  </si>
+  <si>
+    <t>**14-16*</t>
+  </si>
+  <si>
+    <t>**15-17</t>
+  </si>
+  <si>
+    <t>**16-18</t>
+  </si>
+  <si>
+    <t>forward F1 (M2* to *FM1) in cc6</t>
+  </si>
+  <si>
+    <t>forward F4 (M2* to *FM1) in cc7</t>
+  </si>
+  <si>
+    <t>forward F7 (M2* to *FM1) in cc8</t>
+  </si>
+  <si>
+    <t>forward F10 (M2* to *FM1) in cc9
+forward F2 (FM6** to **A1) in cc12</t>
+  </si>
+  <si>
+    <t>forward F5 (FM6** to **A1) in cc13</t>
+  </si>
+  <si>
+    <t>forward F8 (FM6** to **A1) in cc14</t>
+  </si>
+  <si>
+    <t>forward F11 (FM6** to **A1) in cc15</t>
+  </si>
+  <si>
+    <t>forward R1 (EX* to *EX) in cc11</t>
+  </si>
+  <si>
+    <t>forward F3 (A3* to *M1) in cc15</t>
+  </si>
+  <si>
+    <t>forward F6 (A3* to *M1) in cc16</t>
+  </si>
+  <si>
+    <t>forward F9 (WB* to *M1) in cc18</t>
+  </si>
+  <si>
+    <t>forward F12 (WB* to *M1) in cc19</t>
+  </si>
+  <si>
+    <t>4DM4 Assignment 2(e), DAXPY Loop, Unrolling, Scheduling, On Dual-Issue Machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +940,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -788,7 +992,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -911,11 +1115,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,11 +1360,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1756,9 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:27" ht="18" x14ac:dyDescent="0.25">
@@ -1547,7 +1970,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -1603,7 +2026,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -1709,7 +2132,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -1819,7 +2242,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -1946,7 +2369,7 @@
     </row>
     <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1982,7 +2405,7 @@
     </row>
     <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2152,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02356681-9A30-45C3-BE25-535E5C1A58D7}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2589,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2205,13 +2628,15 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>48</v>
+      <c r="B9" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -2378,7 +2803,7 @@
     </row>
     <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>10</v>
@@ -2395,10 +2820,10 @@
       <c r="G14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="11"/>
@@ -2437,10 +2862,10 @@
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -2479,10 +2904,10 @@
       <c r="G16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -2497,10 +2922,10 @@
       <c r="M16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="P16" s="11"/>
@@ -2535,16 +2960,16 @@
       <c r="I17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2574,18 +2999,18 @@
       <c r="I18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>52</v>
+      <c r="K18" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2624,17 +3049,17 @@
       <c r="M19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>16</v>
@@ -2693,7 +3118,7 @@
     </row>
     <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2719,23 +3144,21 @@
         <v>11</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U21" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -2745,7 +3168,7 @@
     </row>
     <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2763,23 +3186,19 @@
         <v>10</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U22" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -3016,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2947B3F-865E-4E46-9A91-E9BDDBBE8BD5}">
   <dimension ref="B2:DC49"/>
   <sheetViews>
-    <sheetView topLeftCell="AA11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AQ33" activeCellId="1" sqref="AO33 AQ33"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,7 +3448,7 @@
   <sheetData>
     <row r="2" spans="2:107" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3068,13 +3487,15 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:107" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>48</v>
+      <c r="B9" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:107" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
@@ -3143,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:Z13" si="0">C13+1</f>
+        <f t="shared" ref="D13" si="0">C13+1</f>
         <v>2</v>
       </c>
       <c r="E13" s="7">
@@ -3561,7 +3982,7 @@
     </row>
     <row r="14" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>10</v>
@@ -4473,7 +4894,7 @@
     </row>
     <row r="21" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -5387,7 +5808,7 @@
     </row>
     <row r="28" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="41"/>
@@ -6303,7 +6724,7 @@
     </row>
     <row r="35" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -7457,7 +7878,7 @@
     </row>
     <row r="44" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -7573,7 +7994,7 @@
     </row>
     <row r="45" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -7705,7 +8126,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8104,7 +8525,7 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2"/>
     </row>
@@ -8125,25 +8546,25 @@
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="31"/>
     </row>
@@ -8153,7 +8574,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="35">
         <v>3</v>
@@ -8162,13 +8583,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="35">
         <v>7</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="31"/>
     </row>
@@ -8178,20 +8599,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="35">
         <v>4</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35">
         <v>13</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="31"/>
     </row>
@@ -8201,7 +8622,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="35">
         <v>7</v>
@@ -8210,7 +8631,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="35">
         <v>11</v>
@@ -8224,20 +8645,20 @@
         <v>24</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="35">
         <v>11</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35">
         <v>16</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="31"/>
     </row>
@@ -8247,7 +8668,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="35">
         <v>13</v>
@@ -8256,13 +8677,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="35">
         <v>18</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -8272,7 +8693,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="35">
         <v>14</v>
@@ -8293,7 +8714,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="35">
         <v>16</v>
@@ -8311,10 +8732,10 @@
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="35">
         <f>D6+14</f>
@@ -8325,14 +8746,14 @@
         <v>18</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="35">
         <f>G6+14</f>
         <v>21</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
@@ -8343,14 +8764,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" ref="D14:E33" si="0">D7+14</f>
         <v>18</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35">
@@ -8358,7 +8779,7 @@
         <v>27</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
@@ -8369,18 +8790,18 @@
         <v>23</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" s="35">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E15" s="35">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>87</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -8394,14 +8815,14 @@
         <v>24</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="35">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>89</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35">
@@ -8409,7 +8830,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -8417,7 +8838,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" si="0"/>
@@ -8428,14 +8849,14 @@
         <v>28</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -8443,7 +8864,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="35">
         <f t="shared" si="0"/>
@@ -8465,7 +8886,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
@@ -8484,10 +8905,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="35">
         <f t="shared" si="0"/>
@@ -8498,14 +8919,14 @@
         <v>32</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -8513,14 +8934,14 @@
         <v>17</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35">
@@ -8528,7 +8949,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8536,7 +8957,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="35">
         <f t="shared" si="0"/>
@@ -8547,7 +8968,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="1"/>
@@ -8560,14 +8981,14 @@
         <v>24</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35">
@@ -8575,7 +8996,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -8583,7 +9004,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="35">
         <f t="shared" si="0"/>
@@ -8594,14 +9015,14 @@
         <v>42</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -8609,7 +9030,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" si="0"/>
@@ -8631,7 +9052,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="35">
         <f t="shared" si="0"/>
@@ -8650,10 +9071,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" si="0"/>
@@ -8664,14 +9085,14 @@
         <v>46</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -8679,14 +9100,14 @@
         <v>17</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35">
@@ -8694,7 +9115,7 @@
         <v>55</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -8702,7 +9123,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" si="0"/>
@@ -8713,7 +9134,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="1"/>
@@ -8726,14 +9147,14 @@
         <v>24</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="35">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35">
@@ -8741,7 +9162,7 @@
         <v>58</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -8749,7 +9170,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="35">
         <f t="shared" si="0"/>
@@ -8760,14 +9181,14 @@
         <v>56</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -8775,7 +9196,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="35">
         <f t="shared" si="0"/>
@@ -8797,7 +9218,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="35">
         <f t="shared" si="0"/>
@@ -8819,20 +9240,20 @@
         <v>29</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="42">
         <v>59</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42">
         <v>61</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -8840,10 +9261,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>7</v>
@@ -8851,37 +9272,37 @@
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -8893,7 +9314,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -8901,10 +9322,10 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8916,8 +9337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4769AE-CF13-4E3F-A6FE-AC5700114344}">
   <dimension ref="B2:DC77"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD36" activeCellId="7" sqref="Y32 Z32 Z33 AA33 AA34 AB34 AC36 AD36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8929,7 +9350,7 @@
   <sheetData>
     <row r="2" spans="2:107" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -8968,13 +9389,15 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:107" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>48</v>
+      <c r="B9" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:107" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
@@ -9461,7 +9884,7 @@
     </row>
     <row r="14" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>10</v>
@@ -9585,7 +10008,7 @@
     </row>
     <row r="15" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
@@ -9709,7 +10132,7 @@
     </row>
     <row r="16" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -9833,7 +10256,7 @@
     </row>
     <row r="17" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -9957,7 +10380,7 @@
     </row>
     <row r="18" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -10081,7 +10504,7 @@
     </row>
     <row r="19" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -10205,7 +10628,7 @@
     </row>
     <row r="20" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -10329,7 +10752,7 @@
     </row>
     <row r="21" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -10453,7 +10876,7 @@
     </row>
     <row r="22" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -10473,7 +10896,7 @@
         <v>12</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>19</v>
@@ -10488,7 +10911,7 @@
         <v>22</v>
       </c>
       <c r="S22" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T22" s="18" t="s">
         <v>16</v>
@@ -10583,7 +11006,7 @@
     </row>
     <row r="23" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -10604,7 +11027,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
@@ -10619,7 +11042,7 @@
         <v>22</v>
       </c>
       <c r="T23" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U23" s="18" t="s">
         <v>16</v>
@@ -10713,7 +11136,7 @@
     </row>
     <row r="24" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -10735,7 +11158,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>19</v>
@@ -10750,7 +11173,7 @@
         <v>22</v>
       </c>
       <c r="U24" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V24" s="18" t="s">
         <v>16</v>
@@ -10843,7 +11266,7 @@
     </row>
     <row r="25" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -10866,7 +11289,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>19</v>
@@ -10881,7 +11304,7 @@
         <v>22</v>
       </c>
       <c r="V25" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W25" s="18" t="s">
         <v>16</v>
@@ -10973,7 +11396,7 @@
     </row>
     <row r="26" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -11118,7 +11541,7 @@
         <v>12</v>
       </c>
       <c r="S27" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T27" s="48" t="s">
         <v>16</v>
@@ -11212,7 +11635,7 @@
     </row>
     <row r="28" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -11238,13 +11661,13 @@
         <v>12</v>
       </c>
       <c r="T28" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U28" s="48" t="s">
         <v>25</v>
       </c>
       <c r="V28" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W28" s="18" t="s">
         <v>16</v>
@@ -11336,7 +11759,7 @@
     </row>
     <row r="29" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -11363,13 +11786,13 @@
         <v>12</v>
       </c>
       <c r="U29" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V29" s="48" t="s">
         <v>25</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X29" s="11" t="s">
         <v>16</v>
@@ -11460,7 +11883,7 @@
     </row>
     <row r="30" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -11488,13 +11911,13 @@
         <v>12</v>
       </c>
       <c r="V30" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W30" s="18" t="s">
         <v>25</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="11" t="s">
         <v>16</v>
@@ -11584,7 +12007,7 @@
     </row>
     <row r="31" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -11613,13 +12036,13 @@
         <v>12</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="11" t="s">
         <v>16</v>
@@ -11708,7 +12131,7 @@
     </row>
     <row r="32" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -11832,7 +12255,7 @@
     </row>
     <row r="33" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -11956,7 +12379,7 @@
     </row>
     <row r="34" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -12196,7 +12619,7 @@
     </row>
     <row r="36" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -12320,7 +12743,7 @@
     </row>
     <row r="37" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -12357,12 +12780,10 @@
       <c r="AC37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AD37" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE37" s="11" t="s">
+      <c r="AD37" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
@@ -13312,7 +13733,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13323,7 +13744,7 @@
         <v>17</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13331,7 +13752,7 @@
         <v>23</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13339,7 +13760,7 @@
         <v>24</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13347,7 +13768,7 @@
         <v>26</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13355,7 +13776,7 @@
         <v>27</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13363,12 +13784,12 @@
         <v>28</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13403,7 +13824,7 @@
     </row>
     <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G62" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13438,7 +13859,7 @@
     </row>
     <row r="69" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G69" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13490,8 +13911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84740D-9A84-4CFB-977F-D74F74FE9540}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13890,7 +14311,7 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H2"/>
     </row>
@@ -13911,35 +14332,35 @@
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="33" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="35">
         <v>3</v>
@@ -13948,7 +14369,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="35">
         <v>7</v>
@@ -13959,10 +14380,10 @@
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="35">
         <f>D6+1</f>
@@ -13973,7 +14394,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="35">
         <f>G6+1</f>
@@ -13985,10 +14406,10 @@
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="35">
         <f t="shared" ref="D8:D29" si="0">D7+1</f>
@@ -13999,7 +14420,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" ref="G8:G13" si="2">G7+1</f>
@@ -14011,10 +14432,10 @@
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="35">
         <f t="shared" si="0"/>
@@ -14025,7 +14446,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="2"/>
@@ -14037,10 +14458,10 @@
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="35">
         <f t="shared" si="0"/>
@@ -14051,7 +14472,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="2"/>
@@ -14063,10 +14484,10 @@
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="35">
         <f t="shared" si="0"/>
@@ -14077,7 +14498,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="2"/>
@@ -14089,10 +14510,10 @@
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="35">
         <f t="shared" si="0"/>
@@ -14103,7 +14524,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="2"/>
@@ -14115,10 +14536,10 @@
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
@@ -14129,7 +14550,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="2"/>
@@ -14142,24 +14563,24 @@
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35">
         <v>18</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
@@ -14167,91 +14588,91 @@
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35">
         <v>19</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="35">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35">
         <v>20</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35">
         <v>21</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <v>17</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -14259,34 +14680,34 @@
         <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="35"/>
-      <c r="G19" s="54">
+      <c r="G19" s="53">
         <v>18</v>
       </c>
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="35">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35">
@@ -14296,73 +14717,73 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35">
-        <f>G20+1</f>
+        <f t="shared" ref="G21:G26" si="3">G20+1</f>
         <v>22</v>
       </c>
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="35">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35">
-        <f>G21+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35">
-        <f>G22+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="35">
         <f t="shared" si="0"/>
@@ -14372,20 +14793,20 @@
         <v>22</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="35">
-        <f>G23+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" si="0"/>
@@ -14395,20 +14816,20 @@
         <v>23</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="35">
-        <f>G24+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="35">
         <f t="shared" si="0"/>
@@ -14418,10 +14839,10 @@
         <v>24</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G26" s="35">
-        <f>G25+1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="H26" s="34"/>
@@ -14431,7 +14852,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" si="0"/>
@@ -14444,10 +14865,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" si="0"/>
@@ -14457,7 +14878,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="35">
         <v>29</v>
@@ -14466,10 +14887,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" si="0"/>
@@ -14480,11 +14901,9 @@
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35">
-        <v>29</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>192</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
@@ -14495,7 +14914,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -14503,11 +14922,5992 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238898DC-EDD0-4084-9AC1-82019E5FBD6F}">
+  <dimension ref="B2:DC77"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="27" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:107" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" ref="D13:BO13" si="0">C13+1</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC13" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD13" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE13" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH13" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AI13" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AK13" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AL13" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AM13" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AN13" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AO13" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AP13" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AQ13" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AR13" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AS13" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AT13" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AU13" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AV13" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AW13" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AX13" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AY13" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AZ13" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="BA13" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="BB13" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="BC13" s="7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="BD13" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="BE13" s="7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="BF13" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BG13" s="7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="BH13" s="7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="BI13" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="BJ13" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BK13" s="7">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="BL13" s="7">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>48</v>
-      </c>
+      <c r="BM13" s="7">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="BN13" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BO13" s="7">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="BP13" s="7">
+        <f t="shared" ref="BP13:DC13" si="1">BO13+1</f>
+        <v>66</v>
+      </c>
+      <c r="BQ13" s="7">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="BR13" s="7">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="BS13" s="7">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="BT13" s="7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="BU13" s="7">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="BV13" s="7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="BW13" s="7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="BX13" s="7">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="BY13" s="7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="BZ13" s="7">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="CA13" s="7">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="CB13" s="7">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="CC13" s="7">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="CD13" s="7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="CE13" s="7">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="CF13" s="7">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="CG13" s="7">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="CH13" s="7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="CI13" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="CJ13" s="7">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="CK13" s="7">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="CL13" s="7">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="CM13" s="7">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="CN13" s="7">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="CO13" s="7">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="CP13" s="7">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="CQ13" s="7">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="CR13" s="7">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="CS13" s="7">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="CT13" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="CU13" s="7">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="CV13" s="7">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="CW13" s="7">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="CX13" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="CY13" s="7">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="CZ13" s="7">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="DA13" s="7">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="DB13" s="7">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="DC13" s="7">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11"/>
+      <c r="BM14" s="11"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="11"/>
+      <c r="BP14" s="11"/>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="11"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="11"/>
+      <c r="CD14" s="11"/>
+      <c r="CE14" s="11"/>
+      <c r="CF14" s="38"/>
+      <c r="CG14" s="38"/>
+      <c r="CH14" s="38"/>
+      <c r="CI14" s="38"/>
+      <c r="CJ14" s="38"/>
+      <c r="CK14" s="38"/>
+      <c r="CL14" s="38"/>
+      <c r="CM14" s="38"/>
+      <c r="CN14" s="38"/>
+      <c r="CO14" s="38"/>
+      <c r="CP14" s="38"/>
+      <c r="CQ14" s="38"/>
+      <c r="CR14" s="8"/>
+      <c r="CS14" s="8"/>
+      <c r="CT14" s="8"/>
+      <c r="CU14" s="8"/>
+      <c r="CV14" s="8"/>
+      <c r="CW14" s="8"/>
+      <c r="CX14" s="8"/>
+      <c r="CY14" s="8"/>
+      <c r="CZ14" s="8"/>
+      <c r="DA14" s="8"/>
+      <c r="DB14" s="8"/>
+      <c r="DC14" s="8"/>
+    </row>
+    <row r="15" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="11"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="11"/>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="11"/>
+      <c r="BO15" s="11"/>
+      <c r="BP15" s="11"/>
+      <c r="BQ15" s="11"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="11"/>
+      <c r="BT15" s="11"/>
+      <c r="BU15" s="11"/>
+      <c r="BV15" s="11"/>
+      <c r="BW15" s="11"/>
+      <c r="BX15" s="11"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="11"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="11"/>
+      <c r="CC15" s="11"/>
+      <c r="CD15" s="11"/>
+      <c r="CE15" s="11"/>
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="38"/>
+      <c r="CH15" s="38"/>
+      <c r="CI15" s="38"/>
+      <c r="CJ15" s="38"/>
+      <c r="CK15" s="38"/>
+      <c r="CL15" s="38"/>
+      <c r="CM15" s="38"/>
+      <c r="CN15" s="38"/>
+      <c r="CO15" s="38"/>
+      <c r="CP15" s="38"/>
+      <c r="CQ15" s="38"/>
+      <c r="CR15" s="8"/>
+      <c r="CS15" s="8"/>
+      <c r="CT15" s="8"/>
+      <c r="CU15" s="8"/>
+      <c r="CV15" s="8"/>
+      <c r="CW15" s="8"/>
+      <c r="CX15" s="8"/>
+      <c r="CY15" s="8"/>
+      <c r="CZ15" s="8"/>
+      <c r="DA15" s="8"/>
+      <c r="DB15" s="8"/>
+      <c r="DC15" s="8"/>
+    </row>
+    <row r="16" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="11"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="11"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="38"/>
+      <c r="CH16" s="38"/>
+      <c r="CI16" s="38"/>
+      <c r="CJ16" s="38"/>
+      <c r="CK16" s="38"/>
+      <c r="CL16" s="38"/>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="38"/>
+      <c r="CO16" s="38"/>
+      <c r="CP16" s="38"/>
+      <c r="CQ16" s="38"/>
+      <c r="CR16" s="8"/>
+      <c r="CS16" s="8"/>
+      <c r="CT16" s="8"/>
+      <c r="CU16" s="8"/>
+      <c r="CV16" s="8"/>
+      <c r="CW16" s="8"/>
+      <c r="CX16" s="8"/>
+      <c r="CY16" s="8"/>
+      <c r="CZ16" s="8"/>
+      <c r="DA16" s="8"/>
+      <c r="DB16" s="8"/>
+      <c r="DC16" s="8"/>
+    </row>
+    <row r="17" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="11"/>
+      <c r="BK17" s="11"/>
+      <c r="BL17" s="11"/>
+      <c r="BM17" s="11"/>
+      <c r="BN17" s="11"/>
+      <c r="BO17" s="11"/>
+      <c r="BP17" s="11"/>
+      <c r="BQ17" s="11"/>
+      <c r="BR17" s="11"/>
+      <c r="BS17" s="11"/>
+      <c r="BT17" s="11"/>
+      <c r="BU17" s="11"/>
+      <c r="BV17" s="11"/>
+      <c r="BW17" s="11"/>
+      <c r="BX17" s="11"/>
+      <c r="BY17" s="11"/>
+      <c r="BZ17" s="11"/>
+      <c r="CA17" s="11"/>
+      <c r="CB17" s="11"/>
+      <c r="CC17" s="11"/>
+      <c r="CD17" s="11"/>
+      <c r="CE17" s="11"/>
+      <c r="CF17" s="38"/>
+      <c r="CG17" s="38"/>
+      <c r="CH17" s="38"/>
+      <c r="CI17" s="38"/>
+      <c r="CJ17" s="38"/>
+      <c r="CK17" s="38"/>
+      <c r="CL17" s="38"/>
+      <c r="CM17" s="38"/>
+      <c r="CN17" s="38"/>
+      <c r="CO17" s="38"/>
+      <c r="CP17" s="38"/>
+      <c r="CQ17" s="38"/>
+      <c r="CR17" s="8"/>
+      <c r="CS17" s="8"/>
+      <c r="CT17" s="8"/>
+      <c r="CU17" s="8"/>
+      <c r="CV17" s="8"/>
+      <c r="CW17" s="8"/>
+      <c r="CX17" s="8"/>
+      <c r="CY17" s="8"/>
+      <c r="CZ17" s="8"/>
+      <c r="DA17" s="8"/>
+      <c r="DB17" s="8"/>
+      <c r="DC17" s="8"/>
+    </row>
+    <row r="18" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="11"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="11"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="11"/>
+      <c r="CE18" s="11"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="38"/>
+      <c r="CH18" s="38"/>
+      <c r="CI18" s="38"/>
+      <c r="CJ18" s="38"/>
+      <c r="CK18" s="38"/>
+      <c r="CL18" s="38"/>
+      <c r="CM18" s="38"/>
+      <c r="CN18" s="38"/>
+      <c r="CO18" s="38"/>
+      <c r="CP18" s="38"/>
+      <c r="CQ18" s="38"/>
+      <c r="CR18" s="8"/>
+      <c r="CS18" s="8"/>
+      <c r="CT18" s="8"/>
+      <c r="CU18" s="8"/>
+      <c r="CV18" s="8"/>
+      <c r="CW18" s="8"/>
+      <c r="CX18" s="8"/>
+      <c r="CY18" s="8"/>
+      <c r="CZ18" s="8"/>
+      <c r="DA18" s="8"/>
+      <c r="DB18" s="8"/>
+      <c r="DC18" s="8"/>
+    </row>
+    <row r="19" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
+      <c r="BT19" s="11"/>
+      <c r="BU19" s="11"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="11"/>
+      <c r="CE19" s="11"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
+      <c r="CL19" s="38"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="38"/>
+      <c r="CO19" s="38"/>
+      <c r="CP19" s="38"/>
+      <c r="CQ19" s="38"/>
+      <c r="CR19" s="8"/>
+      <c r="CS19" s="8"/>
+      <c r="CT19" s="8"/>
+      <c r="CU19" s="8"/>
+      <c r="CV19" s="8"/>
+      <c r="CW19" s="8"/>
+      <c r="CX19" s="8"/>
+      <c r="CY19" s="8"/>
+      <c r="CZ19" s="8"/>
+      <c r="DA19" s="8"/>
+      <c r="DB19" s="8"/>
+      <c r="DC19" s="8"/>
+    </row>
+    <row r="20" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="38"/>
+      <c r="CH20" s="38"/>
+      <c r="CI20" s="38"/>
+      <c r="CJ20" s="38"/>
+      <c r="CK20" s="38"/>
+      <c r="CL20" s="38"/>
+      <c r="CM20" s="38"/>
+      <c r="CN20" s="38"/>
+      <c r="CO20" s="38"/>
+      <c r="CP20" s="38"/>
+      <c r="CQ20" s="38"/>
+      <c r="CR20" s="8"/>
+      <c r="CS20" s="8"/>
+      <c r="CT20" s="8"/>
+      <c r="CU20" s="8"/>
+      <c r="CV20" s="8"/>
+      <c r="CW20" s="8"/>
+      <c r="CX20" s="8"/>
+      <c r="CY20" s="8"/>
+      <c r="CZ20" s="8"/>
+      <c r="DA20" s="8"/>
+      <c r="DB20" s="8"/>
+      <c r="DC20" s="8"/>
+    </row>
+    <row r="21" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+      <c r="BI21" s="11"/>
+      <c r="BJ21" s="11"/>
+      <c r="BK21" s="11"/>
+      <c r="BL21" s="11"/>
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="11"/>
+      <c r="BQ21" s="11"/>
+      <c r="BR21" s="11"/>
+      <c r="BS21" s="11"/>
+      <c r="BT21" s="11"/>
+      <c r="BU21" s="11"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="11"/>
+      <c r="CC21" s="11"/>
+      <c r="CD21" s="11"/>
+      <c r="CE21" s="11"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
+      <c r="CJ21" s="38"/>
+      <c r="CK21" s="38"/>
+      <c r="CL21" s="38"/>
+      <c r="CM21" s="38"/>
+      <c r="CN21" s="38"/>
+      <c r="CO21" s="38"/>
+      <c r="CP21" s="38"/>
+      <c r="CQ21" s="38"/>
+      <c r="CR21" s="8"/>
+      <c r="CS21" s="8"/>
+      <c r="CT21" s="8"/>
+      <c r="CU21" s="8"/>
+      <c r="CV21" s="8"/>
+      <c r="CW21" s="8"/>
+      <c r="CX21" s="8"/>
+      <c r="CY21" s="8"/>
+      <c r="CZ21" s="8"/>
+      <c r="DA21" s="8"/>
+      <c r="DB21" s="8"/>
+      <c r="DC21" s="8"/>
+    </row>
+    <row r="22" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="11"/>
+      <c r="BF22" s="11"/>
+      <c r="BG22" s="11"/>
+      <c r="BH22" s="11"/>
+      <c r="BI22" s="11"/>
+      <c r="BJ22" s="11"/>
+      <c r="BK22" s="11"/>
+      <c r="BL22" s="11"/>
+      <c r="BM22" s="11"/>
+      <c r="BN22" s="11"/>
+      <c r="BO22" s="11"/>
+      <c r="BP22" s="11"/>
+      <c r="BQ22" s="11"/>
+      <c r="BR22" s="11"/>
+      <c r="BS22" s="11"/>
+      <c r="BT22" s="11"/>
+      <c r="BU22" s="11"/>
+      <c r="BV22" s="11"/>
+      <c r="BW22" s="11"/>
+      <c r="BX22" s="11"/>
+      <c r="BY22" s="11"/>
+      <c r="BZ22" s="11"/>
+      <c r="CA22" s="11"/>
+      <c r="CB22" s="11"/>
+      <c r="CC22" s="11"/>
+      <c r="CD22" s="11"/>
+      <c r="CE22" s="11"/>
+      <c r="CF22" s="38"/>
+      <c r="CG22" s="38"/>
+      <c r="CH22" s="38"/>
+      <c r="CI22" s="38"/>
+      <c r="CJ22" s="38"/>
+      <c r="CK22" s="38"/>
+      <c r="CL22" s="38"/>
+      <c r="CM22" s="38"/>
+      <c r="CN22" s="38"/>
+      <c r="CO22" s="38"/>
+      <c r="CP22" s="38"/>
+      <c r="CQ22" s="38"/>
+      <c r="CR22" s="8"/>
+      <c r="CS22" s="8"/>
+      <c r="CT22" s="8"/>
+      <c r="CU22" s="8"/>
+      <c r="CV22" s="8"/>
+      <c r="CW22" s="8"/>
+      <c r="CX22" s="8"/>
+      <c r="CY22" s="8"/>
+      <c r="CZ22" s="8"/>
+      <c r="DA22" s="8"/>
+      <c r="DB22" s="8"/>
+      <c r="DC22" s="8"/>
+    </row>
+    <row r="23" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
+      <c r="BF23" s="11"/>
+      <c r="BG23" s="11"/>
+      <c r="BH23" s="11"/>
+      <c r="BI23" s="11"/>
+      <c r="BJ23" s="11"/>
+      <c r="BK23" s="11"/>
+      <c r="BL23" s="11"/>
+      <c r="BM23" s="11"/>
+      <c r="BN23" s="11"/>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="11"/>
+      <c r="BQ23" s="11"/>
+      <c r="BR23" s="11"/>
+      <c r="BS23" s="11"/>
+      <c r="BT23" s="11"/>
+      <c r="BU23" s="11"/>
+      <c r="BV23" s="11"/>
+      <c r="BW23" s="11"/>
+      <c r="BX23" s="11"/>
+      <c r="BY23" s="11"/>
+      <c r="BZ23" s="11"/>
+      <c r="CA23" s="11"/>
+      <c r="CB23" s="11"/>
+      <c r="CC23" s="11"/>
+      <c r="CD23" s="11"/>
+      <c r="CE23" s="11"/>
+      <c r="CF23" s="38"/>
+      <c r="CG23" s="38"/>
+      <c r="CH23" s="38"/>
+      <c r="CI23" s="38"/>
+      <c r="CJ23" s="38"/>
+      <c r="CK23" s="38"/>
+      <c r="CL23" s="38"/>
+      <c r="CM23" s="38"/>
+      <c r="CN23" s="38"/>
+      <c r="CO23" s="38"/>
+      <c r="CP23" s="38"/>
+      <c r="CQ23" s="38"/>
+      <c r="CR23" s="8"/>
+      <c r="CS23" s="8"/>
+      <c r="CT23" s="8"/>
+      <c r="CU23" s="8"/>
+      <c r="CV23" s="8"/>
+      <c r="CW23" s="8"/>
+      <c r="CX23" s="8"/>
+      <c r="CY23" s="8"/>
+      <c r="CZ23" s="8"/>
+      <c r="DA23" s="8"/>
+      <c r="DB23" s="8"/>
+      <c r="DC23" s="8"/>
+    </row>
+    <row r="24" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="48"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="11"/>
+      <c r="BF24" s="11"/>
+      <c r="BG24" s="11"/>
+      <c r="BH24" s="11"/>
+      <c r="BI24" s="11"/>
+      <c r="BJ24" s="11"/>
+      <c r="BK24" s="11"/>
+      <c r="BL24" s="11"/>
+      <c r="BM24" s="11"/>
+      <c r="BN24" s="11"/>
+      <c r="BO24" s="11"/>
+      <c r="BP24" s="11"/>
+      <c r="BQ24" s="11"/>
+      <c r="BR24" s="11"/>
+      <c r="BS24" s="11"/>
+      <c r="BT24" s="11"/>
+      <c r="BU24" s="11"/>
+      <c r="BV24" s="11"/>
+      <c r="BW24" s="11"/>
+      <c r="BX24" s="11"/>
+      <c r="BY24" s="11"/>
+      <c r="BZ24" s="11"/>
+      <c r="CA24" s="11"/>
+      <c r="CB24" s="11"/>
+      <c r="CC24" s="11"/>
+      <c r="CD24" s="11"/>
+      <c r="CE24" s="11"/>
+      <c r="CF24" s="38"/>
+      <c r="CG24" s="38"/>
+      <c r="CH24" s="38"/>
+      <c r="CI24" s="38"/>
+      <c r="CJ24" s="38"/>
+      <c r="CK24" s="38"/>
+      <c r="CL24" s="38"/>
+      <c r="CM24" s="38"/>
+      <c r="CN24" s="38"/>
+      <c r="CO24" s="38"/>
+      <c r="CP24" s="38"/>
+      <c r="CQ24" s="38"/>
+      <c r="CR24" s="8"/>
+      <c r="CS24" s="8"/>
+      <c r="CT24" s="8"/>
+      <c r="CU24" s="8"/>
+      <c r="CV24" s="8"/>
+      <c r="CW24" s="8"/>
+      <c r="CX24" s="8"/>
+      <c r="CY24" s="8"/>
+      <c r="CZ24" s="8"/>
+      <c r="DA24" s="8"/>
+      <c r="DB24" s="8"/>
+      <c r="DC24" s="8"/>
+    </row>
+    <row r="25" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
+      <c r="BF25" s="11"/>
+      <c r="BG25" s="11"/>
+      <c r="BH25" s="11"/>
+      <c r="BI25" s="11"/>
+      <c r="BJ25" s="11"/>
+      <c r="BK25" s="11"/>
+      <c r="BL25" s="11"/>
+      <c r="BM25" s="11"/>
+      <c r="BN25" s="11"/>
+      <c r="BO25" s="11"/>
+      <c r="BP25" s="11"/>
+      <c r="BQ25" s="11"/>
+      <c r="BR25" s="11"/>
+      <c r="BS25" s="11"/>
+      <c r="BT25" s="11"/>
+      <c r="BU25" s="11"/>
+      <c r="BV25" s="11"/>
+      <c r="BW25" s="11"/>
+      <c r="BX25" s="11"/>
+      <c r="BY25" s="11"/>
+      <c r="BZ25" s="11"/>
+      <c r="CA25" s="11"/>
+      <c r="CB25" s="11"/>
+      <c r="CC25" s="11"/>
+      <c r="CD25" s="11"/>
+      <c r="CE25" s="11"/>
+      <c r="CF25" s="38"/>
+      <c r="CG25" s="38"/>
+      <c r="CH25" s="38"/>
+      <c r="CI25" s="38"/>
+      <c r="CJ25" s="38"/>
+      <c r="CK25" s="38"/>
+      <c r="CL25" s="38"/>
+      <c r="CM25" s="38"/>
+      <c r="CN25" s="38"/>
+      <c r="CO25" s="38"/>
+      <c r="CP25" s="38"/>
+      <c r="CQ25" s="38"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
+      <c r="DC25" s="8"/>
+    </row>
+    <row r="26" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="11"/>
+      <c r="BH26" s="11"/>
+      <c r="BI26" s="11"/>
+      <c r="BJ26" s="11"/>
+      <c r="BK26" s="11"/>
+      <c r="BL26" s="11"/>
+      <c r="BM26" s="11"/>
+      <c r="BN26" s="11"/>
+      <c r="BO26" s="11"/>
+      <c r="BP26" s="11"/>
+      <c r="BQ26" s="11"/>
+      <c r="BR26" s="11"/>
+      <c r="BS26" s="11"/>
+      <c r="BT26" s="11"/>
+      <c r="BU26" s="11"/>
+      <c r="BV26" s="11"/>
+      <c r="BW26" s="11"/>
+      <c r="BX26" s="11"/>
+      <c r="BY26" s="11"/>
+      <c r="BZ26" s="11"/>
+      <c r="CA26" s="11"/>
+      <c r="CB26" s="11"/>
+      <c r="CC26" s="11"/>
+      <c r="CD26" s="11"/>
+      <c r="CE26" s="11"/>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="38"/>
+      <c r="CH26" s="38"/>
+      <c r="CI26" s="38"/>
+      <c r="CJ26" s="38"/>
+      <c r="CK26" s="38"/>
+      <c r="CL26" s="38"/>
+      <c r="CM26" s="38"/>
+      <c r="CN26" s="38"/>
+      <c r="CO26" s="38"/>
+      <c r="CP26" s="38"/>
+      <c r="CQ26" s="38"/>
+      <c r="CR26" s="8"/>
+      <c r="CS26" s="8"/>
+      <c r="CT26" s="8"/>
+      <c r="CU26" s="8"/>
+      <c r="CV26" s="8"/>
+      <c r="CW26" s="8"/>
+      <c r="CX26" s="8"/>
+      <c r="CY26" s="8"/>
+      <c r="CZ26" s="8"/>
+      <c r="DA26" s="8"/>
+      <c r="DB26" s="8"/>
+      <c r="DC26" s="8"/>
+    </row>
+    <row r="27" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="11"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="11"/>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="11"/>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="11"/>
+      <c r="BR27" s="11"/>
+      <c r="BS27" s="11"/>
+      <c r="BT27" s="11"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+      <c r="BX27" s="11"/>
+      <c r="BY27" s="11"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="11"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="38"/>
+      <c r="CG27" s="38"/>
+      <c r="CH27" s="38"/>
+      <c r="CI27" s="38"/>
+      <c r="CJ27" s="38"/>
+      <c r="CK27" s="38"/>
+      <c r="CL27" s="38"/>
+      <c r="CM27" s="38"/>
+      <c r="CN27" s="38"/>
+      <c r="CO27" s="38"/>
+      <c r="CP27" s="38"/>
+      <c r="CQ27" s="38"/>
+      <c r="CR27" s="8"/>
+      <c r="CS27" s="8"/>
+      <c r="CT27" s="8"/>
+      <c r="CU27" s="8"/>
+      <c r="CV27" s="8"/>
+      <c r="CW27" s="8"/>
+      <c r="CX27" s="8"/>
+      <c r="CY27" s="8"/>
+      <c r="CZ27" s="8"/>
+      <c r="DA27" s="8"/>
+      <c r="DB27" s="8"/>
+      <c r="DC27" s="8"/>
+    </row>
+    <row r="28" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="11"/>
+      <c r="BH28" s="11"/>
+      <c r="BI28" s="11"/>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="11"/>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="11"/>
+      <c r="BN28" s="11"/>
+      <c r="BO28" s="11"/>
+      <c r="BP28" s="11"/>
+      <c r="BQ28" s="11"/>
+      <c r="BR28" s="11"/>
+      <c r="BS28" s="11"/>
+      <c r="BT28" s="11"/>
+      <c r="BU28" s="11"/>
+      <c r="BV28" s="11"/>
+      <c r="BW28" s="11"/>
+      <c r="BX28" s="11"/>
+      <c r="BY28" s="11"/>
+      <c r="BZ28" s="11"/>
+      <c r="CA28" s="11"/>
+      <c r="CB28" s="11"/>
+      <c r="CC28" s="11"/>
+      <c r="CD28" s="11"/>
+      <c r="CE28" s="11"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="38"/>
+      <c r="CH28" s="38"/>
+      <c r="CI28" s="38"/>
+      <c r="CJ28" s="38"/>
+      <c r="CK28" s="38"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="38"/>
+      <c r="CO28" s="38"/>
+      <c r="CP28" s="38"/>
+      <c r="CQ28" s="38"/>
+      <c r="CR28" s="8"/>
+      <c r="CS28" s="8"/>
+      <c r="CT28" s="8"/>
+      <c r="CU28" s="8"/>
+      <c r="CV28" s="8"/>
+      <c r="CW28" s="8"/>
+      <c r="CX28" s="8"/>
+      <c r="CY28" s="8"/>
+      <c r="CZ28" s="8"/>
+      <c r="DA28" s="8"/>
+      <c r="DB28" s="8"/>
+      <c r="DC28" s="8"/>
+    </row>
+    <row r="29" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="48"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="11"/>
+      <c r="BH29" s="11"/>
+      <c r="BI29" s="11"/>
+      <c r="BJ29" s="11"/>
+      <c r="BK29" s="11"/>
+      <c r="BL29" s="11"/>
+      <c r="BM29" s="11"/>
+      <c r="BN29" s="11"/>
+      <c r="BO29" s="11"/>
+      <c r="BP29" s="11"/>
+      <c r="BQ29" s="11"/>
+      <c r="BR29" s="11"/>
+      <c r="BS29" s="11"/>
+      <c r="BT29" s="11"/>
+      <c r="BU29" s="11"/>
+      <c r="BV29" s="11"/>
+      <c r="BW29" s="11"/>
+      <c r="BX29" s="11"/>
+      <c r="BY29" s="11"/>
+      <c r="BZ29" s="11"/>
+      <c r="CA29" s="11"/>
+      <c r="CB29" s="11"/>
+      <c r="CC29" s="11"/>
+      <c r="CD29" s="11"/>
+      <c r="CE29" s="11"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="38"/>
+      <c r="CI29" s="38"/>
+      <c r="CJ29" s="38"/>
+      <c r="CK29" s="38"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="38"/>
+      <c r="CN29" s="38"/>
+      <c r="CO29" s="38"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="38"/>
+      <c r="CR29" s="8"/>
+      <c r="CS29" s="8"/>
+      <c r="CT29" s="8"/>
+      <c r="CU29" s="8"/>
+      <c r="CV29" s="8"/>
+      <c r="CW29" s="8"/>
+      <c r="CX29" s="8"/>
+      <c r="CY29" s="8"/>
+      <c r="CZ29" s="8"/>
+      <c r="DA29" s="8"/>
+      <c r="DB29" s="8"/>
+      <c r="DC29" s="8"/>
+    </row>
+    <row r="30" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="11"/>
+      <c r="BH30" s="11"/>
+      <c r="BI30" s="11"/>
+      <c r="BJ30" s="11"/>
+      <c r="BK30" s="11"/>
+      <c r="BL30" s="11"/>
+      <c r="BM30" s="11"/>
+      <c r="BN30" s="11"/>
+      <c r="BO30" s="11"/>
+      <c r="BP30" s="11"/>
+      <c r="BQ30" s="11"/>
+      <c r="BR30" s="11"/>
+      <c r="BS30" s="11"/>
+      <c r="BT30" s="11"/>
+      <c r="BU30" s="11"/>
+      <c r="BV30" s="11"/>
+      <c r="BW30" s="11"/>
+      <c r="BX30" s="11"/>
+      <c r="BY30" s="11"/>
+      <c r="BZ30" s="11"/>
+      <c r="CA30" s="11"/>
+      <c r="CB30" s="11"/>
+      <c r="CC30" s="11"/>
+      <c r="CD30" s="11"/>
+      <c r="CE30" s="11"/>
+      <c r="CF30" s="38"/>
+      <c r="CG30" s="38"/>
+      <c r="CH30" s="38"/>
+      <c r="CI30" s="38"/>
+      <c r="CJ30" s="38"/>
+      <c r="CK30" s="38"/>
+      <c r="CL30" s="38"/>
+      <c r="CM30" s="38"/>
+      <c r="CN30" s="38"/>
+      <c r="CO30" s="38"/>
+      <c r="CP30" s="38"/>
+      <c r="CQ30" s="38"/>
+      <c r="CR30" s="8"/>
+      <c r="CS30" s="8"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="8"/>
+      <c r="CV30" s="8"/>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="8"/>
+      <c r="CY30" s="8"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="8"/>
+      <c r="DB30" s="8"/>
+      <c r="DC30" s="8"/>
+    </row>
+    <row r="31" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+      <c r="BE31" s="11"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="11"/>
+      <c r="BH31" s="11"/>
+      <c r="BI31" s="11"/>
+      <c r="BJ31" s="11"/>
+      <c r="BK31" s="11"/>
+      <c r="BL31" s="11"/>
+      <c r="BM31" s="11"/>
+      <c r="BN31" s="11"/>
+      <c r="BO31" s="11"/>
+      <c r="BP31" s="11"/>
+      <c r="BQ31" s="11"/>
+      <c r="BR31" s="11"/>
+      <c r="BS31" s="11"/>
+      <c r="BT31" s="11"/>
+      <c r="BU31" s="11"/>
+      <c r="BV31" s="11"/>
+      <c r="BW31" s="11"/>
+      <c r="BX31" s="11"/>
+      <c r="BY31" s="11"/>
+      <c r="BZ31" s="11"/>
+      <c r="CA31" s="11"/>
+      <c r="CB31" s="11"/>
+      <c r="CC31" s="11"/>
+      <c r="CD31" s="11"/>
+      <c r="CE31" s="11"/>
+      <c r="CF31" s="38"/>
+      <c r="CG31" s="38"/>
+      <c r="CH31" s="38"/>
+      <c r="CI31" s="38"/>
+      <c r="CJ31" s="38"/>
+      <c r="CK31" s="38"/>
+      <c r="CL31" s="38"/>
+      <c r="CM31" s="38"/>
+      <c r="CN31" s="38"/>
+      <c r="CO31" s="38"/>
+      <c r="CP31" s="38"/>
+      <c r="CQ31" s="38"/>
+      <c r="CR31" s="8"/>
+      <c r="CS31" s="8"/>
+      <c r="CT31" s="8"/>
+      <c r="CU31" s="8"/>
+      <c r="CV31" s="8"/>
+      <c r="CW31" s="8"/>
+      <c r="CX31" s="8"/>
+      <c r="CY31" s="8"/>
+      <c r="CZ31" s="8"/>
+      <c r="DA31" s="8"/>
+      <c r="DB31" s="8"/>
+      <c r="DC31" s="8"/>
+    </row>
+    <row r="32" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q32" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="11"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="11"/>
+      <c r="BH32" s="11"/>
+      <c r="BI32" s="11"/>
+      <c r="BJ32" s="11"/>
+      <c r="BK32" s="11"/>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="11"/>
+      <c r="BN32" s="11"/>
+      <c r="BO32" s="11"/>
+      <c r="BP32" s="11"/>
+      <c r="BQ32" s="11"/>
+      <c r="BR32" s="11"/>
+      <c r="BS32" s="11"/>
+      <c r="BT32" s="11"/>
+      <c r="BU32" s="11"/>
+      <c r="BV32" s="11"/>
+      <c r="BW32" s="11"/>
+      <c r="BX32" s="11"/>
+      <c r="BY32" s="11"/>
+      <c r="BZ32" s="11"/>
+      <c r="CA32" s="11"/>
+      <c r="CB32" s="11"/>
+      <c r="CC32" s="11"/>
+      <c r="CD32" s="11"/>
+      <c r="CE32" s="11"/>
+      <c r="CF32" s="38"/>
+      <c r="CG32" s="38"/>
+      <c r="CH32" s="38"/>
+      <c r="CI32" s="38"/>
+      <c r="CJ32" s="38"/>
+      <c r="CK32" s="38"/>
+      <c r="CL32" s="38"/>
+      <c r="CM32" s="38"/>
+      <c r="CN32" s="38"/>
+      <c r="CO32" s="38"/>
+      <c r="CP32" s="38"/>
+      <c r="CQ32" s="38"/>
+      <c r="CR32" s="8"/>
+      <c r="CS32" s="8"/>
+      <c r="CT32" s="8"/>
+      <c r="CU32" s="8"/>
+      <c r="CV32" s="8"/>
+      <c r="CW32" s="8"/>
+      <c r="CX32" s="8"/>
+      <c r="CY32" s="8"/>
+      <c r="CZ32" s="8"/>
+      <c r="DA32" s="8"/>
+      <c r="DB32" s="8"/>
+      <c r="DC32" s="8"/>
+    </row>
+    <row r="33" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="11"/>
+      <c r="BP33" s="11"/>
+      <c r="BQ33" s="11"/>
+      <c r="BR33" s="11"/>
+      <c r="BS33" s="11"/>
+      <c r="BT33" s="11"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="11"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
+      <c r="CD33" s="11"/>
+      <c r="CE33" s="11"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
+      <c r="CH33" s="38"/>
+      <c r="CI33" s="38"/>
+      <c r="CJ33" s="38"/>
+      <c r="CK33" s="38"/>
+      <c r="CL33" s="38"/>
+      <c r="CM33" s="38"/>
+      <c r="CN33" s="38"/>
+      <c r="CO33" s="38"/>
+      <c r="CP33" s="38"/>
+      <c r="CQ33" s="38"/>
+      <c r="CR33" s="8"/>
+      <c r="CS33" s="8"/>
+      <c r="CT33" s="8"/>
+      <c r="CU33" s="8"/>
+      <c r="CV33" s="8"/>
+      <c r="CW33" s="8"/>
+      <c r="CX33" s="8"/>
+      <c r="CY33" s="8"/>
+      <c r="CZ33" s="8"/>
+      <c r="DA33" s="8"/>
+      <c r="DB33" s="8"/>
+      <c r="DC33" s="8"/>
+    </row>
+    <row r="34" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="P34" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q34" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
+      <c r="BP34" s="11"/>
+      <c r="BQ34" s="11"/>
+      <c r="BR34" s="11"/>
+      <c r="BS34" s="11"/>
+      <c r="BT34" s="11"/>
+      <c r="BU34" s="11"/>
+      <c r="BV34" s="11"/>
+      <c r="BW34" s="11"/>
+      <c r="BX34" s="11"/>
+      <c r="BY34" s="11"/>
+      <c r="BZ34" s="11"/>
+      <c r="CA34" s="11"/>
+      <c r="CB34" s="11"/>
+      <c r="CC34" s="11"/>
+      <c r="CD34" s="11"/>
+      <c r="CE34" s="11"/>
+      <c r="CF34" s="38"/>
+      <c r="CG34" s="38"/>
+      <c r="CH34" s="38"/>
+      <c r="CI34" s="38"/>
+      <c r="CJ34" s="38"/>
+      <c r="CK34" s="38"/>
+      <c r="CL34" s="38"/>
+      <c r="CM34" s="38"/>
+      <c r="CN34" s="38"/>
+      <c r="CO34" s="38"/>
+      <c r="CP34" s="38"/>
+      <c r="CQ34" s="38"/>
+      <c r="CR34" s="8"/>
+      <c r="CS34" s="8"/>
+      <c r="CT34" s="8"/>
+      <c r="CU34" s="8"/>
+      <c r="CV34" s="8"/>
+      <c r="CW34" s="8"/>
+      <c r="CX34" s="8"/>
+      <c r="CY34" s="8"/>
+      <c r="CZ34" s="8"/>
+      <c r="DA34" s="8"/>
+      <c r="DB34" s="8"/>
+      <c r="DC34" s="8"/>
+    </row>
+    <row r="35" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="S35" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="11"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
+      <c r="BM35" s="11"/>
+      <c r="BN35" s="11"/>
+      <c r="BO35" s="11"/>
+      <c r="BP35" s="11"/>
+      <c r="BQ35" s="11"/>
+      <c r="BR35" s="11"/>
+      <c r="BS35" s="11"/>
+      <c r="BT35" s="11"/>
+      <c r="BU35" s="11"/>
+      <c r="BV35" s="11"/>
+      <c r="BW35" s="11"/>
+      <c r="BX35" s="11"/>
+      <c r="BY35" s="11"/>
+      <c r="BZ35" s="11"/>
+      <c r="CA35" s="11"/>
+      <c r="CB35" s="11"/>
+      <c r="CC35" s="11"/>
+      <c r="CD35" s="11"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="38"/>
+      <c r="CG35" s="38"/>
+      <c r="CH35" s="38"/>
+      <c r="CI35" s="38"/>
+      <c r="CJ35" s="38"/>
+      <c r="CK35" s="38"/>
+      <c r="CL35" s="38"/>
+      <c r="CM35" s="38"/>
+      <c r="CN35" s="38"/>
+      <c r="CO35" s="38"/>
+      <c r="CP35" s="38"/>
+      <c r="CQ35" s="38"/>
+      <c r="CR35" s="8"/>
+      <c r="CS35" s="8"/>
+      <c r="CT35" s="8"/>
+      <c r="CU35" s="8"/>
+      <c r="CV35" s="8"/>
+      <c r="CW35" s="8"/>
+      <c r="CX35" s="8"/>
+      <c r="CY35" s="8"/>
+      <c r="CZ35" s="8"/>
+      <c r="DA35" s="8"/>
+      <c r="DB35" s="8"/>
+      <c r="DC35" s="8"/>
+    </row>
+    <row r="36" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="46"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="11"/>
+      <c r="BM36" s="11"/>
+      <c r="BN36" s="11"/>
+      <c r="BO36" s="11"/>
+      <c r="BP36" s="11"/>
+      <c r="BQ36" s="11"/>
+      <c r="BR36" s="11"/>
+      <c r="BS36" s="11"/>
+      <c r="BT36" s="11"/>
+      <c r="BU36" s="11"/>
+      <c r="BV36" s="11"/>
+      <c r="BW36" s="11"/>
+      <c r="BX36" s="11"/>
+      <c r="BY36" s="11"/>
+      <c r="BZ36" s="11"/>
+      <c r="CA36" s="11"/>
+      <c r="CB36" s="11"/>
+      <c r="CC36" s="11"/>
+      <c r="CD36" s="11"/>
+      <c r="CE36" s="11"/>
+      <c r="CF36" s="38"/>
+      <c r="CG36" s="38"/>
+      <c r="CH36" s="38"/>
+      <c r="CI36" s="38"/>
+      <c r="CJ36" s="38"/>
+      <c r="CK36" s="38"/>
+      <c r="CL36" s="38"/>
+      <c r="CM36" s="38"/>
+      <c r="CN36" s="38"/>
+      <c r="CO36" s="38"/>
+      <c r="CP36" s="38"/>
+      <c r="CQ36" s="38"/>
+      <c r="CR36" s="8"/>
+      <c r="CS36" s="8"/>
+      <c r="CT36" s="8"/>
+      <c r="CU36" s="8"/>
+      <c r="CV36" s="8"/>
+      <c r="CW36" s="8"/>
+      <c r="CX36" s="8"/>
+      <c r="CY36" s="8"/>
+      <c r="CZ36" s="8"/>
+      <c r="DA36" s="8"/>
+      <c r="DB36" s="8"/>
+      <c r="DC36" s="8"/>
+    </row>
+    <row r="37" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="U37" s="18"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="11"/>
+      <c r="BD37" s="11"/>
+      <c r="BE37" s="11"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="11"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
+      <c r="BM37" s="11"/>
+      <c r="BN37" s="11"/>
+      <c r="BO37" s="11"/>
+      <c r="BP37" s="11"/>
+      <c r="BQ37" s="11"/>
+      <c r="BR37" s="11"/>
+      <c r="BS37" s="11"/>
+      <c r="BT37" s="11"/>
+      <c r="BU37" s="11"/>
+      <c r="BV37" s="11"/>
+      <c r="BW37" s="11"/>
+      <c r="BX37" s="11"/>
+      <c r="BY37" s="11"/>
+      <c r="BZ37" s="11"/>
+      <c r="CA37" s="11"/>
+      <c r="CB37" s="11"/>
+      <c r="CC37" s="11"/>
+      <c r="CD37" s="11"/>
+      <c r="CE37" s="11"/>
+      <c r="CF37" s="38"/>
+      <c r="CG37" s="38"/>
+      <c r="CH37" s="38"/>
+      <c r="CI37" s="38"/>
+      <c r="CJ37" s="38"/>
+      <c r="CK37" s="38"/>
+      <c r="CL37" s="38"/>
+      <c r="CM37" s="38"/>
+      <c r="CN37" s="38"/>
+      <c r="CO37" s="38"/>
+      <c r="CP37" s="38"/>
+      <c r="CQ37" s="38"/>
+      <c r="CR37" s="8"/>
+      <c r="CS37" s="8"/>
+      <c r="CT37" s="8"/>
+      <c r="CU37" s="8"/>
+      <c r="CV37" s="8"/>
+      <c r="CW37" s="8"/>
+      <c r="CX37" s="8"/>
+      <c r="CY37" s="8"/>
+      <c r="CZ37" s="8"/>
+      <c r="DA37" s="8"/>
+      <c r="DB37" s="8"/>
+      <c r="DC37" s="8"/>
+    </row>
+    <row r="38" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="11"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="11"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="11"/>
+      <c r="BM38" s="11"/>
+      <c r="BN38" s="11"/>
+      <c r="BO38" s="11"/>
+      <c r="BP38" s="11"/>
+      <c r="BQ38" s="11"/>
+      <c r="BR38" s="11"/>
+      <c r="BS38" s="11"/>
+      <c r="BT38" s="11"/>
+      <c r="BU38" s="11"/>
+      <c r="BV38" s="11"/>
+      <c r="BW38" s="11"/>
+      <c r="BX38" s="11"/>
+      <c r="BY38" s="11"/>
+      <c r="BZ38" s="11"/>
+      <c r="CA38" s="11"/>
+      <c r="CB38" s="11"/>
+      <c r="CC38" s="11"/>
+      <c r="CD38" s="11"/>
+      <c r="CE38" s="11"/>
+      <c r="CF38" s="38"/>
+      <c r="CG38" s="38"/>
+      <c r="CH38" s="38"/>
+      <c r="CI38" s="38"/>
+      <c r="CJ38" s="38"/>
+      <c r="CK38" s="38"/>
+      <c r="CL38" s="38"/>
+      <c r="CM38" s="38"/>
+      <c r="CN38" s="38"/>
+      <c r="CO38" s="38"/>
+      <c r="CP38" s="38"/>
+      <c r="CQ38" s="38"/>
+      <c r="CR38" s="8"/>
+      <c r="CS38" s="8"/>
+      <c r="CT38" s="8"/>
+      <c r="CU38" s="8"/>
+      <c r="CV38" s="8"/>
+      <c r="CW38" s="8"/>
+      <c r="CX38" s="8"/>
+      <c r="CY38" s="8"/>
+      <c r="CZ38" s="8"/>
+      <c r="DA38" s="8"/>
+      <c r="DB38" s="8"/>
+      <c r="DC38" s="8"/>
+    </row>
+    <row r="39" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="V39" s="18"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="11"/>
+      <c r="BE39" s="11"/>
+      <c r="BF39" s="11"/>
+      <c r="BG39" s="11"/>
+      <c r="BH39" s="11"/>
+      <c r="BI39" s="11"/>
+      <c r="BJ39" s="11"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
+      <c r="BM39" s="11"/>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="11"/>
+      <c r="BP39" s="11"/>
+      <c r="BQ39" s="11"/>
+      <c r="BR39" s="11"/>
+      <c r="BS39" s="11"/>
+      <c r="BT39" s="11"/>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="11"/>
+      <c r="BW39" s="11"/>
+      <c r="BX39" s="11"/>
+      <c r="BY39" s="11"/>
+      <c r="BZ39" s="11"/>
+      <c r="CA39" s="11"/>
+      <c r="CB39" s="11"/>
+      <c r="CC39" s="11"/>
+      <c r="CD39" s="11"/>
+      <c r="CE39" s="11"/>
+      <c r="CF39" s="38"/>
+      <c r="CG39" s="38"/>
+      <c r="CH39" s="38"/>
+      <c r="CI39" s="38"/>
+      <c r="CJ39" s="38"/>
+      <c r="CK39" s="38"/>
+      <c r="CL39" s="38"/>
+      <c r="CM39" s="38"/>
+      <c r="CN39" s="38"/>
+      <c r="CO39" s="38"/>
+      <c r="CP39" s="38"/>
+      <c r="CQ39" s="38"/>
+      <c r="CR39" s="8"/>
+      <c r="CS39" s="8"/>
+      <c r="CT39" s="8"/>
+      <c r="CU39" s="8"/>
+      <c r="CV39" s="8"/>
+      <c r="CW39" s="8"/>
+      <c r="CX39" s="8"/>
+      <c r="CY39" s="8"/>
+      <c r="CZ39" s="8"/>
+      <c r="DA39" s="8"/>
+      <c r="DB39" s="8"/>
+      <c r="DC39" s="8"/>
+    </row>
+    <row r="40" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="11"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="11"/>
+      <c r="AZ40" s="11"/>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="11"/>
+      <c r="BC40" s="11"/>
+      <c r="BD40" s="11"/>
+      <c r="BE40" s="11"/>
+      <c r="BF40" s="11"/>
+      <c r="BG40" s="11"/>
+      <c r="BH40" s="11"/>
+      <c r="BI40" s="11"/>
+      <c r="BJ40" s="11"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="11"/>
+      <c r="BM40" s="11"/>
+      <c r="BN40" s="11"/>
+      <c r="BO40" s="11"/>
+      <c r="BP40" s="11"/>
+      <c r="BQ40" s="11"/>
+      <c r="BR40" s="11"/>
+      <c r="BS40" s="11"/>
+      <c r="BT40" s="11"/>
+      <c r="BU40" s="11"/>
+      <c r="BV40" s="11"/>
+      <c r="BW40" s="11"/>
+      <c r="BX40" s="11"/>
+      <c r="BY40" s="11"/>
+      <c r="BZ40" s="11"/>
+      <c r="CA40" s="11"/>
+      <c r="CB40" s="11"/>
+      <c r="CC40" s="11"/>
+      <c r="CD40" s="11"/>
+      <c r="CE40" s="11"/>
+      <c r="CF40" s="38"/>
+      <c r="CG40" s="38"/>
+      <c r="CH40" s="38"/>
+      <c r="CI40" s="38"/>
+      <c r="CJ40" s="38"/>
+      <c r="CK40" s="38"/>
+      <c r="CL40" s="38"/>
+      <c r="CM40" s="38"/>
+      <c r="CN40" s="38"/>
+      <c r="CO40" s="38"/>
+      <c r="CP40" s="38"/>
+      <c r="CQ40" s="38"/>
+      <c r="CR40" s="8"/>
+      <c r="CS40" s="8"/>
+      <c r="CT40" s="8"/>
+      <c r="CU40" s="8"/>
+      <c r="CV40" s="8"/>
+      <c r="CW40" s="8"/>
+      <c r="CX40" s="8"/>
+      <c r="CY40" s="8"/>
+      <c r="CZ40" s="8"/>
+      <c r="DA40" s="8"/>
+      <c r="DB40" s="8"/>
+      <c r="DC40" s="8"/>
+    </row>
+    <row r="41" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="11"/>
+      <c r="BD41" s="11"/>
+      <c r="BE41" s="11"/>
+      <c r="BF41" s="11"/>
+      <c r="BG41" s="11"/>
+      <c r="BH41" s="11"/>
+      <c r="BI41" s="11"/>
+      <c r="BJ41" s="11"/>
+      <c r="BK41" s="11"/>
+      <c r="BL41" s="11"/>
+      <c r="BM41" s="11"/>
+      <c r="BN41" s="11"/>
+      <c r="BO41" s="11"/>
+      <c r="BP41" s="11"/>
+      <c r="BQ41" s="11"/>
+      <c r="BR41" s="11"/>
+      <c r="BS41" s="11"/>
+      <c r="BT41" s="11"/>
+      <c r="BU41" s="11"/>
+      <c r="BV41" s="11"/>
+      <c r="BW41" s="11"/>
+      <c r="BX41" s="11"/>
+      <c r="BY41" s="11"/>
+      <c r="BZ41" s="11"/>
+      <c r="CA41" s="11"/>
+      <c r="CB41" s="11"/>
+      <c r="CC41" s="11"/>
+      <c r="CD41" s="11"/>
+      <c r="CE41" s="11"/>
+      <c r="CF41" s="38"/>
+      <c r="CG41" s="38"/>
+      <c r="CH41" s="38"/>
+      <c r="CI41" s="38"/>
+      <c r="CJ41" s="38"/>
+      <c r="CK41" s="38"/>
+      <c r="CL41" s="38"/>
+      <c r="CM41" s="38"/>
+      <c r="CN41" s="38"/>
+      <c r="CO41" s="38"/>
+      <c r="CP41" s="38"/>
+      <c r="CQ41" s="38"/>
+      <c r="CR41" s="8"/>
+      <c r="CS41" s="8"/>
+      <c r="CT41" s="8"/>
+      <c r="CU41" s="8"/>
+      <c r="CV41" s="8"/>
+      <c r="CW41" s="8"/>
+      <c r="CX41" s="8"/>
+      <c r="CY41" s="8"/>
+      <c r="CZ41" s="8"/>
+      <c r="DA41" s="8"/>
+      <c r="DB41" s="8"/>
+      <c r="DC41" s="8"/>
+    </row>
+    <row r="42" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="11"/>
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="11"/>
+      <c r="BB42" s="11"/>
+      <c r="BC42" s="11"/>
+      <c r="BD42" s="11"/>
+      <c r="BE42" s="11"/>
+      <c r="BF42" s="11"/>
+      <c r="BG42" s="11"/>
+      <c r="BH42" s="11"/>
+      <c r="BI42" s="11"/>
+      <c r="BJ42" s="11"/>
+      <c r="BK42" s="11"/>
+      <c r="BL42" s="11"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="11"/>
+      <c r="BR42" s="11"/>
+      <c r="BS42" s="11"/>
+      <c r="BT42" s="11"/>
+      <c r="BU42" s="11"/>
+      <c r="BV42" s="11"/>
+      <c r="BW42" s="11"/>
+      <c r="BX42" s="11"/>
+      <c r="BY42" s="11"/>
+      <c r="BZ42" s="11"/>
+      <c r="CA42" s="11"/>
+      <c r="CB42" s="11"/>
+      <c r="CC42" s="11"/>
+      <c r="CD42" s="11"/>
+      <c r="CE42" s="11"/>
+      <c r="CF42" s="38"/>
+      <c r="CG42" s="38"/>
+      <c r="CH42" s="38"/>
+      <c r="CI42" s="38"/>
+      <c r="CJ42" s="38"/>
+      <c r="CK42" s="38"/>
+      <c r="CL42" s="38"/>
+      <c r="CM42" s="38"/>
+      <c r="CN42" s="38"/>
+      <c r="CO42" s="38"/>
+      <c r="CP42" s="38"/>
+      <c r="CQ42" s="38"/>
+      <c r="CR42" s="8"/>
+      <c r="CS42" s="8"/>
+      <c r="CT42" s="8"/>
+      <c r="CU42" s="8"/>
+      <c r="CV42" s="8"/>
+      <c r="CW42" s="8"/>
+      <c r="CX42" s="8"/>
+      <c r="CY42" s="8"/>
+      <c r="CZ42" s="8"/>
+      <c r="DA42" s="8"/>
+      <c r="DB42" s="8"/>
+      <c r="DC42" s="8"/>
+    </row>
+    <row r="43" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="U43" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="V43" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="11"/>
+      <c r="BD43" s="11"/>
+      <c r="BE43" s="11"/>
+      <c r="BF43" s="11"/>
+      <c r="BG43" s="11"/>
+      <c r="BH43" s="11"/>
+      <c r="BI43" s="11"/>
+      <c r="BJ43" s="11"/>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="11"/>
+      <c r="BM43" s="11"/>
+      <c r="BN43" s="11"/>
+      <c r="BO43" s="11"/>
+      <c r="BP43" s="11"/>
+      <c r="BQ43" s="11"/>
+      <c r="BR43" s="11"/>
+      <c r="BS43" s="11"/>
+      <c r="BT43" s="11"/>
+      <c r="BU43" s="11"/>
+      <c r="BV43" s="11"/>
+      <c r="BW43" s="11"/>
+      <c r="BX43" s="11"/>
+      <c r="BY43" s="11"/>
+      <c r="BZ43" s="11"/>
+      <c r="CA43" s="11"/>
+      <c r="CB43" s="11"/>
+      <c r="CC43" s="11"/>
+      <c r="CD43" s="11"/>
+      <c r="CE43" s="11"/>
+      <c r="CF43" s="38"/>
+      <c r="CG43" s="38"/>
+      <c r="CH43" s="38"/>
+      <c r="CI43" s="38"/>
+      <c r="CJ43" s="38"/>
+      <c r="CK43" s="38"/>
+      <c r="CL43" s="38"/>
+      <c r="CM43" s="38"/>
+      <c r="CN43" s="38"/>
+      <c r="CO43" s="38"/>
+      <c r="CP43" s="38"/>
+      <c r="CQ43" s="38"/>
+      <c r="CR43" s="8"/>
+      <c r="CS43" s="8"/>
+      <c r="CT43" s="8"/>
+      <c r="CU43" s="8"/>
+      <c r="CV43" s="8"/>
+      <c r="CW43" s="8"/>
+      <c r="CX43" s="8"/>
+      <c r="CY43" s="8"/>
+      <c r="CZ43" s="8"/>
+      <c r="DA43" s="8"/>
+      <c r="DB43" s="8"/>
+      <c r="DC43" s="8"/>
+    </row>
+    <row r="44" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="11"/>
+      <c r="BE44" s="11"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="11"/>
+      <c r="BH44" s="11"/>
+      <c r="BI44" s="11"/>
+      <c r="BJ44" s="11"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="11"/>
+      <c r="BM44" s="11"/>
+      <c r="BN44" s="11"/>
+      <c r="BO44" s="11"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="11"/>
+      <c r="BR44" s="11"/>
+      <c r="BS44" s="11"/>
+      <c r="BT44" s="11"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+      <c r="BX44" s="11"/>
+      <c r="BY44" s="11"/>
+      <c r="BZ44" s="11"/>
+      <c r="CA44" s="11"/>
+      <c r="CB44" s="11"/>
+      <c r="CC44" s="11"/>
+      <c r="CD44" s="11"/>
+      <c r="CE44" s="11"/>
+      <c r="CF44" s="38"/>
+      <c r="CG44" s="38"/>
+      <c r="CH44" s="38"/>
+      <c r="CI44" s="38"/>
+      <c r="CJ44" s="38"/>
+      <c r="CK44" s="38"/>
+      <c r="CL44" s="38"/>
+      <c r="CM44" s="38"/>
+      <c r="CN44" s="38"/>
+      <c r="CO44" s="38"/>
+      <c r="CP44" s="38"/>
+      <c r="CQ44" s="38"/>
+      <c r="CR44" s="8"/>
+      <c r="CS44" s="8"/>
+      <c r="CT44" s="8"/>
+      <c r="CU44" s="8"/>
+      <c r="CV44" s="8"/>
+      <c r="CW44" s="8"/>
+      <c r="CX44" s="8"/>
+      <c r="CY44" s="8"/>
+      <c r="CZ44" s="8"/>
+      <c r="DA44" s="8"/>
+      <c r="DB44" s="8"/>
+      <c r="DC44" s="8"/>
+    </row>
+    <row r="45" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
+      <c r="AT45" s="11"/>
+      <c r="AU45" s="11"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="11"/>
+      <c r="BD45" s="11"/>
+      <c r="BE45" s="11"/>
+      <c r="BF45" s="11"/>
+      <c r="BG45" s="11"/>
+      <c r="BH45" s="11"/>
+      <c r="BI45" s="11"/>
+      <c r="BJ45" s="11"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
+      <c r="BM45" s="11"/>
+      <c r="BN45" s="11"/>
+      <c r="BO45" s="11"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="11"/>
+      <c r="BR45" s="11"/>
+      <c r="BS45" s="11"/>
+      <c r="BT45" s="11"/>
+      <c r="BU45" s="11"/>
+      <c r="BV45" s="11"/>
+      <c r="BW45" s="11"/>
+      <c r="BX45" s="11"/>
+      <c r="BY45" s="11"/>
+      <c r="BZ45" s="11"/>
+      <c r="CA45" s="11"/>
+      <c r="CB45" s="11"/>
+      <c r="CC45" s="11"/>
+      <c r="CD45" s="11"/>
+      <c r="CE45" s="11"/>
+      <c r="CF45" s="38"/>
+      <c r="CG45" s="38"/>
+      <c r="CH45" s="38"/>
+      <c r="CI45" s="38"/>
+      <c r="CJ45" s="38"/>
+      <c r="CK45" s="38"/>
+      <c r="CL45" s="38"/>
+      <c r="CM45" s="38"/>
+      <c r="CN45" s="38"/>
+      <c r="CO45" s="38"/>
+      <c r="CP45" s="38"/>
+      <c r="CQ45" s="38"/>
+      <c r="CR45" s="8"/>
+      <c r="CS45" s="8"/>
+      <c r="CT45" s="8"/>
+      <c r="CU45" s="8"/>
+      <c r="CV45" s="8"/>
+      <c r="CW45" s="8"/>
+      <c r="CX45" s="8"/>
+      <c r="CY45" s="8"/>
+      <c r="CZ45" s="8"/>
+      <c r="DA45" s="8"/>
+      <c r="DB45" s="8"/>
+      <c r="DC45" s="8"/>
+    </row>
+    <row r="46" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+    </row>
+    <row r="47" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+    </row>
+    <row r="48" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="63"/>
+      <c r="G48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="63"/>
+      <c r="G49" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="63"/>
+      <c r="G50" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F51" s="63"/>
+      <c r="G51" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+    </row>
+    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="63"/>
+      <c r="G52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F53" s="63"/>
+      <c r="G53" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+    </row>
+    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F54" s="63"/>
+      <c r="G54" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F55" s="63"/>
+      <c r="G55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F56" s="63"/>
+      <c r="G56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+    </row>
+    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F57" s="63"/>
+      <c r="G57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F58" s="63"/>
+      <c r="G58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F59" s="63"/>
+      <c r="G59" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F60" s="63"/>
+      <c r="G60" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F61" s="63"/>
+      <c r="G61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="63"/>
+      <c r="G62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F63" s="63"/>
+      <c r="G63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+    </row>
+    <row r="65" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F65" s="63"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+    </row>
+    <row r="66" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F66" s="63"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+    </row>
+    <row r="67" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F67" s="63"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+    </row>
+    <row r="68" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F68" s="63"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+    </row>
+    <row r="69" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+    </row>
+    <row r="70" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+    </row>
+    <row r="71" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="63"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+    </row>
+    <row r="72" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="6:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G77" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3E4D6-082C-4FC5-9A0B-7416C52470AD}">
+  <dimension ref="A2:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="64" customWidth="1"/>
+    <col min="13" max="257" width="12.5703125" customWidth="1"/>
+    <col min="258" max="259" width="28.85546875" customWidth="1"/>
+    <col min="260" max="267" width="11.5703125" customWidth="1"/>
+    <col min="268" max="268" width="32.140625" customWidth="1"/>
+    <col min="269" max="513" width="12.5703125" customWidth="1"/>
+    <col min="514" max="515" width="28.85546875" customWidth="1"/>
+    <col min="516" max="523" width="11.5703125" customWidth="1"/>
+    <col min="524" max="524" width="32.140625" customWidth="1"/>
+    <col min="525" max="769" width="12.5703125" customWidth="1"/>
+    <col min="770" max="771" width="28.85546875" customWidth="1"/>
+    <col min="772" max="779" width="11.5703125" customWidth="1"/>
+    <col min="780" max="780" width="32.140625" customWidth="1"/>
+    <col min="781" max="1025" width="12.5703125" customWidth="1"/>
+    <col min="1026" max="1027" width="28.85546875" customWidth="1"/>
+    <col min="1028" max="1035" width="11.5703125" customWidth="1"/>
+    <col min="1036" max="1036" width="32.140625" customWidth="1"/>
+    <col min="1037" max="1281" width="12.5703125" customWidth="1"/>
+    <col min="1282" max="1283" width="28.85546875" customWidth="1"/>
+    <col min="1284" max="1291" width="11.5703125" customWidth="1"/>
+    <col min="1292" max="1292" width="32.140625" customWidth="1"/>
+    <col min="1293" max="1537" width="12.5703125" customWidth="1"/>
+    <col min="1538" max="1539" width="28.85546875" customWidth="1"/>
+    <col min="1540" max="1547" width="11.5703125" customWidth="1"/>
+    <col min="1548" max="1548" width="32.140625" customWidth="1"/>
+    <col min="1549" max="1793" width="12.5703125" customWidth="1"/>
+    <col min="1794" max="1795" width="28.85546875" customWidth="1"/>
+    <col min="1796" max="1803" width="11.5703125" customWidth="1"/>
+    <col min="1804" max="1804" width="32.140625" customWidth="1"/>
+    <col min="1805" max="2049" width="12.5703125" customWidth="1"/>
+    <col min="2050" max="2051" width="28.85546875" customWidth="1"/>
+    <col min="2052" max="2059" width="11.5703125" customWidth="1"/>
+    <col min="2060" max="2060" width="32.140625" customWidth="1"/>
+    <col min="2061" max="2305" width="12.5703125" customWidth="1"/>
+    <col min="2306" max="2307" width="28.85546875" customWidth="1"/>
+    <col min="2308" max="2315" width="11.5703125" customWidth="1"/>
+    <col min="2316" max="2316" width="32.140625" customWidth="1"/>
+    <col min="2317" max="2561" width="12.5703125" customWidth="1"/>
+    <col min="2562" max="2563" width="28.85546875" customWidth="1"/>
+    <col min="2564" max="2571" width="11.5703125" customWidth="1"/>
+    <col min="2572" max="2572" width="32.140625" customWidth="1"/>
+    <col min="2573" max="2817" width="12.5703125" customWidth="1"/>
+    <col min="2818" max="2819" width="28.85546875" customWidth="1"/>
+    <col min="2820" max="2827" width="11.5703125" customWidth="1"/>
+    <col min="2828" max="2828" width="32.140625" customWidth="1"/>
+    <col min="2829" max="3073" width="12.5703125" customWidth="1"/>
+    <col min="3074" max="3075" width="28.85546875" customWidth="1"/>
+    <col min="3076" max="3083" width="11.5703125" customWidth="1"/>
+    <col min="3084" max="3084" width="32.140625" customWidth="1"/>
+    <col min="3085" max="3329" width="12.5703125" customWidth="1"/>
+    <col min="3330" max="3331" width="28.85546875" customWidth="1"/>
+    <col min="3332" max="3339" width="11.5703125" customWidth="1"/>
+    <col min="3340" max="3340" width="32.140625" customWidth="1"/>
+    <col min="3341" max="3585" width="12.5703125" customWidth="1"/>
+    <col min="3586" max="3587" width="28.85546875" customWidth="1"/>
+    <col min="3588" max="3595" width="11.5703125" customWidth="1"/>
+    <col min="3596" max="3596" width="32.140625" customWidth="1"/>
+    <col min="3597" max="3841" width="12.5703125" customWidth="1"/>
+    <col min="3842" max="3843" width="28.85546875" customWidth="1"/>
+    <col min="3844" max="3851" width="11.5703125" customWidth="1"/>
+    <col min="3852" max="3852" width="32.140625" customWidth="1"/>
+    <col min="3853" max="4097" width="12.5703125" customWidth="1"/>
+    <col min="4098" max="4099" width="28.85546875" customWidth="1"/>
+    <col min="4100" max="4107" width="11.5703125" customWidth="1"/>
+    <col min="4108" max="4108" width="32.140625" customWidth="1"/>
+    <col min="4109" max="4353" width="12.5703125" customWidth="1"/>
+    <col min="4354" max="4355" width="28.85546875" customWidth="1"/>
+    <col min="4356" max="4363" width="11.5703125" customWidth="1"/>
+    <col min="4364" max="4364" width="32.140625" customWidth="1"/>
+    <col min="4365" max="4609" width="12.5703125" customWidth="1"/>
+    <col min="4610" max="4611" width="28.85546875" customWidth="1"/>
+    <col min="4612" max="4619" width="11.5703125" customWidth="1"/>
+    <col min="4620" max="4620" width="32.140625" customWidth="1"/>
+    <col min="4621" max="4865" width="12.5703125" customWidth="1"/>
+    <col min="4866" max="4867" width="28.85546875" customWidth="1"/>
+    <col min="4868" max="4875" width="11.5703125" customWidth="1"/>
+    <col min="4876" max="4876" width="32.140625" customWidth="1"/>
+    <col min="4877" max="5121" width="12.5703125" customWidth="1"/>
+    <col min="5122" max="5123" width="28.85546875" customWidth="1"/>
+    <col min="5124" max="5131" width="11.5703125" customWidth="1"/>
+    <col min="5132" max="5132" width="32.140625" customWidth="1"/>
+    <col min="5133" max="5377" width="12.5703125" customWidth="1"/>
+    <col min="5378" max="5379" width="28.85546875" customWidth="1"/>
+    <col min="5380" max="5387" width="11.5703125" customWidth="1"/>
+    <col min="5388" max="5388" width="32.140625" customWidth="1"/>
+    <col min="5389" max="5633" width="12.5703125" customWidth="1"/>
+    <col min="5634" max="5635" width="28.85546875" customWidth="1"/>
+    <col min="5636" max="5643" width="11.5703125" customWidth="1"/>
+    <col min="5644" max="5644" width="32.140625" customWidth="1"/>
+    <col min="5645" max="5889" width="12.5703125" customWidth="1"/>
+    <col min="5890" max="5891" width="28.85546875" customWidth="1"/>
+    <col min="5892" max="5899" width="11.5703125" customWidth="1"/>
+    <col min="5900" max="5900" width="32.140625" customWidth="1"/>
+    <col min="5901" max="6145" width="12.5703125" customWidth="1"/>
+    <col min="6146" max="6147" width="28.85546875" customWidth="1"/>
+    <col min="6148" max="6155" width="11.5703125" customWidth="1"/>
+    <col min="6156" max="6156" width="32.140625" customWidth="1"/>
+    <col min="6157" max="6401" width="12.5703125" customWidth="1"/>
+    <col min="6402" max="6403" width="28.85546875" customWidth="1"/>
+    <col min="6404" max="6411" width="11.5703125" customWidth="1"/>
+    <col min="6412" max="6412" width="32.140625" customWidth="1"/>
+    <col min="6413" max="6657" width="12.5703125" customWidth="1"/>
+    <col min="6658" max="6659" width="28.85546875" customWidth="1"/>
+    <col min="6660" max="6667" width="11.5703125" customWidth="1"/>
+    <col min="6668" max="6668" width="32.140625" customWidth="1"/>
+    <col min="6669" max="6913" width="12.5703125" customWidth="1"/>
+    <col min="6914" max="6915" width="28.85546875" customWidth="1"/>
+    <col min="6916" max="6923" width="11.5703125" customWidth="1"/>
+    <col min="6924" max="6924" width="32.140625" customWidth="1"/>
+    <col min="6925" max="7169" width="12.5703125" customWidth="1"/>
+    <col min="7170" max="7171" width="28.85546875" customWidth="1"/>
+    <col min="7172" max="7179" width="11.5703125" customWidth="1"/>
+    <col min="7180" max="7180" width="32.140625" customWidth="1"/>
+    <col min="7181" max="7425" width="12.5703125" customWidth="1"/>
+    <col min="7426" max="7427" width="28.85546875" customWidth="1"/>
+    <col min="7428" max="7435" width="11.5703125" customWidth="1"/>
+    <col min="7436" max="7436" width="32.140625" customWidth="1"/>
+    <col min="7437" max="7681" width="12.5703125" customWidth="1"/>
+    <col min="7682" max="7683" width="28.85546875" customWidth="1"/>
+    <col min="7684" max="7691" width="11.5703125" customWidth="1"/>
+    <col min="7692" max="7692" width="32.140625" customWidth="1"/>
+    <col min="7693" max="7937" width="12.5703125" customWidth="1"/>
+    <col min="7938" max="7939" width="28.85546875" customWidth="1"/>
+    <col min="7940" max="7947" width="11.5703125" customWidth="1"/>
+    <col min="7948" max="7948" width="32.140625" customWidth="1"/>
+    <col min="7949" max="8193" width="12.5703125" customWidth="1"/>
+    <col min="8194" max="8195" width="28.85546875" customWidth="1"/>
+    <col min="8196" max="8203" width="11.5703125" customWidth="1"/>
+    <col min="8204" max="8204" width="32.140625" customWidth="1"/>
+    <col min="8205" max="8449" width="12.5703125" customWidth="1"/>
+    <col min="8450" max="8451" width="28.85546875" customWidth="1"/>
+    <col min="8452" max="8459" width="11.5703125" customWidth="1"/>
+    <col min="8460" max="8460" width="32.140625" customWidth="1"/>
+    <col min="8461" max="8705" width="12.5703125" customWidth="1"/>
+    <col min="8706" max="8707" width="28.85546875" customWidth="1"/>
+    <col min="8708" max="8715" width="11.5703125" customWidth="1"/>
+    <col min="8716" max="8716" width="32.140625" customWidth="1"/>
+    <col min="8717" max="8961" width="12.5703125" customWidth="1"/>
+    <col min="8962" max="8963" width="28.85546875" customWidth="1"/>
+    <col min="8964" max="8971" width="11.5703125" customWidth="1"/>
+    <col min="8972" max="8972" width="32.140625" customWidth="1"/>
+    <col min="8973" max="9217" width="12.5703125" customWidth="1"/>
+    <col min="9218" max="9219" width="28.85546875" customWidth="1"/>
+    <col min="9220" max="9227" width="11.5703125" customWidth="1"/>
+    <col min="9228" max="9228" width="32.140625" customWidth="1"/>
+    <col min="9229" max="9473" width="12.5703125" customWidth="1"/>
+    <col min="9474" max="9475" width="28.85546875" customWidth="1"/>
+    <col min="9476" max="9483" width="11.5703125" customWidth="1"/>
+    <col min="9484" max="9484" width="32.140625" customWidth="1"/>
+    <col min="9485" max="9729" width="12.5703125" customWidth="1"/>
+    <col min="9730" max="9731" width="28.85546875" customWidth="1"/>
+    <col min="9732" max="9739" width="11.5703125" customWidth="1"/>
+    <col min="9740" max="9740" width="32.140625" customWidth="1"/>
+    <col min="9741" max="9985" width="12.5703125" customWidth="1"/>
+    <col min="9986" max="9987" width="28.85546875" customWidth="1"/>
+    <col min="9988" max="9995" width="11.5703125" customWidth="1"/>
+    <col min="9996" max="9996" width="32.140625" customWidth="1"/>
+    <col min="9997" max="10241" width="12.5703125" customWidth="1"/>
+    <col min="10242" max="10243" width="28.85546875" customWidth="1"/>
+    <col min="10244" max="10251" width="11.5703125" customWidth="1"/>
+    <col min="10252" max="10252" width="32.140625" customWidth="1"/>
+    <col min="10253" max="10497" width="12.5703125" customWidth="1"/>
+    <col min="10498" max="10499" width="28.85546875" customWidth="1"/>
+    <col min="10500" max="10507" width="11.5703125" customWidth="1"/>
+    <col min="10508" max="10508" width="32.140625" customWidth="1"/>
+    <col min="10509" max="10753" width="12.5703125" customWidth="1"/>
+    <col min="10754" max="10755" width="28.85546875" customWidth="1"/>
+    <col min="10756" max="10763" width="11.5703125" customWidth="1"/>
+    <col min="10764" max="10764" width="32.140625" customWidth="1"/>
+    <col min="10765" max="11009" width="12.5703125" customWidth="1"/>
+    <col min="11010" max="11011" width="28.85546875" customWidth="1"/>
+    <col min="11012" max="11019" width="11.5703125" customWidth="1"/>
+    <col min="11020" max="11020" width="32.140625" customWidth="1"/>
+    <col min="11021" max="11265" width="12.5703125" customWidth="1"/>
+    <col min="11266" max="11267" width="28.85546875" customWidth="1"/>
+    <col min="11268" max="11275" width="11.5703125" customWidth="1"/>
+    <col min="11276" max="11276" width="32.140625" customWidth="1"/>
+    <col min="11277" max="11521" width="12.5703125" customWidth="1"/>
+    <col min="11522" max="11523" width="28.85546875" customWidth="1"/>
+    <col min="11524" max="11531" width="11.5703125" customWidth="1"/>
+    <col min="11532" max="11532" width="32.140625" customWidth="1"/>
+    <col min="11533" max="11777" width="12.5703125" customWidth="1"/>
+    <col min="11778" max="11779" width="28.85546875" customWidth="1"/>
+    <col min="11780" max="11787" width="11.5703125" customWidth="1"/>
+    <col min="11788" max="11788" width="32.140625" customWidth="1"/>
+    <col min="11789" max="12033" width="12.5703125" customWidth="1"/>
+    <col min="12034" max="12035" width="28.85546875" customWidth="1"/>
+    <col min="12036" max="12043" width="11.5703125" customWidth="1"/>
+    <col min="12044" max="12044" width="32.140625" customWidth="1"/>
+    <col min="12045" max="12289" width="12.5703125" customWidth="1"/>
+    <col min="12290" max="12291" width="28.85546875" customWidth="1"/>
+    <col min="12292" max="12299" width="11.5703125" customWidth="1"/>
+    <col min="12300" max="12300" width="32.140625" customWidth="1"/>
+    <col min="12301" max="12545" width="12.5703125" customWidth="1"/>
+    <col min="12546" max="12547" width="28.85546875" customWidth="1"/>
+    <col min="12548" max="12555" width="11.5703125" customWidth="1"/>
+    <col min="12556" max="12556" width="32.140625" customWidth="1"/>
+    <col min="12557" max="12801" width="12.5703125" customWidth="1"/>
+    <col min="12802" max="12803" width="28.85546875" customWidth="1"/>
+    <col min="12804" max="12811" width="11.5703125" customWidth="1"/>
+    <col min="12812" max="12812" width="32.140625" customWidth="1"/>
+    <col min="12813" max="13057" width="12.5703125" customWidth="1"/>
+    <col min="13058" max="13059" width="28.85546875" customWidth="1"/>
+    <col min="13060" max="13067" width="11.5703125" customWidth="1"/>
+    <col min="13068" max="13068" width="32.140625" customWidth="1"/>
+    <col min="13069" max="13313" width="12.5703125" customWidth="1"/>
+    <col min="13314" max="13315" width="28.85546875" customWidth="1"/>
+    <col min="13316" max="13323" width="11.5703125" customWidth="1"/>
+    <col min="13324" max="13324" width="32.140625" customWidth="1"/>
+    <col min="13325" max="13569" width="12.5703125" customWidth="1"/>
+    <col min="13570" max="13571" width="28.85546875" customWidth="1"/>
+    <col min="13572" max="13579" width="11.5703125" customWidth="1"/>
+    <col min="13580" max="13580" width="32.140625" customWidth="1"/>
+    <col min="13581" max="13825" width="12.5703125" customWidth="1"/>
+    <col min="13826" max="13827" width="28.85546875" customWidth="1"/>
+    <col min="13828" max="13835" width="11.5703125" customWidth="1"/>
+    <col min="13836" max="13836" width="32.140625" customWidth="1"/>
+    <col min="13837" max="14081" width="12.5703125" customWidth="1"/>
+    <col min="14082" max="14083" width="28.85546875" customWidth="1"/>
+    <col min="14084" max="14091" width="11.5703125" customWidth="1"/>
+    <col min="14092" max="14092" width="32.140625" customWidth="1"/>
+    <col min="14093" max="14337" width="12.5703125" customWidth="1"/>
+    <col min="14338" max="14339" width="28.85546875" customWidth="1"/>
+    <col min="14340" max="14347" width="11.5703125" customWidth="1"/>
+    <col min="14348" max="14348" width="32.140625" customWidth="1"/>
+    <col min="14349" max="14593" width="12.5703125" customWidth="1"/>
+    <col min="14594" max="14595" width="28.85546875" customWidth="1"/>
+    <col min="14596" max="14603" width="11.5703125" customWidth="1"/>
+    <col min="14604" max="14604" width="32.140625" customWidth="1"/>
+    <col min="14605" max="14849" width="12.5703125" customWidth="1"/>
+    <col min="14850" max="14851" width="28.85546875" customWidth="1"/>
+    <col min="14852" max="14859" width="11.5703125" customWidth="1"/>
+    <col min="14860" max="14860" width="32.140625" customWidth="1"/>
+    <col min="14861" max="15105" width="12.5703125" customWidth="1"/>
+    <col min="15106" max="15107" width="28.85546875" customWidth="1"/>
+    <col min="15108" max="15115" width="11.5703125" customWidth="1"/>
+    <col min="15116" max="15116" width="32.140625" customWidth="1"/>
+    <col min="15117" max="15361" width="12.5703125" customWidth="1"/>
+    <col min="15362" max="15363" width="28.85546875" customWidth="1"/>
+    <col min="15364" max="15371" width="11.5703125" customWidth="1"/>
+    <col min="15372" max="15372" width="32.140625" customWidth="1"/>
+    <col min="15373" max="15617" width="12.5703125" customWidth="1"/>
+    <col min="15618" max="15619" width="28.85546875" customWidth="1"/>
+    <col min="15620" max="15627" width="11.5703125" customWidth="1"/>
+    <col min="15628" max="15628" width="32.140625" customWidth="1"/>
+    <col min="15629" max="15873" width="12.5703125" customWidth="1"/>
+    <col min="15874" max="15875" width="28.85546875" customWidth="1"/>
+    <col min="15876" max="15883" width="11.5703125" customWidth="1"/>
+    <col min="15884" max="15884" width="32.140625" customWidth="1"/>
+    <col min="15885" max="16129" width="12.5703125" customWidth="1"/>
+    <col min="16130" max="16131" width="28.85546875" customWidth="1"/>
+    <col min="16132" max="16139" width="11.5703125" customWidth="1"/>
+    <col min="16140" max="16140" width="32.140625" customWidth="1"/>
+    <col min="16141" max="16384" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="58"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="91"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="59">
+        <v>3</v>
+      </c>
+      <c r="F6" s="59">
+        <v>4</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="59">
+        <v>7</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="59">
+        <v>4</v>
+      </c>
+      <c r="F7" s="59">
+        <v>5</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="59">
+        <v>8</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="91"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="59">
+        <v>5</v>
+      </c>
+      <c r="F8" s="59">
+        <v>6</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="59">
+        <v>9</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="91"/>
+    </row>
+    <row r="9" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="59">
+        <v>6</v>
+      </c>
+      <c r="F9" s="59">
+        <v>7</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="59">
+        <v>10</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59">
+        <v>13</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="91"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="59">
+        <v>7</v>
+      </c>
+      <c r="F10" s="59">
+        <v>8</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="59">
+        <v>11</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59">
+        <v>14</v>
+      </c>
+      <c r="L10" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="91"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="59">
+        <v>8</v>
+      </c>
+      <c r="F11" s="59">
+        <v>9</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="59">
+        <v>12</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59">
+        <v>15</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="91"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="59">
+        <v>9</v>
+      </c>
+      <c r="F12" s="59">
+        <v>10</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="59">
+        <v>13</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59">
+        <v>16</v>
+      </c>
+      <c r="L12" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="91"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="59">
+        <v>10</v>
+      </c>
+      <c r="F13" s="59">
+        <v>11</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="59">
+        <v>14</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59">
+        <v>11</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="91"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="59">
+        <v>11</v>
+      </c>
+      <c r="F14" s="59">
+        <v>12</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59">
+        <v>13</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59">
+        <v>12</v>
+      </c>
+      <c r="L14" s="92"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="91"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="59">
+        <v>12</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59">
+        <v>16</v>
+      </c>
+      <c r="L15" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" s="91"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="59">
+        <v>13</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59">
+        <v>17</v>
+      </c>
+      <c r="L16" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" s="91"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="59">
+        <v>14</v>
+      </c>
+      <c r="F17" s="59">
+        <v>15</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="59">
+        <v>18</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17" s="91"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="59">
+        <v>15</v>
+      </c>
+      <c r="F18" s="59">
+        <v>16</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="59">
+        <v>19</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="N18" s="91"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="59">
+        <v>16</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="92"/>
+      <c r="N19" s="91"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="59">
+        <v>17</v>
+      </c>
+      <c r="F20" s="59">
+        <v>18</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="59">
+        <v>21</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="92"/>
+      <c r="N20" s="91"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="59">
+        <v>18</v>
+      </c>
+      <c r="F21" s="59">
+        <v>19</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="59">
+        <v>22</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" s="92"/>
+      <c r="N21" s="91"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="N22" s="91"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="62"/>
+      <c r="N23" s="91"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="N24" s="91"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="N25" s="91"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="N26" s="91"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="N27" s="91"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="N28" s="91"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 2\timing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7ED91D-4461-4F75-A009-FDCEDB740441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2FF04-4D8B-41A1-95F4-12FD905D284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2a" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="244">
   <si>
     <t>4DM4 Assignment 2(a), DAXPY Loop, No Unrolling, No Scheduling</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -813,13 +813,29 @@
   </si>
   <si>
     <t>4DM4 Assignment 2(e), DAXPY Loop, Unrolling, Scheduling, On Dual-Issue Machine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20cc per iteration of the loop, 2 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 2 FLOP/20cc. (3 GHz)*(2 FLOP/20cc) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300 MFLOP/sec</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +998,14 @@
       <color theme="5"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1286,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1414,6 +1438,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,6 +2568,20 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
+      <c r="C29" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2567,7 +2608,11 @@
       <c r="R40" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C29:N29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2575,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02356681-9A30-45C3-BE25-535E5C1A58D7}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19861,7 +19906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3E4D6-082C-4FC5-9A0B-7416C52470AD}">
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2FF04-4D8B-41A1-95F4-12FD905D284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741031C-04FD-4219-920A-D2D215029BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2a" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="249">
   <si>
     <t>4DM4 Assignment 2(a), DAXPY Loop, No Unrolling, No Scheduling</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -830,12 +830,79 @@
       <t>300 MFLOP/sec</t>
     </r>
   </si>
+  <si>
+    <t>forward R1 (EX* to *EX) in cc8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18cc per iteration of the loop, 2 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 2 FLOP/18cc. (3 GHz)*(2 FLOP/18cc) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>333.3 MFLOP/sec</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">62cc per unrolled iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/62cc. (3 GHz)*(8 FLOP/62cc) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>387.1 MFLOP/sec</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">29cc per iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/29cc. (3 GHz)*(8 FLOP/29cc) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>827.6 MFLOP/sec</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22cc per iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/22cc. (3 GHz)*(8 FLOP/22cc) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1090.9 MFLOP/sec</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1070,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1310,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1442,6 +1524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1731,7 +1817,7 @@
   <dimension ref="B2:AA40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C29" sqref="C29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2082,7 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="12" t="s">
+      <c r="AA14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2620,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02356681-9A30-45C3-BE25-535E5C1A58D7}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,7 +2974,9 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2984,7 +3072,9 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -3026,7 +3116,9 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="9" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -3405,12 +3497,24 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
     </row>
     <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -3467,6 +3571,9 @@
       <c r="R40" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C29:N29"/>
+  </mergeCells>
   <conditionalFormatting sqref="C19:Z26 C18:E18 G18:Z18 C14:Z17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"stall"</formula>
@@ -3480,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2947B3F-865E-4E46-9A91-E9BDDBBE8BD5}">
   <dimension ref="B2:DC49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8155,6 +8262,21 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
+      <c r="C48" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -8162,16 +8284,19 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C48:O48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CC242-34F4-4FF7-A40F-1653B5D3686C}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9258,7 +9383,7 @@
       </c>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="33" t="s">
         <v>28</v>
       </c>
@@ -9280,7 +9405,7 @@
       </c>
       <c r="H33" s="34"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>29</v>
       </c>
@@ -9301,7 +9426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>30</v>
       </c>
@@ -9320,7 +9445,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
         <v>45</v>
       </c>
@@ -9335,7 +9460,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="34" t="s">
         <v>45</v>
       </c>
@@ -9350,22 +9475,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="96"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>61</v>
       </c>
@@ -9374,6 +9514,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C40:O40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9382,8 +9525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4769AE-CF13-4E3F-A6FE-AC5700114344}">
   <dimension ref="B2:DC77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13774,190 +13917,207 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="C48" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="R48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="V48" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="R49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="V49" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G50" s="9" t="s">
+    <row r="50" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="V50" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G51" s="9" t="s">
+    <row r="51" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="V51" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G52" s="9" t="s">
+    <row r="52" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R52" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="V52" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G53" s="9" t="s">
+    <row r="53" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="V53" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G54" s="9" t="s">
+    <row r="54" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R54" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="V54" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G55" s="9" t="s">
+    <row r="55" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R55" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G56" s="9" t="s">
+    <row r="56" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R56" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G57" s="9" t="s">
+    <row r="57" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R57" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G58" s="9" t="s">
+    <row r="58" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R58" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G59" s="9" t="s">
+    <row r="59" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R59" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G60" s="9" t="s">
+    <row r="60" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R60" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G61" s="9" t="s">
+    <row r="61" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R61" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G62" s="9" t="s">
+    <row r="62" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R62" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G63" s="9" t="s">
+    <row r="63" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R63" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G64" s="9" t="s">
+    <row r="64" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R64" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G65" s="9" t="s">
+    <row r="65" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R65" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G66" s="9" t="s">
+    <row r="66" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R66" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G67" s="9" t="s">
+    <row r="67" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R67" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G68" s="9" t="s">
+    <row r="68" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R68" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G69" s="9" t="s">
+    <row r="69" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R69" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G70" s="9" t="s">
+    <row r="70" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R70" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G71" s="9" t="s">
+    <row r="71" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R71" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G72" s="9" t="s">
+    <row r="72" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R72" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G73" s="9" t="s">
+    <row r="73" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R73" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G74" s="9" t="s">
+    <row r="74" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R74" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G75" s="9" t="s">
+    <row r="75" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R75" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G76" s="9" t="s">
+    <row r="76" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R76" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G77" s="9" t="s">
+    <row r="77" spans="18:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R77" s="9" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C48:N48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84740D-9A84-4CFB-977F-D74F74FE9540}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14676,7 +14836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>133</v>
       </c>
@@ -14698,7 +14858,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>130</v>
       </c>
@@ -14720,7 +14880,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>29</v>
       </c>
@@ -14740,7 +14900,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>124</v>
       </c>
@@ -14760,7 +14920,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>134</v>
       </c>
@@ -14781,7 +14941,7 @@
       </c>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>135</v>
       </c>
@@ -14802,7 +14962,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
         <v>136</v>
       </c>
@@ -14823,7 +14983,7 @@
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>125</v>
       </c>
@@ -14846,7 +15006,7 @@
       </c>
       <c r="H24" s="34"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>137</v>
       </c>
@@ -14869,7 +15029,7 @@
       </c>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>138</v>
       </c>
@@ -14892,7 +15052,7 @@
       </c>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
@@ -14908,7 +15068,7 @@
       <c r="G27" s="35"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>139</v>
       </c>
@@ -14930,7 +15090,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="33" t="s">
         <v>140</v>
       </c>
@@ -14950,17 +15110,31 @@
       </c>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>60</v>
       </c>
+      <c r="C32" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H33" s="37"/>
@@ -14974,6 +15148,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C32:N32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14982,8 +15159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238898DC-EDD0-4084-9AC1-82019E5FBD6F}">
   <dimension ref="B2:DC77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19520,281 +19697,278 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="9" t="s">
+      <c r="C48" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="U48" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="9" t="s">
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="Y48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+    </row>
+    <row r="49" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="F49" s="63"/>
-      <c r="G49" s="9" t="s">
+      <c r="U49" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="9" t="s">
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="Y49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-    </row>
-    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
+    </row>
+    <row r="50" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F50" s="63"/>
-      <c r="G50" s="9" t="s">
+      <c r="U50" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="9" t="s">
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="Y50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-    </row>
-    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+    </row>
+    <row r="51" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F51" s="63"/>
-      <c r="G51" s="9" t="s">
+      <c r="U51" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="9" t="s">
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="Y51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="63"/>
+    </row>
+    <row r="52" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F52" s="63"/>
-      <c r="G52" s="9" t="s">
+      <c r="U52" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="9" t="s">
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="Y52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-    </row>
-    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="63"/>
+    </row>
+    <row r="53" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F53" s="63"/>
-      <c r="G53" s="9" t="s">
+      <c r="U53" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="9" t="s">
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="Y53" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-    </row>
-    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="63"/>
+    </row>
+    <row r="54" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F54" s="63"/>
-      <c r="G54" s="9" t="s">
+      <c r="U54" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="9" t="s">
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="Y54" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-    </row>
-    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="63"/>
+    </row>
+    <row r="55" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F55" s="63"/>
-      <c r="G55" s="9" t="s">
+      <c r="U55" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="9" t="s">
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="Y55" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-    </row>
-    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+    </row>
+    <row r="56" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F56" s="63"/>
-      <c r="G56" s="9" t="s">
+      <c r="U56" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="9" t="s">
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="Y56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-    </row>
-    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z56" s="63"/>
+      <c r="AA56" s="63"/>
+    </row>
+    <row r="57" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F57" s="63"/>
-      <c r="G57" s="9" t="s">
+      <c r="U57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="9" t="s">
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="Y57" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-    </row>
-    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="63"/>
+    </row>
+    <row r="58" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F58" s="63"/>
-      <c r="G58" s="9" t="s">
+      <c r="U58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="9" t="s">
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="Y58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-    </row>
-    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z58" s="63"/>
+      <c r="AA58" s="63"/>
+    </row>
+    <row r="59" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F59" s="63"/>
-      <c r="G59" s="9" t="s">
+      <c r="U59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="9" t="s">
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="Y59" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="63"/>
+    </row>
+    <row r="60" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F60" s="63"/>
-      <c r="G60" s="9" t="s">
+      <c r="U60" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="9" t="s">
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="Y60" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-    </row>
-    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z60" s="63"/>
+      <c r="AA60" s="63"/>
+    </row>
+    <row r="61" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F61" s="63"/>
-      <c r="G61" s="9" t="s">
+      <c r="U61" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="9" t="s">
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="Y61" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-    </row>
-    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="63"/>
+    </row>
+    <row r="62" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F62" s="63"/>
-      <c r="G62" s="9" t="s">
+      <c r="U62" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="9" t="s">
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="Y62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="63"/>
+    </row>
+    <row r="63" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F63" s="63"/>
-      <c r="G63" s="9" t="s">
+      <c r="U63" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="9" t="s">
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="Y63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-    </row>
-    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z63" s="63"/>
+      <c r="AA63" s="63"/>
+    </row>
+    <row r="64" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
@@ -19898,16 +20072,19 @@
       <c r="G77" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C48:N48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3E4D6-082C-4FC5-9A0B-7416C52470AD}">
-  <dimension ref="A2:N32"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20954,7 +21131,29 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C35:N35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741031C-04FD-4219-920A-D2D215029BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6429C7D-FE11-413B-BC78-DEB2068C5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,8 +815,11 @@
     <t>4DM4 Assignment 2(e), DAXPY Loop, Unrolling, Scheduling, On Dual-Issue Machine</t>
   </si>
   <si>
+    <t>forward R1 (EX* to *EX) in cc8</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">20cc per iteration of the loop, 2 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 2 FLOP/20cc. (3 GHz)*(2 FLOP/20cc) = </t>
+      <t xml:space="preserve">19cc per iteration of the loop, 2 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 2 FLOP/19cc. (3 GHz)*(2 FLOP/19cc) = </t>
     </r>
     <r>
       <rPr>
@@ -827,15 +830,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>300 MFLOP/sec</t>
+      <t>315.8 MFLOP/sec</t>
     </r>
   </si>
   <si>
-    <t>forward R1 (EX* to *EX) in cc8</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">18cc per iteration of the loop, 2 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 2 FLOP/18cc. (3 GHz)*(2 FLOP/18cc) = </t>
+      <t>13cc per iteration of the loop, 2 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 2 FLOP/13cc. (3 GHz)*(2 FLOP/13cc) = 461.5</t>
     </r>
     <r>
       <rPr>
@@ -846,12 +846,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>333.3 MFLOP/sec</t>
+      <t xml:space="preserve"> MFLOP/sec</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">62cc per unrolled iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/62cc. (3 GHz)*(8 FLOP/62cc) = </t>
+      <t xml:space="preserve">61cc per unrolled iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/61cc. (3 GHz)*(8 FLOP/61cc) = </t>
     </r>
     <r>
       <rPr>
@@ -862,12 +862,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>387.1 MFLOP/sec</t>
+      <t>393.4 MFLOP/sec</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">29cc per iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/29cc. (3 GHz)*(8 FLOP/29cc) = </t>
+      <t xml:space="preserve">24cc per iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/24cc. (3 GHz)*(8 FLOP/24cc) = </t>
     </r>
     <r>
       <rPr>
@@ -878,12 +878,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>827.6 MFLOP/sec</t>
+      <t>1000 MFLOP/sec</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">22cc per iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/22cc. (3 GHz)*(8 FLOP/22cc) = </t>
+      <t xml:space="preserve">16cc per iteration of the loop, 8 FLOPs per iteration (MULT.D &amp; ADD.D), therefore 8 FLOP/16cc. (3 GHz)*(8 FLOP/16cc) = </t>
     </r>
     <r>
       <rPr>
@@ -894,7 +894,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1090.9 MFLOP/sec</t>
+      <t>1500 MFLOP/sec</t>
     </r>
   </si>
 </sst>
@@ -1524,10 +1524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,7 +1817,7 @@
   <dimension ref="B2:AA40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:N29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2655,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -2707,7 +2707,7 @@
   <dimension ref="B2:AA40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:N29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3117,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -8262,21 +8262,21 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -9486,21 +9486,21 @@
       <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H41" s="37"/>
@@ -9525,7 +9525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4769AE-CF13-4E3F-A6FE-AC5700114344}">
   <dimension ref="B2:DC77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:N48"/>
     </sheetView>
   </sheetViews>
@@ -14117,7 +14117,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15160,7 +15160,7 @@
   <dimension ref="B2:DC77"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:N48"/>
+      <selection activeCell="C48" sqref="C48:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19697,20 +19697,20 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
       <c r="U48" s="9" t="s">
         <v>121</v>
       </c>
@@ -20084,7 +20084,7 @@
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21135,20 +21135,20 @@
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment 2/timing/a2.xlsx
+++ b/Assignment 2/timing/a2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\4DM4\Assignment 2\timing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 2\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6429C7D-FE11-413B-BC78-DEB2068C5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FCCC38-5317-404F-86EF-5CA45648E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2a" sheetId="1" r:id="rId1"/>
@@ -1814,71 +1814,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA40"/>
+  <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" customWidth="1"/>
+    <col min="3" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="64" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1899,7 +1899,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1937,17 +1937,17 @@
       <c r="T12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="W12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:Z13" si="0">C13+1</f>
+        <f t="shared" ref="D13:V13" si="0">C13+1</f>
         <v>2</v>
       </c>
       <c r="E13" s="7">
@@ -2022,25 +2022,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W13" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="X13" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Z13" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2078,15 +2062,11 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="9" t="s">
+      <c r="W14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
@@ -2134,15 +2114,11 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="9" t="s">
+      <c r="W15" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -2184,13 +2160,9 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="9"/>
-    </row>
-    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
@@ -2240,15 +2212,11 @@
       <c r="T17" s="20"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="9" t="s">
+      <c r="W17" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
@@ -2300,13 +2268,9 @@
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="9"/>
-    </row>
-    <row r="19" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W18" s="9"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
@@ -2350,15 +2314,11 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="9" t="s">
+      <c r="W19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
@@ -2394,13 +2354,9 @@
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="9"/>
-    </row>
-    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W20" s="9"/>
+    </row>
+    <row r="21" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2436,13 +2392,9 @@
         <v>16</v>
       </c>
       <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="9"/>
-    </row>
-    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W21" s="9"/>
+    </row>
+    <row r="22" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>30</v>
       </c>
@@ -2474,13 +2426,9 @@
         <v>12</v>
       </c>
       <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="9"/>
-    </row>
-    <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W22" s="9"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
@@ -2510,13 +2458,9 @@
         <v>11</v>
       </c>
       <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="9"/>
-    </row>
-    <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W23" s="9"/>
+    </row>
+    <row r="24" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
@@ -2546,13 +2490,9 @@
       <c r="V24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="9"/>
-    </row>
-    <row r="25" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W24" s="9"/>
+    </row>
+    <row r="25" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2574,13 +2514,9 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2602,13 +2538,9 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="14"/>
@@ -2627,7 +2559,7 @@
       <c r="T27" s="14"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="14"/>
@@ -2650,7 +2582,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -2669,7 +2601,7 @@
       <c r="M29" s="94"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2704,73 +2636,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02356681-9A30-45C3-BE25-535E5C1A58D7}">
-  <dimension ref="B2:AA40"/>
+  <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" customWidth="1"/>
+    <col min="3" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="64" t="s">
         <v>206</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2791,7 +2723,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2829,17 +2761,17 @@
       <c r="T12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="U12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:Z13" si="0">C13+1</f>
+        <f t="shared" ref="D13:T13" si="0">C13+1</f>
         <v>2</v>
       </c>
       <c r="E13" s="7">
@@ -2906,33 +2838,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U13" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="V13" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="W13" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="X13" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Z13" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>120</v>
       </c>
@@ -2968,17 +2876,11 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -3014,15 +2916,9 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
@@ -3066,17 +2962,11 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="9" t="s">
+      <c r="U16" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
@@ -3110,17 +3000,11 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="9" t="s">
+      <c r="U17" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
@@ -3153,15 +3037,9 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="9"/>
-    </row>
-    <row r="19" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
@@ -3203,15 +3081,9 @@
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="9"/>
-    </row>
-    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
@@ -3245,15 +3117,9 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="9"/>
-    </row>
-    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
@@ -3295,15 +3161,9 @@
       <c r="T21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="9"/>
-    </row>
-    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
@@ -3335,15 +3195,9 @@
         <v>16</v>
       </c>
       <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="9"/>
-    </row>
-    <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -3363,15 +3217,9 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="9"/>
-    </row>
-    <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3391,15 +3239,9 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="9"/>
-    </row>
-    <row r="25" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -3419,15 +3261,9 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -3447,15 +3283,9 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="14"/>
@@ -3472,9 +3302,8 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="24"/>
@@ -3494,10 +3323,8 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -3516,18 +3343,18 @@
       <c r="M29" s="94"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
     </row>
@@ -3574,7 +3401,7 @@
   <mergeCells count="1">
     <mergeCell ref="C29:N29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C19:Z26 C18:E18 G18:Z18 C14:Z17">
+  <conditionalFormatting sqref="C19:T26 C18:E18 G18:T18 C14:T17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"stall"</formula>
     </cfRule>
@@ -15159,8 +14986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238898DC-EDD0-4084-9AC1-82019E5FBD6F}">
   <dimension ref="B2:DC77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:N48"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20083,7 +19910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3E4D6-082C-4FC5-9A0B-7416C52470AD}">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
